--- a/python-test/scripts/4_ai_scikit_learn/newgroups-truncated.xlsx
+++ b/python-test/scripts/4_ai_scikit_learn/newgroups-truncated.xlsx
@@ -446,16 +446,16 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>#TARGET</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1121995591672596</v>
+        <v>0.112201945198315</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05771982428142254</v>
+        <v>0.04631250397364985</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -463,10 +463,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1399320546563967</v>
+        <v>0.1399346165061877</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.1436209533128978</v>
+        <v>-0.1412115777125796</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -474,10 +474,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.2326784757139574</v>
+        <v>0.2326807903135577</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.05515541978215689</v>
+        <v>-0.07011804701193484</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -485,10 +485,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.1097446984233314</v>
+        <v>0.109748140656217</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3687026516845309</v>
+        <v>0.3897015669396684</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -496,10 +496,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1452605321982117</v>
+        <v>0.1452690519292514</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0763711763816689</v>
+        <v>-0.08498672897980072</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -507,10 +507,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2773011667073796</v>
+        <v>0.2773042256839608</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0676414752161611</v>
+        <v>-0.06323628799979548</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -518,10 +518,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.1141090256808989</v>
+        <v>0.1141076357482814</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1312430586542257</v>
+        <v>0.1367940730645786</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -529,10 +529,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.07352988122632838</v>
+        <v>0.0735370808429707</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0219482244297461</v>
+        <v>0.02696082539409977</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -540,10 +540,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.2480216096480234</v>
+        <v>0.2480258033554327</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.07781195931519971</v>
+        <v>-0.06668115280906023</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.08593201691227859</v>
+        <v>0.08593855240417639</v>
       </c>
       <c r="B11" t="n">
-        <v>0.003764501459003523</v>
+        <v>-0.003945337305921177</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -562,10 +562,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.07410679942807444</v>
+        <v>0.07409993502333616</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0534248736908595</v>
+        <v>-0.05486601519566462</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -573,10 +573,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.1347913448881945</v>
+        <v>0.1347936064549864</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01507349753484426</v>
+        <v>0.01239188406381906</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -584,10 +584,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.237358891286126</v>
+        <v>0.2373571917530086</v>
       </c>
       <c r="B14" t="n">
-        <v>0.127921841496335</v>
+        <v>0.1433823691038853</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1185495727222302</v>
+        <v>0.1185436435831081</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.08301235212362426</v>
+        <v>-0.08348087174541438</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.2072609035939038</v>
+        <v>0.2072490329468186</v>
       </c>
       <c r="B16" t="n">
-        <v>0.03069676945106374</v>
+        <v>0.0321083349517681</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.157127219450028</v>
+        <v>0.1571185357008044</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1258740177441105</v>
+        <v>0.1271672645849418</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.1126418129559454</v>
+        <v>0.1126433881018684</v>
       </c>
       <c r="B18" t="n">
-        <v>0.08527081020103489</v>
+        <v>0.08671971893193857</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -639,10 +639,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.1767998941461511</v>
+        <v>0.1767901124588772</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.07309147664663374</v>
+        <v>-0.07039783160447839</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -650,10 +650,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1217232229311488</v>
+        <v>0.1217187280148803</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01534050465254007</v>
+        <v>0.02009274183062931</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0879736264816286</v>
+        <v>0.08797006640914982</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.0401829186956628</v>
+        <v>-0.02880285512366825</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -672,10 +672,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.2356131010388853</v>
+        <v>0.2356149665690805</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09413331789486516</v>
+        <v>0.09556639641325583</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -683,10 +683,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.1861377331109166</v>
+        <v>0.186140378383274</v>
       </c>
       <c r="B23" t="n">
-        <v>0.07584794563924277</v>
+        <v>0.06743777349892707</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -694,10 +694,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.4364855778486971</v>
+        <v>0.436485210325937</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.1654002960165099</v>
+        <v>-0.1417310078521041</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -705,10 +705,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.0845644117458222</v>
+        <v>0.08456656455638206</v>
       </c>
       <c r="B25" t="n">
-        <v>0.03782739348731227</v>
+        <v>0.03956587185295991</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.2570108753626423</v>
+        <v>0.257008240565986</v>
       </c>
       <c r="B26" t="n">
-        <v>0.04033416737802296</v>
+        <v>0.04349877947348292</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -727,10 +727,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.2500606791046174</v>
+        <v>0.2500581437165202</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2063766663192904</v>
+        <v>0.2005616473990959</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -738,10 +738,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.145269981071322</v>
+        <v>0.145269847567933</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.0063122509612757</v>
+        <v>-0.01693346754115614</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -749,10 +749,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.03012498616261478</v>
+        <v>0.03012604269945101</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.001941097501655996</v>
+        <v>0.005684830932850786</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -760,10 +760,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.1485189264833304</v>
+        <v>0.1485223729362507</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.053247773154164</v>
+        <v>-0.05746186364037201</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -771,10 +771,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.1065487462701495</v>
+        <v>0.1065367958547001</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01973176509233578</v>
+        <v>0.02627816671458385</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.246175770206681</v>
+        <v>0.2461742929525775</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.1261566903070179</v>
+        <v>-0.1208101788122117</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.05322990875616734</v>
+        <v>0.05322449240341144</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.1478567817284114</v>
+        <v>-0.1378131998485474</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
@@ -804,10 +804,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.160180900991921</v>
+        <v>0.1601770509753054</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.1063799651225674</v>
+        <v>-0.1022966346809141</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -815,10 +815,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.04918434799622602</v>
+        <v>0.04918354716750125</v>
       </c>
       <c r="B35" t="n">
-        <v>0.03910588783794147</v>
+        <v>0.05017071189645603</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
@@ -826,10 +826,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.1816081649579567</v>
+        <v>0.1815955081038275</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1633984540068864</v>
+        <v>0.1564589857742332</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.1666067517129299</v>
+        <v>0.1666108213421814</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.08927538349852551</v>
+        <v>-0.08582003852488779</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.321285874468016</v>
+        <v>0.3212881583820066</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.03415576869372872</v>
+        <v>-0.02828033610393374</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -859,10 +859,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.2366644987399265</v>
+        <v>0.2366555740945612</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.07809535400992179</v>
+        <v>-0.07413818714856614</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -870,10 +870,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.0824298197419643</v>
+        <v>0.08242327892341463</v>
       </c>
       <c r="B40" t="n">
-        <v>0.07392984495667762</v>
+        <v>0.06821201967843869</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.09242216785614078</v>
+        <v>0.09242330378572731</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.04020402961785024</v>
+        <v>-0.04192316061504454</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
@@ -892,10 +892,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.1825591033318172</v>
+        <v>0.1825624010356143</v>
       </c>
       <c r="B42" t="n">
-        <v>0.07435794736842903</v>
+        <v>0.07837189124578164</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -903,10 +903,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.07027429011004958</v>
+        <v>0.07026645092136649</v>
       </c>
       <c r="B43" t="n">
-        <v>0.07755114386126793</v>
+        <v>0.07421673190265177</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.1656534591038296</v>
+        <v>0.1656566004827696</v>
       </c>
       <c r="B44" t="n">
-        <v>0.01944241939708855</v>
+        <v>0.007618563524049719</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -925,10 +925,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.1267908236460255</v>
+        <v>0.1267960396108199</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.005833795583614344</v>
+        <v>-0.007986738196879992</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -936,10 +936,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.2045770384233481</v>
+        <v>0.2045760796054632</v>
       </c>
       <c r="B46" t="n">
-        <v>0.02665112222940268</v>
+        <v>0.02161911283484964</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.2133107358227398</v>
+        <v>0.2133097912551447</v>
       </c>
       <c r="B47" t="n">
-        <v>0.002370394175065424</v>
+        <v>-0.007957854014119759</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.1433883121309233</v>
+        <v>0.143380550782871</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.02211184082376003</v>
+        <v>-0.02982252883345013</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
@@ -969,10 +969,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.1452424451195783</v>
+        <v>0.1452354604975811</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1293197737050056</v>
+        <v>0.1137022501949554</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -980,10 +980,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.2277990922395884</v>
+        <v>0.2278026966175197</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.03060472055551508</v>
+        <v>-0.04865080069446794</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -991,10 +991,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.1271460148339245</v>
+        <v>0.1271489766073042</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.02458110661443478</v>
+        <v>-0.01907145584024278</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1002,10 +1002,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.2138619756593494</v>
+        <v>0.2138532302816225</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.1386416670350845</v>
+        <v>-0.1420154450875509</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.1103735656614288</v>
+        <v>0.1103701602337641</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.06331415872561354</v>
+        <v>-0.06186388770836455</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.09280911309077007</v>
+        <v>0.09280642856340771</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.06491325334705095</v>
+        <v>-0.06156430684027214</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.3185394270898525</v>
+        <v>0.3185398725339003</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.1161008240818474</v>
+        <v>-0.1146990376985148</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
@@ -1046,10 +1046,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.05105840819081841</v>
+        <v>0.0510642658019007</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.02422660632171419</v>
+        <v>-0.02747837649651105</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
@@ -1068,10 +1068,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.1822639984943033</v>
+        <v>0.1822604520484268</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.06521016492048549</v>
+        <v>-0.05569681844905418</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
@@ -1079,10 +1079,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.1102359181608761</v>
+        <v>0.110223934010662</v>
       </c>
       <c r="B59" t="n">
-        <v>0.02517250205710204</v>
+        <v>0.02165251134906896</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1090,10 +1090,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.1606450058847093</v>
+        <v>0.1606421184803146</v>
       </c>
       <c r="B60" t="n">
-        <v>0.08121387805710942</v>
+        <v>0.0847830307592175</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.2380056280528774</v>
+        <v>0.2380111854750874</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.1194213697433765</v>
+        <v>-0.1116045585231282</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -1112,10 +1112,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.07783450433593124</v>
+        <v>0.07783153772978947</v>
       </c>
       <c r="B62" t="n">
-        <v>0.01622594861343271</v>
+        <v>0.02158252787652617</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -1123,10 +1123,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.1601036206497518</v>
+        <v>0.1601061074630107</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.1116395128753141</v>
+        <v>-0.1057615631279405</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
@@ -1134,10 +1134,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.1632579292611736</v>
+        <v>0.1632470114560797</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.05666691137417745</v>
+        <v>-0.05369219804023244</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -1145,10 +1145,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.1437012909642094</v>
+        <v>0.1437015134985168</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1098328346604928</v>
+        <v>0.1143999190888513</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -1156,10 +1156,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.1883823097077527</v>
+        <v>0.188380976720635</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.1115225913701084</v>
+        <v>-0.1174270871139186</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.2808194031686233</v>
+        <v>0.2808201597682972</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.1831831579622637</v>
+        <v>-0.1852645358101195</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
@@ -1178,10 +1178,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.1390768577700127</v>
+        <v>0.1390733177785503</v>
       </c>
       <c r="B68" t="n">
-        <v>0.001687737551514975</v>
+        <v>-0.004266710062010169</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
@@ -1189,10 +1189,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.2253174987131249</v>
+        <v>0.2253227904794274</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.06453124393242556</v>
+        <v>-0.06170503017261914</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
@@ -1200,10 +1200,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.3069966602103378</v>
+        <v>0.3070133941674729</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.05632018515312907</v>
+        <v>-0.05686547045351593</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
@@ -1211,10 +1211,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.1201080314467599</v>
+        <v>0.1201192047581443</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.02887140230789409</v>
+        <v>-0.02976697253823785</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.2458988576798647</v>
+        <v>0.2459148189603554</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07945472939206888</v>
+        <v>0.09128438381874183</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -1233,10 +1233,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.2173496142473305</v>
+        <v>0.2173544362509045</v>
       </c>
       <c r="B73" t="n">
-        <v>0.07756882681952947</v>
+        <v>0.06771159170700992</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -1244,10 +1244,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.08786334771403284</v>
+        <v>0.08786191706734142</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.08396251530914597</v>
+        <v>-0.07911520795232464</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
@@ -1255,10 +1255,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.1835103627007201</v>
+        <v>0.1834899766321769</v>
       </c>
       <c r="B75" t="n">
-        <v>0.06500628084516039</v>
+        <v>0.06542057178350257</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -1266,10 +1266,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.1195053873040947</v>
+        <v>0.1195099797203412</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.02292892710075166</v>
+        <v>-0.02210034179145916</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
@@ -1277,10 +1277,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.1943081527874007</v>
+        <v>0.1943064680655962</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.1427690671235177</v>
+        <v>-0.1360653274720933</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
@@ -1299,10 +1299,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.260184115923677</v>
+        <v>0.2601826698944787</v>
       </c>
       <c r="B79" t="n">
-        <v>0.02158754789735322</v>
+        <v>-0.006823615381715963</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.04417743364361934</v>
+        <v>0.04417962869893723</v>
       </c>
       <c r="B80" t="n">
-        <v>0.02601417087836021</v>
+        <v>0.02220330525639947</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.1632894618274484</v>
+        <v>0.1632880760032914</v>
       </c>
       <c r="B81" t="n">
-        <v>0.006115414229188388</v>
+        <v>-0.002083830285637821</v>
       </c>
       <c r="C81" t="n">
         <v>1</v>
@@ -1332,10 +1332,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.1325803954192012</v>
+        <v>0.1325827401738364</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.01613487842446625</v>
+        <v>-0.01599699864200103</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -1343,10 +1343,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.2162194088879525</v>
+        <v>0.216221524793593</v>
       </c>
       <c r="B83" t="n">
-        <v>0.01560551058783472</v>
+        <v>0.01485944081089953</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.1273128997498718</v>
+        <v>0.1273052661882116</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.0009069466456813051</v>
+        <v>-0.006619280588592875</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -1365,10 +1365,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.1761259690963404</v>
+        <v>0.1761251522012474</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.05851882478118008</v>
+        <v>-0.05304632191964725</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.1674910330160589</v>
+        <v>0.1674999152411816</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.0005318283485758963</v>
+        <v>0.001089331544573433</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.1158594663839035</v>
+        <v>0.1158647641920954</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.01082834397527396</v>
+        <v>-0.009986502905303306</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
@@ -1398,10 +1398,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.2197109468027125</v>
+        <v>0.2197244591394264</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.008604546273630592</v>
+        <v>0.01045771177480443</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.2031538735260192</v>
+        <v>0.2031669278051878</v>
       </c>
       <c r="B89" t="n">
-        <v>0.01127409758473874</v>
+        <v>0.01228118894566131</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.1617383057025848</v>
+        <v>0.1617414990411203</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.005897191251754314</v>
+        <v>-0.01354178625049901</v>
       </c>
       <c r="C90" t="n">
         <v>1</v>
@@ -1431,10 +1431,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.1755774972365085</v>
+        <v>0.1755558644904564</v>
       </c>
       <c r="B91" t="n">
-        <v>0.09518648749913342</v>
+        <v>0.1023050483779326</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -1442,10 +1442,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.1054306638654024</v>
+        <v>0.1054275939811783</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.1850345919280008</v>
+        <v>-0.1756930658647453</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.1431084821997475</v>
+        <v>0.1431126524834607</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.06929398211680191</v>
+        <v>-0.06432998123053282</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.2275865604043439</v>
+        <v>0.2275920017411289</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.08424032987675519</v>
+        <v>-0.09796035776197719</v>
       </c>
       <c r="C94" t="n">
         <v>1</v>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.1760827576521685</v>
+        <v>0.1760727811375648</v>
       </c>
       <c r="B95" t="n">
-        <v>0.07644380590626568</v>
+        <v>0.07344907824747124</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -1486,10 +1486,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.1467636535533613</v>
+        <v>0.1467598236802743</v>
       </c>
       <c r="B96" t="n">
-        <v>0.05240689233006283</v>
+        <v>0.05634117396110875</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -1497,10 +1497,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.1383603610602445</v>
+        <v>0.1383448107216874</v>
       </c>
       <c r="B97" t="n">
-        <v>0.191418244588914</v>
+        <v>0.1841230766090236</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -1508,10 +1508,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.2799240347363562</v>
+        <v>0.2799211744385826</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.09872851632237165</v>
+        <v>-0.1217299913440449</v>
       </c>
       <c r="C98" t="n">
         <v>1</v>
@@ -1519,10 +1519,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.2726540655168754</v>
+        <v>0.2726638992495986</v>
       </c>
       <c r="B99" t="n">
-        <v>0.03174499164990784</v>
+        <v>0.02379850186048521</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.2663535824225406</v>
+        <v>0.2663476791275808</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.1298686245243371</v>
+        <v>-0.1362032014498739</v>
       </c>
       <c r="C100" t="n">
         <v>1</v>
@@ -1541,10 +1541,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.228322112780704</v>
+        <v>0.2283266398118553</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08036416405164011</v>
+        <v>0.09018764125776847</v>
       </c>
       <c r="C101" t="n">
         <v>1</v>
@@ -1552,10 +1552,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.1003929351716363</v>
+        <v>0.1003995552325421</v>
       </c>
       <c r="B102" t="n">
-        <v>0.01092328262397173</v>
+        <v>0.008343006059273803</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -1563,10 +1563,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.1626271237422836</v>
+        <v>0.1626395033378473</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.01682903652024351</v>
+        <v>-0.02328619260641209</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -1574,10 +1574,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.09706959678179358</v>
+        <v>0.09707205999081153</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.03293489603859327</v>
+        <v>-0.03564133062223938</v>
       </c>
       <c r="C104" t="n">
         <v>1</v>
@@ -1585,10 +1585,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.2045086987321126</v>
+        <v>0.2045116386533337</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1399736492083944</v>
+        <v>0.1675676197974716</v>
       </c>
       <c r="C105" t="n">
         <v>1</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.220716559206188</v>
+        <v>0.2207234285878364</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.03604321246663275</v>
+        <v>-0.06020718643570471</v>
       </c>
       <c r="C106" t="n">
         <v>1</v>
@@ -1607,10 +1607,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.07713128674307709</v>
+        <v>0.07712807997670243</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.04348024262663859</v>
+        <v>-0.03644239598590442</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.1629237567598998</v>
+        <v>0.1629122744618646</v>
       </c>
       <c r="B108" t="n">
-        <v>0.04307159991947839</v>
+        <v>0.02658944629032953</v>
       </c>
       <c r="C108" t="n">
         <v>1</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.1419132894189133</v>
+        <v>0.1419191209063699</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.003337613306405298</v>
+        <v>-0.005133454723892711</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -1640,10 +1640,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.08717082962567621</v>
+        <v>0.08717331748685442</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.0183899803355476</v>
+        <v>-0.01852466406201721</v>
       </c>
       <c r="C110" t="n">
         <v>1</v>
@@ -1651,10 +1651,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.2989447541787379</v>
+        <v>0.298935919077984</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.2655628580510683</v>
+        <v>-0.254811747055395</v>
       </c>
       <c r="C111" t="n">
         <v>1</v>
@@ -1662,10 +1662,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.1891591517200526</v>
+        <v>0.1891615336854166</v>
       </c>
       <c r="B112" t="n">
-        <v>0.03502294318577672</v>
+        <v>0.02950780178066598</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -1673,10 +1673,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.2446709941649904</v>
+        <v>0.2446699186465347</v>
       </c>
       <c r="B113" t="n">
-        <v>0.09939304065510221</v>
+        <v>0.09859393137417505</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -1684,10 +1684,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.272510295013845</v>
+        <v>0.2725097635170243</v>
       </c>
       <c r="B114" t="n">
-        <v>0.1245365194541479</v>
+        <v>0.1265607597282066</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -1695,10 +1695,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.1525890321084966</v>
+        <v>0.1525860030153462</v>
       </c>
       <c r="B115" t="n">
-        <v>0.1385570309864215</v>
+        <v>0.1230235009681684</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -1706,10 +1706,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.09609693088888088</v>
+        <v>0.09610658374367402</v>
       </c>
       <c r="B116" t="n">
-        <v>0.02412840643426206</v>
+        <v>0.03151039989749591</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -1717,10 +1717,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.1063803385752677</v>
+        <v>0.1063770133294183</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0177173250045124</v>
+        <v>0.01951028315379678</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -1728,10 +1728,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.3217608920911306</v>
+        <v>0.3217632978982139</v>
       </c>
       <c r="B118" t="n">
-        <v>0.09444955908193131</v>
+        <v>0.08682243728862547</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.08883180321148604</v>
+        <v>0.08883421646045074</v>
       </c>
       <c r="B119" t="n">
-        <v>0.01844166484209194</v>
+        <v>0.02164773828522851</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -1750,10 +1750,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.1437936284633023</v>
+        <v>0.1437984902958428</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.07414987482504401</v>
+        <v>-0.06659131685914545</v>
       </c>
       <c r="C120" t="n">
         <v>1</v>
@@ -1761,10 +1761,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.2147635278629672</v>
+        <v>0.2147692191666496</v>
       </c>
       <c r="B121" t="n">
-        <v>0.1062163301206576</v>
+        <v>0.1255750791683642</v>
       </c>
       <c r="C121" t="n">
         <v>1</v>
@@ -1772,10 +1772,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.1886976692433313</v>
+        <v>0.1887005557201508</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.02185841854474899</v>
+        <v>-0.03525539812411607</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.2394432026799396</v>
+        <v>0.239443298855341</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.1543411838638606</v>
+        <v>-0.1446753598934148</v>
       </c>
       <c r="C123" t="n">
         <v>1</v>
@@ -1794,10 +1794,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.04841231557929407</v>
+        <v>0.04840863618300449</v>
       </c>
       <c r="B124" t="n">
-        <v>0.05369428276927209</v>
+        <v>0.05633434673813138</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -1805,10 +1805,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.105665675030502</v>
+        <v>0.1056614687490705</v>
       </c>
       <c r="B125" t="n">
-        <v>0.04004835682365068</v>
+        <v>0.04009262883087003</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.08630338461467342</v>
+        <v>0.08630651923206166</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0413748392495043</v>
+        <v>0.04958368447280135</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -1838,10 +1838,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.1440107287876244</v>
+        <v>0.1440080752371529</v>
       </c>
       <c r="B128" t="n">
-        <v>0.009125734211272451</v>
+        <v>0.0009411553238447929</v>
       </c>
       <c r="C128" t="n">
         <v>1</v>
@@ -1849,10 +1849,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.1386128648382397</v>
+        <v>0.1386107054730349</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.05095567724453623</v>
+        <v>-0.04457004106668987</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -1860,10 +1860,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.1506060574440123</v>
+        <v>0.1506067021772873</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.00459146041048873</v>
+        <v>-0.01180794490575729</v>
       </c>
       <c r="C130" t="n">
         <v>1</v>
@@ -1871,10 +1871,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.171645773169266</v>
+        <v>0.1716498656113384</v>
       </c>
       <c r="B131" t="n">
-        <v>0.06220113101880399</v>
+        <v>0.07540091176411383</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.2242732108679953</v>
+        <v>0.2242759974744616</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0317451038484849</v>
+        <v>0.03250677874673638</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -1893,10 +1893,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.04575154704068728</v>
+        <v>0.04575885491838943</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.05341595480293746</v>
+        <v>-0.0445215840123505</v>
       </c>
       <c r="C133" t="n">
         <v>1</v>
@@ -1904,10 +1904,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.1891093153830997</v>
+        <v>0.1891107162007457</v>
       </c>
       <c r="B134" t="n">
-        <v>0.01223324822214146</v>
+        <v>0.01835919592992643</v>
       </c>
       <c r="C134" t="n">
         <v>1</v>
@@ -1915,10 +1915,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.1162710706901518</v>
+        <v>0.1162701273537934</v>
       </c>
       <c r="B135" t="n">
-        <v>0.06178015297986452</v>
+        <v>0.05891997398361798</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -1926,10 +1926,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.1026231393496407</v>
+        <v>0.1026116727057284</v>
       </c>
       <c r="B136" t="n">
-        <v>0.1776964015975272</v>
+        <v>0.1763736115592652</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.2477928440327529</v>
+        <v>0.2477956048175098</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.1274493867739735</v>
+        <v>-0.1245974471087063</v>
       </c>
       <c r="C137" t="n">
         <v>1</v>
@@ -1948,10 +1948,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.05790396629727871</v>
+        <v>0.05790356028127059</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.021529102430504</v>
+        <v>-0.02147192889184163</v>
       </c>
       <c r="C138" t="n">
         <v>1</v>
@@ -1959,10 +1959,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.1111540887327731</v>
+        <v>0.1111710251819837</v>
       </c>
       <c r="B139" t="n">
-        <v>0.04112811902757273</v>
+        <v>0.04897862914200364</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.1633040278269016</v>
+        <v>0.1633296939929915</v>
       </c>
       <c r="B140" t="n">
-        <v>0.09868780110173057</v>
+        <v>0.10319784232546</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -1981,10 +1981,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.1245714478363309</v>
+        <v>0.124569662040021</v>
       </c>
       <c r="B141" t="n">
-        <v>0.1731783292958895</v>
+        <v>0.1674976085365766</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -1992,10 +1992,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.1401013361641547</v>
+        <v>0.1400926420563479</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.08728282479139848</v>
+        <v>-0.07780205873375597</v>
       </c>
       <c r="C142" t="n">
         <v>1</v>
@@ -2003,10 +2003,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.1018468497283274</v>
+        <v>0.1018439635249995</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.02767383223831622</v>
+        <v>-0.02877942859920822</v>
       </c>
       <c r="C143" t="n">
         <v>1</v>
@@ -2014,10 +2014,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.2574504404590948</v>
+        <v>0.2574457143882095</v>
       </c>
       <c r="B144" t="n">
-        <v>0.03225184255268678</v>
+        <v>0.02319340510504311</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -2025,10 +2025,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.1037781995215833</v>
+        <v>0.1037847404035179</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.008426522313071137</v>
+        <v>-0.01084604384682746</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -2036,10 +2036,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.2862524632444286</v>
+        <v>0.286257769014231</v>
       </c>
       <c r="B146" t="n">
-        <v>0.1515216429303497</v>
+        <v>0.1593282748247573</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.1405503555508922</v>
+        <v>0.1405646732262209</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.005383895375302978</v>
+        <v>0.01504363673396443</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.1988654514266853</v>
+        <v>0.1988746593397974</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0711364786652925</v>
+        <v>0.05655196418210787</v>
       </c>
       <c r="C148" t="n">
         <v>1</v>
@@ -2069,10 +2069,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.2602260781432598</v>
+        <v>0.2602147520271331</v>
       </c>
       <c r="B149" t="n">
-        <v>0.04645988373892031</v>
+        <v>0.04027047874520012</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.1397653909344316</v>
+        <v>0.1397669214615536</v>
       </c>
       <c r="B150" t="n">
-        <v>0.08654713888500666</v>
+        <v>0.08225029047344939</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.09644080765052167</v>
+        <v>0.09643661749591341</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.006265525673368294</v>
+        <v>-0.003505372332093162</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -2102,10 +2102,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.05677112988751463</v>
+        <v>0.0567697751551146</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.04417612429233096</v>
+        <v>-0.05091130015169917</v>
       </c>
       <c r="C152" t="n">
         <v>1</v>
@@ -2113,10 +2113,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.128138634782432</v>
+        <v>0.1281370025391253</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.01648007790397162</v>
+        <v>-0.019432102942405</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -2124,10 +2124,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.2243992521213742</v>
+        <v>0.2244082301693834</v>
       </c>
       <c r="B154" t="n">
-        <v>0.01813962383539054</v>
+        <v>0.0136512431114804</v>
       </c>
       <c r="C154" t="n">
         <v>1</v>
@@ -2135,10 +2135,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.1380104878617796</v>
+        <v>0.1380022417882842</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.01232846947468564</v>
+        <v>-0.01279765226111963</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.1061761285391402</v>
+        <v>0.106180826025066</v>
       </c>
       <c r="B156" t="n">
-        <v>0.02774794840720416</v>
+        <v>0.0254471799112415</v>
       </c>
       <c r="C156" t="n">
         <v>1</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.2221920320366983</v>
+        <v>0.2222033757321345</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.06951374734986476</v>
+        <v>-0.07746476561538145</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -2179,10 +2179,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.1123678407405251</v>
+        <v>0.1123683641569817</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.06495069088984252</v>
+        <v>-0.06900281300657583</v>
       </c>
       <c r="C159" t="n">
         <v>1</v>
@@ -2190,10 +2190,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.115191757293017</v>
+        <v>0.1151930478210517</v>
       </c>
       <c r="B160" t="n">
-        <v>0.007766186103089828</v>
+        <v>0.003770195714138912</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -2201,10 +2201,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.09839890165349582</v>
+        <v>0.09838425571379635</v>
       </c>
       <c r="B161" t="n">
-        <v>0.193248439633033</v>
+        <v>0.1862222313826832</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -2212,10 +2212,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.0943849944483041</v>
+        <v>0.09439161838690212</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.02854613945162424</v>
+        <v>-0.02750395923854521</v>
       </c>
       <c r="C162" t="n">
         <v>1</v>
@@ -2223,10 +2223,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.1740275457629857</v>
+        <v>0.1740493080337242</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.0411312180071991</v>
+        <v>-0.03262555727043448</v>
       </c>
       <c r="C163" t="n">
         <v>1</v>
@@ -2234,10 +2234,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.1277589519264615</v>
+        <v>0.1277452511476296</v>
       </c>
       <c r="B164" t="n">
-        <v>0.06715999433863824</v>
+        <v>0.06132298547289167</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.1932732220050331</v>
+        <v>0.1932769898605726</v>
       </c>
       <c r="B165" t="n">
-        <v>0.1181882647302835</v>
+        <v>0.123890684996566</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.1277927724202343</v>
+        <v>0.1277968913096955</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0669008046704152</v>
+        <v>0.06466768661981487</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -2267,10 +2267,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.1054752502090069</v>
+        <v>0.105484972805772</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.03303874602503217</v>
+        <v>-0.02701700607128599</v>
       </c>
       <c r="C167" t="n">
         <v>1</v>
@@ -2278,10 +2278,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.1560627735488304</v>
+        <v>0.1560643892407992</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.03909073433696409</v>
+        <v>-0.0478493707683158</v>
       </c>
       <c r="C168" t="n">
         <v>1</v>
@@ -2289,10 +2289,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.1229320577503465</v>
+        <v>0.122932692627933</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.03894690052380985</v>
+        <v>-0.03544039670798396</v>
       </c>
       <c r="C169" t="n">
         <v>1</v>
@@ -2300,10 +2300,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.1160090097910097</v>
+        <v>0.1160111729038989</v>
       </c>
       <c r="B170" t="n">
-        <v>0.06400585649502577</v>
+        <v>0.0650612263041512</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -2311,10 +2311,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.1313352591091774</v>
+        <v>0.1313349593986021</v>
       </c>
       <c r="B171" t="n">
-        <v>0.03930591268058733</v>
+        <v>0.03865720330543793</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -2322,10 +2322,10 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.1823409998928373</v>
+        <v>0.1823404414177648</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.01722725854690223</v>
+        <v>-0.0203194966017403</v>
       </c>
       <c r="C172" t="n">
         <v>1</v>
@@ -2333,10 +2333,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.05616040594968078</v>
+        <v>0.05616421624154713</v>
       </c>
       <c r="B173" t="n">
-        <v>0.01369875384891992</v>
+        <v>0.02383679769915727</v>
       </c>
       <c r="C173" t="n">
         <v>1</v>
@@ -2344,10 +2344,10 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.1170273556384085</v>
+        <v>0.1170255871596413</v>
       </c>
       <c r="B174" t="n">
-        <v>0.05756227420135976</v>
+        <v>0.06220851232187554</v>
       </c>
       <c r="C174" t="n">
         <v>1</v>
@@ -2355,10 +2355,10 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.2102547750067613</v>
+        <v>0.2102553008063124</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.03631314720492219</v>
+        <v>-0.03701301228811118</v>
       </c>
       <c r="C175" t="n">
         <v>1</v>
@@ -2366,10 +2366,10 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.2452032982186862</v>
+        <v>0.2452020634764208</v>
       </c>
       <c r="B176" t="n">
-        <v>0.07384606892405873</v>
+        <v>0.07163145628599785</v>
       </c>
       <c r="C176" t="n">
         <v>1</v>
@@ -2377,10 +2377,10 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.05330026343995114</v>
+        <v>0.05330342925152447</v>
       </c>
       <c r="B177" t="n">
-        <v>0.02790601411652037</v>
+        <v>0.03396604750702325</v>
       </c>
       <c r="C177" t="n">
         <v>1</v>
@@ -2388,10 +2388,10 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.08384416409349497</v>
+        <v>0.08384146620720907</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.01723293107889776</v>
+        <v>-0.0144494330104292</v>
       </c>
       <c r="C178" t="n">
         <v>1</v>
@@ -2399,10 +2399,10 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.06339480818650881</v>
+        <v>0.06339757433712992</v>
       </c>
       <c r="B179" t="n">
-        <v>0.005118806646044773</v>
+        <v>0.01473125552546624</v>
       </c>
       <c r="C179" t="n">
         <v>1</v>
@@ -2410,10 +2410,10 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.0910381277593002</v>
+        <v>0.09105185061341745</v>
       </c>
       <c r="B180" t="n">
-        <v>0.02770626650235997</v>
+        <v>0.03696893752990544</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -2421,10 +2421,10 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.1354257331539359</v>
+        <v>0.1354175694092471</v>
       </c>
       <c r="B181" t="n">
-        <v>0.1897831474270169</v>
+        <v>0.1892381718036604</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -2432,10 +2432,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.127634940737826</v>
+        <v>0.1276276976068181</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.2494644614687959</v>
+        <v>-0.2344261029918353</v>
       </c>
       <c r="C182" t="n">
         <v>1</v>
@@ -2443,10 +2443,10 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.2728691403455498</v>
+        <v>0.2728716842894233</v>
       </c>
       <c r="B183" t="n">
-        <v>0.1177462661232714</v>
+        <v>0.1168194965098017</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -2454,10 +2454,10 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.192379101959389</v>
+        <v>0.1923761191548316</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.01253985682500998</v>
+        <v>-0.0129750729466642</v>
       </c>
       <c r="C184" t="n">
         <v>1</v>
@@ -2465,10 +2465,10 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.1218296748677004</v>
+        <v>0.1218237111819558</v>
       </c>
       <c r="B185" t="n">
-        <v>0.1844783574385459</v>
+        <v>0.1909232092859915</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -2476,10 +2476,10 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.1391850918316765</v>
+        <v>0.1391908034732828</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.02267058038756605</v>
+        <v>-0.02386777672199898</v>
       </c>
       <c r="C186" t="n">
         <v>1</v>
@@ -2487,10 +2487,10 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.1854950718926082</v>
+        <v>0.1854911422563234</v>
       </c>
       <c r="B187" t="n">
-        <v>0.08709708025119359</v>
+        <v>0.08457437948585092</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -2498,10 +2498,10 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.09659082563799146</v>
+        <v>0.09659377506388116</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.02415858746532269</v>
+        <v>-0.02228323734634187</v>
       </c>
       <c r="C188" t="n">
         <v>1</v>
@@ -2509,10 +2509,10 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.1523628576659873</v>
+        <v>0.152352130298329</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.04134325365736849</v>
+        <v>-0.04043598793028837</v>
       </c>
       <c r="C189" t="n">
         <v>1</v>
@@ -2520,10 +2520,10 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.1632379773085406</v>
+        <v>0.1632329948868317</v>
       </c>
       <c r="B190" t="n">
-        <v>0.113534819266948</v>
+        <v>0.1110977945903601</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -2531,10 +2531,10 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.1898234522258288</v>
+        <v>0.1898233461877244</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.08660425101888149</v>
+        <v>-0.08628589243871562</v>
       </c>
       <c r="C191" t="n">
         <v>1</v>
@@ -2542,10 +2542,10 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.1909041070028948</v>
+        <v>0.1909070177488631</v>
       </c>
       <c r="B192" t="n">
-        <v>0.002301898899491363</v>
+        <v>0.002465156967852372</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -2553,10 +2553,10 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.1500785966749323</v>
+        <v>0.1500806800942253</v>
       </c>
       <c r="B193" t="n">
-        <v>0.01466156798508388</v>
+        <v>0.01463690641665632</v>
       </c>
       <c r="C193" t="n">
         <v>1</v>
@@ -2564,10 +2564,10 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.100738499029377</v>
+        <v>0.1007342251717471</v>
       </c>
       <c r="B194" t="n">
-        <v>0.06242846670800923</v>
+        <v>0.06053924284969657</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -2575,10 +2575,10 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.1491633842443406</v>
+        <v>0.1491595485817443</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.02523611980410936</v>
+        <v>-0.03304444224519545</v>
       </c>
       <c r="C195" t="n">
         <v>1</v>
@@ -2586,10 +2586,10 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.2012873579533725</v>
+        <v>0.2012705597723168</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.04478745461105148</v>
+        <v>-0.05074119986134294</v>
       </c>
       <c r="C196" t="n">
         <v>1</v>
@@ -2597,10 +2597,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.09136168879376848</v>
+        <v>0.09134579607527239</v>
       </c>
       <c r="B197" t="n">
-        <v>0.1269230685811186</v>
+        <v>0.1208662628944639</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.214107892339073</v>
+        <v>0.2140967372427179</v>
       </c>
       <c r="B198" t="n">
-        <v>0.1939194195338259</v>
+        <v>0.1749930514211854</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -2619,10 +2619,10 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.06226406593809109</v>
+        <v>0.06226497023536033</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.03570038128516405</v>
+        <v>-0.03181859563917289</v>
       </c>
       <c r="C199" t="n">
         <v>1</v>
@@ -2630,10 +2630,10 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.1646820436585366</v>
+        <v>0.1646862087186607</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.04042194119066018</v>
+        <v>-0.03903278954030501</v>
       </c>
       <c r="C200" t="n">
         <v>1</v>
@@ -2641,10 +2641,10 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.07813780035513455</v>
+        <v>0.07813134683889328</v>
       </c>
       <c r="B201" t="n">
-        <v>0.04236570763065226</v>
+        <v>0.0418312783547936</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -2652,10 +2652,10 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.2038389016437253</v>
+        <v>0.2038292948812737</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.1640484930159441</v>
+        <v>-0.1750442189173081</v>
       </c>
       <c r="C202" t="n">
         <v>1</v>
@@ -2663,10 +2663,10 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.09232482699436309</v>
+        <v>0.09232062787416227</v>
       </c>
       <c r="B203" t="n">
-        <v>0.03460338566782437</v>
+        <v>0.03362158067533158</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -2674,10 +2674,10 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.0890125882606823</v>
+        <v>0.08900950785025233</v>
       </c>
       <c r="B204" t="n">
-        <v>0.03752527064989332</v>
+        <v>0.03589946057694829</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.09350034576975985</v>
+        <v>0.09348952755681955</v>
       </c>
       <c r="B205" t="n">
-        <v>0.01342797587815639</v>
+        <v>0.006106881740973296</v>
       </c>
       <c r="C205" t="n">
         <v>1</v>
@@ -2696,10 +2696,10 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.1513136700149394</v>
+        <v>0.1513152261933074</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.02446278477099685</v>
+        <v>-0.02386594289786485</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -2707,10 +2707,10 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.2888980338540865</v>
+        <v>0.2888951219406929</v>
       </c>
       <c r="B207" t="n">
-        <v>0.1451670791750449</v>
+        <v>0.1447242922939208</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -2718,10 +2718,10 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.1675502012893332</v>
+        <v>0.1675599163092711</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.01421537611008287</v>
+        <v>-0.02637361552538358</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -2729,10 +2729,10 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.1261487079963704</v>
+        <v>0.1261584510466586</v>
       </c>
       <c r="B209" t="n">
-        <v>0.01482354999818739</v>
+        <v>0.03275404697249311</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -2740,10 +2740,10 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.2105959626887218</v>
+        <v>0.2105937204889642</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.0443423798493639</v>
+        <v>-0.04969755117585612</v>
       </c>
       <c r="C210" t="n">
         <v>1</v>
@@ -2751,10 +2751,10 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.1362379267384674</v>
+        <v>0.1362304018712115</v>
       </c>
       <c r="B211" t="n">
-        <v>0.06555091159120789</v>
+        <v>0.04879810914672173</v>
       </c>
       <c r="C211" t="n">
         <v>1</v>
@@ -2762,10 +2762,10 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.2629496879038281</v>
+        <v>0.2629468586897139</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.04538080042386748</v>
+        <v>-0.03578972587399307</v>
       </c>
       <c r="C212" t="n">
         <v>1</v>
@@ -2773,10 +2773,10 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.0620176677085068</v>
+        <v>0.06202263814536001</v>
       </c>
       <c r="B213" t="n">
-        <v>0.03453857586295903</v>
+        <v>0.03253383450568405</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -2784,10 +2784,10 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.08817568875127366</v>
+        <v>0.08818153722572085</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.02934287042722383</v>
+        <v>-0.0289458125370323</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -2795,10 +2795,10 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.1544631121137545</v>
+        <v>0.1544653151243813</v>
       </c>
       <c r="B215" t="n">
-        <v>-0.004135375067929425</v>
+        <v>-0.001457623181394519</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.0939492345711537</v>
+        <v>0.09396128912782832</v>
       </c>
       <c r="B216" t="n">
-        <v>0.0649578453839387</v>
+        <v>0.06938601977930364</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -2817,10 +2817,10 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.1538523342839513</v>
+        <v>0.153850370648669</v>
       </c>
       <c r="B217" t="n">
-        <v>0.02069950493785847</v>
+        <v>0.01747403335035651</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -2828,10 +2828,10 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.3452365805231997</v>
+        <v>0.3452501244330455</v>
       </c>
       <c r="B218" t="n">
-        <v>0.1053328474220462</v>
+        <v>0.1039589919528753</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0.168340593126158</v>
+        <v>0.1683414267776912</v>
       </c>
       <c r="B219" t="n">
-        <v>0.1340310357183024</v>
+        <v>0.134579759830165</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -2850,10 +2850,10 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.11972167294344</v>
+        <v>0.1197154818442369</v>
       </c>
       <c r="B220" t="n">
-        <v>0.3101659618073825</v>
+        <v>0.3225687672137041</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -2861,10 +2861,10 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.08816706129869281</v>
+        <v>0.08816974718504601</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.0296636424558903</v>
+        <v>-0.03259754453702646</v>
       </c>
       <c r="C221" t="n">
         <v>1</v>
@@ -2883,10 +2883,10 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.1603187966177245</v>
+        <v>0.160314299187245</v>
       </c>
       <c r="B223" t="n">
-        <v>0.05631679609007714</v>
+        <v>0.05868817292391721</v>
       </c>
       <c r="C223" t="n">
         <v>1</v>
@@ -2894,10 +2894,10 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.08308908665077946</v>
+        <v>0.08309193278061602</v>
       </c>
       <c r="B224" t="n">
-        <v>0.009641164898043909</v>
+        <v>0.01008108903021806</v>
       </c>
       <c r="C224" t="n">
         <v>1</v>
@@ -2905,10 +2905,10 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.2860581382911244</v>
+        <v>0.2860702944783393</v>
       </c>
       <c r="B225" t="n">
-        <v>0.06789911104370423</v>
+        <v>0.07082375463326696</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.1693367773531986</v>
+        <v>0.169337714007953</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.07971831694784881</v>
+        <v>-0.08203591201428714</v>
       </c>
       <c r="C226" t="n">
         <v>1</v>
@@ -2927,10 +2927,10 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.1211523589333512</v>
+        <v>0.1211384405757146</v>
       </c>
       <c r="B227" t="n">
-        <v>0.2034010831475564</v>
+        <v>0.1871381965255772</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -2938,10 +2938,10 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.1289940224129645</v>
+        <v>0.128988366039901</v>
       </c>
       <c r="B228" t="n">
-        <v>0.1680501564611479</v>
+        <v>0.1705936968099885</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.1309621175420159</v>
+        <v>0.1309585083412255</v>
       </c>
       <c r="B229" t="n">
-        <v>0.04453312944964879</v>
+        <v>0.04223729195255024</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -2960,10 +2960,10 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.2567200315471863</v>
+        <v>0.256726603883164</v>
       </c>
       <c r="B230" t="n">
-        <v>0.02612181440864707</v>
+        <v>0.01547889662595171</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -2971,10 +2971,10 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.361441028609308</v>
+        <v>0.3614403896144456</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.1267499828290742</v>
+        <v>-0.131293335048408</v>
       </c>
       <c r="C231" t="n">
         <v>1</v>
@@ -2982,10 +2982,10 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.2074429558174616</v>
+        <v>0.2074461970693177</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.04412322263490762</v>
+        <v>-0.0494027280536293</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -2993,10 +2993,10 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.3168046792277359</v>
+        <v>0.316811822945433</v>
       </c>
       <c r="B233" t="n">
-        <v>0.09563811434707205</v>
+        <v>0.0886182651381842</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -3004,10 +3004,10 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.1419729205310718</v>
+        <v>0.1419763852193151</v>
       </c>
       <c r="B234" t="n">
-        <v>0.001496683737250534</v>
+        <v>0.0007753730309942447</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.1124352429473546</v>
+        <v>0.1124323470818251</v>
       </c>
       <c r="B235" t="n">
-        <v>0.05311989762373974</v>
+        <v>0.06295492503217963</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -3026,10 +3026,10 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.2369036746750419</v>
+        <v>0.2369137325364319</v>
       </c>
       <c r="B236" t="n">
-        <v>0.03044501794404172</v>
+        <v>0.02480202014287693</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -3037,10 +3037,10 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.1764173861312546</v>
+        <v>0.1764314635460423</v>
       </c>
       <c r="B237" t="n">
-        <v>0.005489171085466472</v>
+        <v>0.002077042992534776</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -3048,10 +3048,10 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.09834543639169514</v>
+        <v>0.09834496902139862</v>
       </c>
       <c r="B238" t="n">
-        <v>0.1286286751458408</v>
+        <v>0.1383485634785514</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -3059,10 +3059,10 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.1876917030957814</v>
+        <v>0.1876939295553834</v>
       </c>
       <c r="B239" t="n">
-        <v>0.02876439124509872</v>
+        <v>0.01864502866434851</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -3070,10 +3070,10 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.1156329834354695</v>
+        <v>0.1156244503136881</v>
       </c>
       <c r="B240" t="n">
-        <v>0.06106332898032717</v>
+        <v>0.05967150716580875</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -3081,10 +3081,10 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.1395865030466371</v>
+        <v>0.1395772628205048</v>
       </c>
       <c r="B241" t="n">
-        <v>0.07643932624800262</v>
+        <v>0.07004127140588963</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -3092,10 +3092,10 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0.07005681231761575</v>
+        <v>0.07005333871490779</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.1384570130290037</v>
+        <v>-0.1312067425603633</v>
       </c>
       <c r="C242" t="n">
         <v>1</v>
@@ -3103,10 +3103,10 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.1884156198824124</v>
+        <v>0.1883975045416615</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.06922911450999014</v>
+        <v>-0.07242843935620365</v>
       </c>
       <c r="C243" t="n">
         <v>1</v>
@@ -3114,10 +3114,10 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.1237654976756697</v>
+        <v>0.1237655269817581</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.02967116761164115</v>
+        <v>-0.02406106091580363</v>
       </c>
       <c r="C244" t="n">
         <v>1</v>
@@ -3125,10 +3125,10 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0.1716904396111257</v>
+        <v>0.1716766603692511</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.2746978254519692</v>
+        <v>-0.2625787942434912</v>
       </c>
       <c r="C245" t="n">
         <v>1</v>
@@ -3136,10 +3136,10 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.1217529197199675</v>
+        <v>0.1217513883502002</v>
       </c>
       <c r="B246" t="n">
-        <v>0.09833932262404876</v>
+        <v>0.08880630572188375</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -3147,10 +3147,10 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.1770180532097373</v>
+        <v>0.1770267638889935</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.1055131361853669</v>
+        <v>-0.1088760674536733</v>
       </c>
       <c r="C247" t="n">
         <v>1</v>
@@ -3158,10 +3158,10 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.1368168161169684</v>
+        <v>0.1368187248824685</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.05507473384862718</v>
+        <v>-0.06175118153280813</v>
       </c>
       <c r="C248" t="n">
         <v>1</v>
@@ -3169,10 +3169,10 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.06938256594692872</v>
+        <v>0.06937806162670508</v>
       </c>
       <c r="B249" t="n">
-        <v>0.06154160903064843</v>
+        <v>0.05418176349449041</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -3180,10 +3180,10 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0.2404830890954966</v>
+        <v>0.2404958137828721</v>
       </c>
       <c r="B250" t="n">
-        <v>0.001442108283481052</v>
+        <v>0.002775917365023388</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -3191,10 +3191,10 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.14085175158072</v>
+        <v>0.1408375491114997</v>
       </c>
       <c r="B251" t="n">
-        <v>0.117245904072734</v>
+        <v>0.1042374223051057</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0.1620843611819799</v>
+        <v>0.1620925923077089</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.02042218778139544</v>
+        <v>-0.0309191343716213</v>
       </c>
       <c r="C252" t="n">
         <v>1</v>
@@ -3213,10 +3213,10 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0.2037789503574434</v>
+        <v>0.203781101307068</v>
       </c>
       <c r="B253" t="n">
-        <v>0.02459309123889726</v>
+        <v>0.01987809658678648</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -3224,10 +3224,10 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0.2541856085867342</v>
+        <v>0.2541959686745383</v>
       </c>
       <c r="B254" t="n">
-        <v>0.109091716123465</v>
+        <v>0.1093521612193736</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>0.2357735995151439</v>
+        <v>0.2357672888153001</v>
       </c>
       <c r="B255" t="n">
-        <v>-0.1685864418505155</v>
+        <v>-0.167028516514787</v>
       </c>
       <c r="C255" t="n">
         <v>1</v>
@@ -3246,10 +3246,10 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0.0850423860746172</v>
+        <v>0.08504381702195937</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.005341107337378354</v>
+        <v>-0.01386789899744145</v>
       </c>
       <c r="C256" t="n">
         <v>1</v>
@@ -3257,10 +3257,10 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0.07319344681773578</v>
+        <v>0.0731936969328052</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.02465910337343527</v>
+        <v>-0.02418340276501837</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -3268,10 +3268,10 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0.09853258499704784</v>
+        <v>0.09853194289838769</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.0003076271806475711</v>
+        <v>0.001791736235477976</v>
       </c>
       <c r="C258" t="n">
         <v>1</v>
@@ -3279,10 +3279,10 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.1458659810305648</v>
+        <v>0.1458760451564253</v>
       </c>
       <c r="B259" t="n">
-        <v>0.05202022924314647</v>
+        <v>0.05132405164425435</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -3290,10 +3290,10 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0.1548725339832266</v>
+        <v>0.1548853680661887</v>
       </c>
       <c r="B260" t="n">
-        <v>0.008717451464901885</v>
+        <v>-0.0006953039319203314</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -3301,10 +3301,10 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.1990821181984306</v>
+        <v>0.1990808447926465</v>
       </c>
       <c r="B261" t="n">
-        <v>0.05068186512778852</v>
+        <v>0.04501937365945241</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -3312,10 +3312,10 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0.2646634498351968</v>
+        <v>0.2646587704382448</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.004261310597357975</v>
+        <v>-0.01815727570643023</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -3323,10 +3323,10 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.1057047602067631</v>
+        <v>0.1057017504641127</v>
       </c>
       <c r="B263" t="n">
-        <v>0.1086551912208847</v>
+        <v>0.1184205397291855</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -3334,10 +3334,10 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>0.2540556090599619</v>
+        <v>0.2540650438127008</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.09010912884874796</v>
+        <v>-0.1067799500237265</v>
       </c>
       <c r="C264" t="n">
         <v>1</v>
@@ -3345,10 +3345,10 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>0.0389138786375371</v>
+        <v>0.03891369919752247</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.01527396679135217</v>
+        <v>-0.01274940087219113</v>
       </c>
       <c r="C265" t="n">
         <v>1</v>
@@ -3356,10 +3356,10 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.2069022856147143</v>
+        <v>0.2068992239968097</v>
       </c>
       <c r="B266" t="n">
-        <v>-0.1770258698941749</v>
+        <v>-0.1803020991123959</v>
       </c>
       <c r="C266" t="n">
         <v>1</v>
@@ -3367,10 +3367,10 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.1390383186393932</v>
+        <v>0.1390330306173125</v>
       </c>
       <c r="B267" t="n">
-        <v>0.05103157040434848</v>
+        <v>0.04262999494350907</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -3378,10 +3378,10 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>0.08352334169481009</v>
+        <v>0.08352814848156266</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.001901867320724791</v>
+        <v>-0.0076194756070739</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -3389,10 +3389,10 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.2094534974577299</v>
+        <v>0.2094480858447461</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.01529617580225809</v>
+        <v>-0.00963018094423591</v>
       </c>
       <c r="C269" t="n">
         <v>1</v>
@@ -3400,10 +3400,10 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0.1525337810750297</v>
+        <v>0.1525362212774005</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.03230116856014414</v>
+        <v>-0.03133230706076927</v>
       </c>
       <c r="C270" t="n">
         <v>1</v>
@@ -3411,10 +3411,10 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0.2133982765603816</v>
+        <v>0.213417227604727</v>
       </c>
       <c r="B271" t="n">
-        <v>-0.09138051363076588</v>
+        <v>-0.08004128095647609</v>
       </c>
       <c r="C271" t="n">
         <v>1</v>
@@ -3422,10 +3422,10 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.2249911389560493</v>
+        <v>0.2249908643453551</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.04526816729212637</v>
+        <v>-0.03809848604991117</v>
       </c>
       <c r="C272" t="n">
         <v>1</v>
@@ -3433,10 +3433,10 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.08656228587924074</v>
+        <v>0.08655761954312488</v>
       </c>
       <c r="B273" t="n">
-        <v>-0.04241452126059661</v>
+        <v>-0.03600049808900886</v>
       </c>
       <c r="C273" t="n">
         <v>1</v>
@@ -3444,10 +3444,10 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0.2113476633147661</v>
+        <v>0.2113554007706768</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.08696034203027096</v>
+        <v>-0.06587664160806932</v>
       </c>
       <c r="C274" t="n">
         <v>1</v>
@@ -3455,10 +3455,10 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>0.1468498875555181</v>
+        <v>0.1468541975278663</v>
       </c>
       <c r="B275" t="n">
-        <v>0.02685135132224002</v>
+        <v>0.02687617954276815</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -3466,10 +3466,10 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.0987921947956993</v>
+        <v>0.0987966554475934</v>
       </c>
       <c r="B276" t="n">
-        <v>0.06300221597337861</v>
+        <v>0.05988694604252001</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>0.1472679496220093</v>
+        <v>0.1472636139755925</v>
       </c>
       <c r="B277" t="n">
-        <v>-0.1444325780174925</v>
+        <v>-0.1386366116124031</v>
       </c>
       <c r="C277" t="n">
         <v>1</v>
@@ -3488,10 +3488,10 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0.2154257900385687</v>
+        <v>0.2154354819913956</v>
       </c>
       <c r="B278" t="n">
-        <v>-0.08095706335803278</v>
+        <v>-0.07786823222460573</v>
       </c>
       <c r="C278" t="n">
         <v>1</v>
@@ -3499,10 +3499,10 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>0.2219715413002382</v>
+        <v>0.2219679500498764</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.05366834642185258</v>
+        <v>-0.05182951483109365</v>
       </c>
       <c r="C279" t="n">
         <v>1</v>
@@ -3510,10 +3510,10 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0.07030011259622056</v>
+        <v>0.07029792042669128</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.02933184568052913</v>
+        <v>-0.0293505855662762</v>
       </c>
       <c r="C280" t="n">
         <v>1</v>
@@ -3521,10 +3521,10 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0.1646557208290744</v>
+        <v>0.1646470785966682</v>
       </c>
       <c r="B281" t="n">
-        <v>-0.04042103470660945</v>
+        <v>-0.04368508852938234</v>
       </c>
       <c r="C281" t="n">
         <v>1</v>
@@ -3532,10 +3532,10 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>0.1934770425698705</v>
+        <v>0.1934716439701459</v>
       </c>
       <c r="B282" t="n">
-        <v>-0.1843314624170888</v>
+        <v>-0.1923860756317825</v>
       </c>
       <c r="C282" t="n">
         <v>1</v>
@@ -3543,10 +3543,10 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0.2212042411963244</v>
+        <v>0.2211940669871809</v>
       </c>
       <c r="B283" t="n">
-        <v>-0.2841683271289688</v>
+        <v>-0.2758954140890693</v>
       </c>
       <c r="C283" t="n">
         <v>1</v>
@@ -3554,10 +3554,10 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0.1046491605473991</v>
+        <v>0.1046506372893231</v>
       </c>
       <c r="B284" t="n">
-        <v>0.003997372338127738</v>
+        <v>0.008844604704602427</v>
       </c>
       <c r="C284" t="n">
         <v>1</v>
@@ -3565,10 +3565,10 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0.1654211886598299</v>
+        <v>0.1654167713884778</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.001503206315437963</v>
+        <v>0.00765585502938006</v>
       </c>
       <c r="C285" t="n">
         <v>1</v>
@@ -3576,10 +3576,10 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>0.1801443141630869</v>
+        <v>0.1801448256876464</v>
       </c>
       <c r="B286" t="n">
-        <v>-0.03872678652116663</v>
+        <v>-0.04167596122758557</v>
       </c>
       <c r="C286" t="n">
         <v>1</v>
@@ -3587,10 +3587,10 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>0.184848674491509</v>
+        <v>0.1848420810957047</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.04099180603302428</v>
+        <v>-0.03308784841319724</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -3598,10 +3598,10 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0.09180282698547794</v>
+        <v>0.09179996038327892</v>
       </c>
       <c r="B288" t="n">
-        <v>0.06566824254400955</v>
+        <v>0.06222502425114304</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -3609,10 +3609,10 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>0.2613388873074486</v>
+        <v>0.2613277332842005</v>
       </c>
       <c r="B289" t="n">
-        <v>-0.05025510234353012</v>
+        <v>-0.05704272992803208</v>
       </c>
       <c r="C289" t="n">
         <v>1</v>
@@ -3620,10 +3620,10 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>0.04638931445593134</v>
+        <v>0.0463958798532496</v>
       </c>
       <c r="B290" t="n">
-        <v>0.02973397000497614</v>
+        <v>0.03204630865106664</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -3631,10 +3631,10 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>0.06545623297730087</v>
+        <v>0.0654512717406435</v>
       </c>
       <c r="B291" t="n">
-        <v>0.03115364670894447</v>
+        <v>0.02298971848945485</v>
       </c>
       <c r="C291" t="n">
         <v>1</v>
@@ -3642,10 +3642,10 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>0.1015749788826223</v>
+        <v>0.1015704134069144</v>
       </c>
       <c r="B292" t="n">
-        <v>0.1126661448996431</v>
+        <v>0.1159767653220486</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -3653,10 +3653,10 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>0.2213065542629987</v>
+        <v>0.2213094635113849</v>
       </c>
       <c r="B293" t="n">
-        <v>0.05286253442819528</v>
+        <v>0.05730677866550389</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -3664,10 +3664,10 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>0.1481072242902284</v>
+        <v>0.1481074333457473</v>
       </c>
       <c r="B294" t="n">
-        <v>0.03190759761064487</v>
+        <v>0.03203765259406484</v>
       </c>
       <c r="C294" t="n">
         <v>1</v>
@@ -3675,10 +3675,10 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>0.206886803627275</v>
+        <v>0.2068827439445132</v>
       </c>
       <c r="B295" t="n">
-        <v>-0.03801603448451094</v>
+        <v>-0.04154698887333792</v>
       </c>
       <c r="C295" t="n">
         <v>1</v>
@@ -3686,10 +3686,10 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0.2178525617032044</v>
+        <v>0.2178599480007948</v>
       </c>
       <c r="B296" t="n">
-        <v>0.02631687371089981</v>
+        <v>0.01851534617772951</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -3697,10 +3697,10 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0.2048851489757798</v>
+        <v>0.2048720539491297</v>
       </c>
       <c r="B297" t="n">
-        <v>0.1618433300481619</v>
+        <v>0.1560995214572546</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>0.08524457777619278</v>
+        <v>0.08524451866433171</v>
       </c>
       <c r="B298" t="n">
-        <v>0.004250818033825939</v>
+        <v>0.007878004807572257</v>
       </c>
       <c r="C298" t="n">
         <v>1</v>
@@ -3719,10 +3719,10 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>0.1852784703096065</v>
+        <v>0.185281829745602</v>
       </c>
       <c r="B299" t="n">
-        <v>0.06125875417935372</v>
+        <v>0.05831695056578556</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -3730,10 +3730,10 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>0.1836268443437076</v>
+        <v>0.1836287636785748</v>
       </c>
       <c r="B300" t="n">
-        <v>-0.07134980633587042</v>
+        <v>-0.07920942533057765</v>
       </c>
       <c r="C300" t="n">
         <v>1</v>
@@ -3741,10 +3741,10 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>0.2086972057473842</v>
+        <v>0.2086911707879192</v>
       </c>
       <c r="B301" t="n">
-        <v>0.1056615314304996</v>
+        <v>0.1014756297483458</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -3752,10 +3752,10 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>0.1192425451592023</v>
+        <v>0.1192497182048283</v>
       </c>
       <c r="B302" t="n">
-        <v>0.1435924131852864</v>
+        <v>0.1579629732914868</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -3763,10 +3763,10 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>0.1157977009980591</v>
+        <v>0.1157986540955212</v>
       </c>
       <c r="B303" t="n">
-        <v>0.1282993959865649</v>
+        <v>0.1460679750374874</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -3774,10 +3774,10 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>0.1096039864065457</v>
+        <v>0.1096021442168076</v>
       </c>
       <c r="B304" t="n">
-        <v>0.3025364409757718</v>
+        <v>0.326776918899113</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -3785,10 +3785,10 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>0.03054679937521403</v>
+        <v>0.03054405206402029</v>
       </c>
       <c r="B305" t="n">
-        <v>0.02481083773256884</v>
+        <v>0.0217709378067855</v>
       </c>
       <c r="C305" t="n">
         <v>1</v>
@@ -3796,10 +3796,10 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>0.1509392225875504</v>
+        <v>0.1509395267882079</v>
       </c>
       <c r="B306" t="n">
-        <v>0.06195657137286914</v>
+        <v>0.06538369805525805</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -3807,10 +3807,10 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>0.1632752964326883</v>
+        <v>0.1632797568969969</v>
       </c>
       <c r="B307" t="n">
-        <v>-0.03951383872383447</v>
+        <v>-0.03602432380295379</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -3818,10 +3818,10 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>0.1550924886764355</v>
+        <v>0.1550988764513971</v>
       </c>
       <c r="B308" t="n">
-        <v>-0.03536621106998724</v>
+        <v>-0.03329841291566714</v>
       </c>
       <c r="C308" t="n">
         <v>1</v>
@@ -3840,10 +3840,10 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>0.08196860830020744</v>
+        <v>0.08196665215610319</v>
       </c>
       <c r="B310" t="n">
-        <v>0.04697536206815996</v>
+        <v>0.03654134502100932</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -3851,10 +3851,10 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>0.1127711287774545</v>
+        <v>0.1127665501254092</v>
       </c>
       <c r="B311" t="n">
-        <v>0.3114066061640599</v>
+        <v>0.3324683325710974</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -3862,10 +3862,10 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>0.1510185453288001</v>
+        <v>0.151037630045829</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.05103688750557122</v>
+        <v>-0.03485951873408449</v>
       </c>
       <c r="C312" t="n">
         <v>1</v>
@@ -3873,10 +3873,10 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>0.1402025611197042</v>
+        <v>0.1401976699333217</v>
       </c>
       <c r="B313" t="n">
-        <v>0.04346788298220387</v>
+        <v>0.04742915162635582</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -3884,10 +3884,10 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>0.1315270961097853</v>
+        <v>0.1315252158319017</v>
       </c>
       <c r="B314" t="n">
-        <v>0.002345446322569082</v>
+        <v>0.001732673734913349</v>
       </c>
       <c r="C314" t="n">
         <v>1</v>
@@ -3895,10 +3895,10 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>0.1496570100611709</v>
+        <v>0.1496693406346042</v>
       </c>
       <c r="B315" t="n">
-        <v>-0.08598476203073763</v>
+        <v>-0.07823468849525858</v>
       </c>
       <c r="C315" t="n">
         <v>1</v>
@@ -3906,10 +3906,10 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>0.1341988441622742</v>
+        <v>0.1341984760771144</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.03996070046315921</v>
+        <v>-0.04172381938797994</v>
       </c>
       <c r="C316" t="n">
         <v>1</v>
@@ -3917,10 +3917,10 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>0.07253896950088275</v>
+        <v>0.07255663822095018</v>
       </c>
       <c r="B317" t="n">
-        <v>0.2745688437824894</v>
+        <v>0.30786467290619</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -3928,10 +3928,10 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>0.2989593131678431</v>
+        <v>0.298972019384586</v>
       </c>
       <c r="B318" t="n">
-        <v>0.06729891492968015</v>
+        <v>0.06722786531732941</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -3939,10 +3939,10 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>0.1004238440042934</v>
+        <v>0.1004248788810716</v>
       </c>
       <c r="B319" t="n">
-        <v>0.03244273632074383</v>
+        <v>0.03148756269201097</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -3950,10 +3950,10 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>0.1300587867567155</v>
+        <v>0.1300520141433096</v>
       </c>
       <c r="B320" t="n">
-        <v>0.01776156173793093</v>
+        <v>0.01639371880594689</v>
       </c>
       <c r="C320" t="n">
         <v>1</v>
@@ -3961,10 +3961,10 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>0.03400373510815129</v>
+        <v>0.03400560138823324</v>
       </c>
       <c r="B321" t="n">
-        <v>-0.05518691120996148</v>
+        <v>-0.05289433871582011</v>
       </c>
       <c r="C321" t="n">
         <v>1</v>
@@ -3972,10 +3972,10 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>0.1053701997227481</v>
+        <v>0.1053631787299752</v>
       </c>
       <c r="B322" t="n">
-        <v>0.1167130950831115</v>
+        <v>0.1084275279098358</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -3983,10 +3983,10 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>0.1780722052310872</v>
+        <v>0.1780856485307502</v>
       </c>
       <c r="B323" t="n">
-        <v>0.01027506225664643</v>
+        <v>-0.001437178868395608</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -3994,10 +3994,10 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>0.1221419559505798</v>
+        <v>0.1221424678044492</v>
       </c>
       <c r="B324" t="n">
-        <v>0.06063129541296986</v>
+        <v>0.05886777128797004</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -4005,10 +4005,10 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>0.1857062189532372</v>
+        <v>0.18570908289743</v>
       </c>
       <c r="B325" t="n">
-        <v>0.1509264699548452</v>
+        <v>0.162001025332206</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -4016,10 +4016,10 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>0.3033601002110609</v>
+        <v>0.3033628107218082</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.06201025205880618</v>
+        <v>-0.05820270233771212</v>
       </c>
       <c r="C326" t="n">
         <v>1</v>
@@ -4027,10 +4027,10 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>0.1229162130490267</v>
+        <v>0.1229226097416671</v>
       </c>
       <c r="B327" t="n">
-        <v>0.02916792248547448</v>
+        <v>0.02563381488808361</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -4038,10 +4038,10 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>0.08815166506930512</v>
+        <v>0.0881472059475355</v>
       </c>
       <c r="B328" t="n">
-        <v>0.04634309432086772</v>
+        <v>0.04384115818865313</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -4049,10 +4049,10 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>0.2880848104258525</v>
+        <v>0.2880750198218803</v>
       </c>
       <c r="B329" t="n">
-        <v>-0.05471469837290382</v>
+        <v>-0.06327893229442065</v>
       </c>
       <c r="C329" t="n">
         <v>1</v>
@@ -4060,10 +4060,10 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>0.2455235709450237</v>
+        <v>0.2455232279676225</v>
       </c>
       <c r="B330" t="n">
-        <v>0.05835335839283811</v>
+        <v>0.04510864708454584</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>0.205605772792463</v>
+        <v>0.205601812389077</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.02539508247362846</v>
+        <v>-0.02543157482738394</v>
       </c>
       <c r="C331" t="n">
         <v>1</v>
@@ -4082,10 +4082,10 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>0.1335301955157681</v>
+        <v>0.133519422561113</v>
       </c>
       <c r="B332" t="n">
-        <v>0.1157105912032401</v>
+        <v>0.1220182053526856</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -4093,10 +4093,10 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>0.1934793106016363</v>
+        <v>0.193480643089433</v>
       </c>
       <c r="B333" t="n">
-        <v>-0.1350487401015351</v>
+        <v>-0.1302813951772495</v>
       </c>
       <c r="C333" t="n">
         <v>1</v>
@@ -4104,10 +4104,10 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>0.09794671445429091</v>
+        <v>0.09794120177396638</v>
       </c>
       <c r="B334" t="n">
-        <v>0.03251410369387601</v>
+        <v>0.02973453878586151</v>
       </c>
       <c r="C334" t="n">
         <v>1</v>
@@ -4115,10 +4115,10 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>0.09415882731141414</v>
+        <v>0.09415373958076026</v>
       </c>
       <c r="B335" t="n">
-        <v>0.1573863207629165</v>
+        <v>0.1457891046070814</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -4126,10 +4126,10 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>0.02356824818467983</v>
+        <v>0.02356389010697116</v>
       </c>
       <c r="B336" t="n">
-        <v>-0.003791462914051764</v>
+        <v>-0.01123847782783584</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -4137,10 +4137,10 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>0.2388427229888851</v>
+        <v>0.2388464902302417</v>
       </c>
       <c r="B337" t="n">
-        <v>0.08706460632389902</v>
+        <v>0.09076349801388692</v>
       </c>
       <c r="C337" t="n">
         <v>1</v>
@@ -4148,10 +4148,10 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>0.2474833649147956</v>
+        <v>0.2474789000057397</v>
       </c>
       <c r="B338" t="n">
-        <v>-0.07316786544325815</v>
+        <v>-0.06956444862183842</v>
       </c>
       <c r="C338" t="n">
         <v>1</v>
@@ -4159,10 +4159,10 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>0.2496080048127695</v>
+        <v>0.2496139412398807</v>
       </c>
       <c r="B339" t="n">
-        <v>0.04978177493870137</v>
+        <v>0.05795782037061378</v>
       </c>
       <c r="C339" t="n">
         <v>1</v>
@@ -4170,10 +4170,10 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>0.2530355831115184</v>
+        <v>0.253044164249428</v>
       </c>
       <c r="B340" t="n">
-        <v>0.1246904070939138</v>
+        <v>0.1352461301646914</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -4181,10 +4181,10 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>0.1441933287690218</v>
+        <v>0.1441992638871871</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.06798387395474838</v>
+        <v>-0.07200834544701483</v>
       </c>
       <c r="C341" t="n">
         <v>1</v>
@@ -4192,10 +4192,10 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>0.09368992383876368</v>
+        <v>0.09367588353608206</v>
       </c>
       <c r="B342" t="n">
-        <v>0.1727245207868369</v>
+        <v>0.1660733476703388</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -4203,10 +4203,10 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>0.2306108677410595</v>
+        <v>0.2306116896787073</v>
       </c>
       <c r="B343" t="n">
-        <v>-0.2194713304708474</v>
+        <v>-0.2073563667596084</v>
       </c>
       <c r="C343" t="n">
         <v>1</v>
@@ -4214,10 +4214,10 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>0.136989582644335</v>
+        <v>0.1369826094073925</v>
       </c>
       <c r="B344" t="n">
-        <v>0.2631599650654838</v>
+        <v>0.2678528474474561</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -4225,10 +4225,10 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>0.1764995128127129</v>
+        <v>0.1765011683022265</v>
       </c>
       <c r="B345" t="n">
-        <v>0.001197877819935896</v>
+        <v>-0.008580697358175607</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -4236,10 +4236,10 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>0.1925392334781617</v>
+        <v>0.1925326362132964</v>
       </c>
       <c r="B346" t="n">
-        <v>-0.02436730482952022</v>
+        <v>-0.02429411102629951</v>
       </c>
       <c r="C346" t="n">
         <v>1</v>
@@ -4247,10 +4247,10 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>0.06058886731669263</v>
+        <v>0.06058680705922376</v>
       </c>
       <c r="B347" t="n">
-        <v>0.04238131595280456</v>
+        <v>0.044360734425298</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -4258,10 +4258,10 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>0.1495452006678691</v>
+        <v>0.1495483796305114</v>
       </c>
       <c r="B348" t="n">
-        <v>0.06478212856800923</v>
+        <v>0.06660286856775173</v>
       </c>
       <c r="C348" t="n">
         <v>1</v>
@@ -4269,10 +4269,10 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>0.1509577732898179</v>
+        <v>0.1509356026932784</v>
       </c>
       <c r="B349" t="n">
-        <v>0.05315947390075636</v>
+        <v>0.0552324310823654</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -4280,10 +4280,10 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>0.181843532932158</v>
+        <v>0.1818426479163104</v>
       </c>
       <c r="B350" t="n">
-        <v>-0.07316956755696476</v>
+        <v>-0.0711349145929259</v>
       </c>
       <c r="C350" t="n">
         <v>1</v>
@@ -4302,10 +4302,10 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>0.05146619212908576</v>
+        <v>0.05146679007324214</v>
       </c>
       <c r="B352" t="n">
-        <v>-0.008480961346536774</v>
+        <v>-0.008673912110082418</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -4313,10 +4313,10 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>0.1120336287981735</v>
+        <v>0.1120439707290585</v>
       </c>
       <c r="B353" t="n">
-        <v>0.1086521936350282</v>
+        <v>0.1215651441219056</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -4324,10 +4324,10 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>0.1980393427538463</v>
+        <v>0.1980453895494877</v>
       </c>
       <c r="B354" t="n">
-        <v>-0.01845098734166006</v>
+        <v>-0.03264730170578292</v>
       </c>
       <c r="C354" t="n">
         <v>1</v>
@@ -4335,10 +4335,10 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>0.2123954305219036</v>
+        <v>0.2123975281820552</v>
       </c>
       <c r="B355" t="n">
-        <v>-0.001589141072072312</v>
+        <v>-0.01384027997682528</v>
       </c>
       <c r="C355" t="n">
         <v>1</v>
@@ -4346,10 +4346,10 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>0.1616397514314304</v>
+        <v>0.1616454669340108</v>
       </c>
       <c r="B356" t="n">
-        <v>0.07971661517377418</v>
+        <v>0.07491918740182846</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -4357,10 +4357,10 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>0.1618598158617845</v>
+        <v>0.1618613523260287</v>
       </c>
       <c r="B357" t="n">
-        <v>0.02016585171885374</v>
+        <v>0.01797790455659969</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -4368,10 +4368,10 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>0.1190874461851988</v>
+        <v>0.1190854314176584</v>
       </c>
       <c r="B358" t="n">
-        <v>0.1253157846923182</v>
+        <v>0.1165193805572076</v>
       </c>
       <c r="C358" t="n">
         <v>0</v>
@@ -4379,10 +4379,10 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>0.0526687847842095</v>
+        <v>0.05266105371882136</v>
       </c>
       <c r="B359" t="n">
-        <v>-0.1174231064046497</v>
+        <v>-0.1049106304376286</v>
       </c>
       <c r="C359" t="n">
         <v>1</v>
@@ -4390,10 +4390,10 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>0.1574668582693759</v>
+        <v>0.1574740325611311</v>
       </c>
       <c r="B360" t="n">
-        <v>-0.09554917636193426</v>
+        <v>-0.08066083860479864</v>
       </c>
       <c r="C360" t="n">
         <v>1</v>
@@ -4401,10 +4401,10 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>0.1677919133318341</v>
+        <v>0.1677795664275545</v>
       </c>
       <c r="B361" t="n">
-        <v>-0.03687548794727524</v>
+        <v>-0.03926237743081942</v>
       </c>
       <c r="C361" t="n">
         <v>0</v>
@@ -4412,10 +4412,10 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>0.2207344474289223</v>
+        <v>0.2207154557578495</v>
       </c>
       <c r="B362" t="n">
-        <v>0.1444335503578497</v>
+        <v>0.1320411990527219</v>
       </c>
       <c r="C362" t="n">
         <v>0</v>
@@ -4423,10 +4423,10 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>0.1876199573717126</v>
+        <v>0.1876291128151668</v>
       </c>
       <c r="B363" t="n">
-        <v>-0.08503505381717721</v>
+        <v>-0.07338874339358248</v>
       </c>
       <c r="C363" t="n">
         <v>1</v>
@@ -4434,10 +4434,10 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>0.188936479986845</v>
+        <v>0.1889308723845724</v>
       </c>
       <c r="B364" t="n">
-        <v>0.03538410887265628</v>
+        <v>0.03020916826992651</v>
       </c>
       <c r="C364" t="n">
         <v>0</v>
@@ -4445,10 +4445,10 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>0.2117981774987558</v>
+        <v>0.2118140517586688</v>
       </c>
       <c r="B365" t="n">
-        <v>-0.08003230854873369</v>
+        <v>-0.08252176109660489</v>
       </c>
       <c r="C365" t="n">
         <v>1</v>
@@ -4456,10 +4456,10 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>0.2181879452025454</v>
+        <v>0.2181924934707659</v>
       </c>
       <c r="B366" t="n">
-        <v>0.01971048211304291</v>
+        <v>0.01252543627621707</v>
       </c>
       <c r="C366" t="n">
         <v>0</v>
@@ -4467,10 +4467,10 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>0.2918141481070095</v>
+        <v>0.2918019035116782</v>
       </c>
       <c r="B367" t="n">
-        <v>-0.2200704490984333</v>
+        <v>-0.2093633036103107</v>
       </c>
       <c r="C367" t="n">
         <v>1</v>
@@ -4478,10 +4478,10 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>0.1504897876235434</v>
+        <v>0.1504770600477869</v>
       </c>
       <c r="B368" t="n">
-        <v>0.3073414793417313</v>
+        <v>0.308093344671641</v>
       </c>
       <c r="C368" t="n">
         <v>0</v>
@@ -4489,10 +4489,10 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>0.2180774733780147</v>
+        <v>0.2180790288042864</v>
       </c>
       <c r="B369" t="n">
-        <v>-0.0179838382509645</v>
+        <v>-0.02551646731366381</v>
       </c>
       <c r="C369" t="n">
         <v>1</v>
@@ -4500,10 +4500,10 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>0.2281434606545097</v>
+        <v>0.2281551252810689</v>
       </c>
       <c r="B370" t="n">
-        <v>-0.07188387154642167</v>
+        <v>-0.0811404145335326</v>
       </c>
       <c r="C370" t="n">
         <v>1</v>
@@ -4522,10 +4522,10 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>0.2124830740060449</v>
+        <v>0.2124789818175622</v>
       </c>
       <c r="B372" t="n">
-        <v>-0.133442113575008</v>
+        <v>-0.1225267851979503</v>
       </c>
       <c r="C372" t="n">
         <v>1</v>
@@ -4544,10 +4544,10 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>0.1321924781528399</v>
+        <v>0.132198791930379</v>
       </c>
       <c r="B374" t="n">
-        <v>0.06142009728173702</v>
+        <v>0.06068248625030174</v>
       </c>
       <c r="C374" t="n">
         <v>0</v>
@@ -4555,10 +4555,10 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>0.1686161955792019</v>
+        <v>0.168620729848071</v>
       </c>
       <c r="B375" t="n">
-        <v>0.008444989882837961</v>
+        <v>-0.001988416385417522</v>
       </c>
       <c r="C375" t="n">
         <v>1</v>
@@ -4566,10 +4566,10 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>0.2133492595251295</v>
+        <v>0.2133384160799429</v>
       </c>
       <c r="B376" t="n">
-        <v>-0.2717626160415281</v>
+        <v>-0.2582844288837904</v>
       </c>
       <c r="C376" t="n">
         <v>1</v>
@@ -4577,10 +4577,10 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>0.2085259716048817</v>
+        <v>0.2085273203221625</v>
       </c>
       <c r="B377" t="n">
-        <v>0.02839041234988362</v>
+        <v>0.02782491748154155</v>
       </c>
       <c r="C377" t="n">
         <v>0</v>
@@ -4588,10 +4588,10 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>0.1805518729248259</v>
+        <v>0.1805478953064124</v>
       </c>
       <c r="B378" t="n">
-        <v>-0.01531923994556359</v>
+        <v>-0.0112812008847261</v>
       </c>
       <c r="C378" t="n">
         <v>0</v>
@@ -4599,10 +4599,10 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>0.02549641332298095</v>
+        <v>0.02550152840862285</v>
       </c>
       <c r="B379" t="n">
-        <v>-0.02194261386274206</v>
+        <v>-0.01937881340698713</v>
       </c>
       <c r="C379" t="n">
         <v>1</v>
@@ -4610,10 +4610,10 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>0.3374958849982165</v>
+        <v>0.3375004246355991</v>
       </c>
       <c r="B380" t="n">
-        <v>-0.1366238687234521</v>
+        <v>-0.1331125132346002</v>
       </c>
       <c r="C380" t="n">
         <v>1</v>
@@ -4621,10 +4621,10 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>0.1384388687609861</v>
+        <v>0.138444873002841</v>
       </c>
       <c r="B381" t="n">
-        <v>0.003097271575826691</v>
+        <v>0.0007847606746409427</v>
       </c>
       <c r="C381" t="n">
         <v>1</v>
@@ -4632,10 +4632,10 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>0.08071476633211518</v>
+        <v>0.08071003728424528</v>
       </c>
       <c r="B382" t="n">
-        <v>-0.02326567500574105</v>
+        <v>-0.02580444100294326</v>
       </c>
       <c r="C382" t="n">
         <v>1</v>
@@ -4643,10 +4643,10 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>0.1465191660925662</v>
+        <v>0.1465276903267016</v>
       </c>
       <c r="B383" t="n">
-        <v>-0.0218379757862612</v>
+        <v>-0.00082899558697816</v>
       </c>
       <c r="C383" t="n">
         <v>1</v>
@@ -4654,10 +4654,10 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>0.08392945136483825</v>
+        <v>0.08392012230615079</v>
       </c>
       <c r="B384" t="n">
-        <v>0.1129052070039805</v>
+        <v>0.112954857670821</v>
       </c>
       <c r="C384" t="n">
         <v>0</v>
@@ -4665,10 +4665,10 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>0.1923779066312211</v>
+        <v>0.1923559986453932</v>
       </c>
       <c r="B385" t="n">
-        <v>0.1300698955766512</v>
+        <v>0.1101690018500326</v>
       </c>
       <c r="C385" t="n">
         <v>0</v>
@@ -4676,10 +4676,10 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>0.2805129964860154</v>
+        <v>0.2805140860206446</v>
       </c>
       <c r="B386" t="n">
-        <v>-0.07747314767422879</v>
+        <v>-0.08790341318549169</v>
       </c>
       <c r="C386" t="n">
         <v>1</v>
@@ -4687,10 +4687,10 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>0.09295970262610349</v>
+        <v>0.09297801462882556</v>
       </c>
       <c r="B387" t="n">
-        <v>0.1751420647714202</v>
+        <v>0.206698661612243</v>
       </c>
       <c r="C387" t="n">
         <v>0</v>
@@ -4698,10 +4698,10 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>0.1854411747395848</v>
+        <v>0.1854467530705262</v>
       </c>
       <c r="B388" t="n">
-        <v>0.1199778702374089</v>
+        <v>0.1095038813091804</v>
       </c>
       <c r="C388" t="n">
         <v>0</v>
@@ -4709,10 +4709,10 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>0.179414398319198</v>
+        <v>0.1794017477781238</v>
       </c>
       <c r="B389" t="n">
-        <v>0.01737704783432505</v>
+        <v>0.0133381742194526</v>
       </c>
       <c r="C389" t="n">
         <v>1</v>
@@ -4720,10 +4720,10 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>0.1863482950752524</v>
+        <v>0.1863505125724584</v>
       </c>
       <c r="B390" t="n">
-        <v>-0.0226622442081356</v>
+        <v>-0.01340305597609521</v>
       </c>
       <c r="C390" t="n">
         <v>0</v>
@@ -4731,10 +4731,10 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>0.1286709249051419</v>
+        <v>0.1286823464712561</v>
       </c>
       <c r="B391" t="n">
-        <v>0.05977536734939498</v>
+        <v>0.06795575216695787</v>
       </c>
       <c r="C391" t="n">
         <v>0</v>
@@ -4742,10 +4742,10 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>0.130371790824774</v>
+        <v>0.1303801814992534</v>
       </c>
       <c r="B392" t="n">
-        <v>0.02953213513325802</v>
+        <v>0.03191168514723591</v>
       </c>
       <c r="C392" t="n">
         <v>1</v>
@@ -4753,10 +4753,10 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>0.1053006620945121</v>
+        <v>0.1052815308874349</v>
       </c>
       <c r="B393" t="n">
-        <v>0.052370924371896</v>
+        <v>0.0490211159833176</v>
       </c>
       <c r="C393" t="n">
         <v>0</v>
@@ -4775,10 +4775,10 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>0.08389959309270159</v>
+        <v>0.08389970953873267</v>
       </c>
       <c r="B395" t="n">
-        <v>0.1371270966081511</v>
+        <v>0.1323659265061257</v>
       </c>
       <c r="C395" t="n">
         <v>0</v>
@@ -4786,10 +4786,10 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>0.1697767746958962</v>
+        <v>0.1697742592852167</v>
       </c>
       <c r="B396" t="n">
-        <v>0.009157023384893286</v>
+        <v>0.01435010243180582</v>
       </c>
       <c r="C396" t="n">
         <v>0</v>
@@ -4797,10 +4797,10 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>0.1092076252909222</v>
+        <v>0.1092066397632125</v>
       </c>
       <c r="B397" t="n">
-        <v>-0.1413899465726177</v>
+        <v>-0.135338323522982</v>
       </c>
       <c r="C397" t="n">
         <v>1</v>
@@ -4808,10 +4808,10 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>0.1620129212776163</v>
+        <v>0.1620098239211105</v>
       </c>
       <c r="B398" t="n">
-        <v>0.06607519148987502</v>
+        <v>0.05578120682666788</v>
       </c>
       <c r="C398" t="n">
         <v>0</v>
@@ -4819,10 +4819,10 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>0.1009096115380113</v>
+        <v>0.1009012804048487</v>
       </c>
       <c r="B399" t="n">
-        <v>0.04651480680839061</v>
+        <v>0.03912402456604681</v>
       </c>
       <c r="C399" t="n">
         <v>0</v>
@@ -4830,10 +4830,10 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>0.3051044856152164</v>
+        <v>0.3051061429727672</v>
       </c>
       <c r="B400" t="n">
-        <v>-0.07719262702148551</v>
+        <v>-0.08683995003626808</v>
       </c>
       <c r="C400" t="n">
         <v>1</v>
@@ -4841,10 +4841,10 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>0.1548140063433557</v>
+        <v>0.1548140481711725</v>
       </c>
       <c r="B401" t="n">
-        <v>0.1019918822257603</v>
+        <v>0.09888127680384301</v>
       </c>
       <c r="C401" t="n">
         <v>0</v>
@@ -4852,10 +4852,10 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>0.1820231343797537</v>
+        <v>0.1820259520126387</v>
       </c>
       <c r="B402" t="n">
-        <v>0.005470054291111753</v>
+        <v>0.006126781744369717</v>
       </c>
       <c r="C402" t="n">
         <v>1</v>
@@ -4863,10 +4863,10 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>0.187734159526343</v>
+        <v>0.1877334111204908</v>
       </c>
       <c r="B403" t="n">
-        <v>-0.1414501045187939</v>
+        <v>-0.1429297050248638</v>
       </c>
       <c r="C403" t="n">
         <v>1</v>
@@ -4874,10 +4874,10 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>0.1952426137515364</v>
+        <v>0.1952386583230179</v>
       </c>
       <c r="B404" t="n">
-        <v>-0.09765115819587773</v>
+        <v>-0.1172044845114261</v>
       </c>
       <c r="C404" t="n">
         <v>1</v>
@@ -4885,10 +4885,10 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>0.08042470409216067</v>
+        <v>0.08042167904870155</v>
       </c>
       <c r="B405" t="n">
-        <v>0.1449469298966706</v>
+        <v>0.1300319612225821</v>
       </c>
       <c r="C405" t="n">
         <v>0</v>
@@ -4896,10 +4896,10 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>0.08256632833760866</v>
+        <v>0.08256544353177077</v>
       </c>
       <c r="B406" t="n">
-        <v>-0.005748328850387355</v>
+        <v>-0.002713060210215568</v>
       </c>
       <c r="C406" t="n">
         <v>1</v>
@@ -4907,10 +4907,10 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>0.1050293847692326</v>
+        <v>0.1050327174706102</v>
       </c>
       <c r="B407" t="n">
-        <v>0.03683337337521773</v>
+        <v>0.04349254016715565</v>
       </c>
       <c r="C407" t="n">
         <v>0</v>
@@ -4918,10 +4918,10 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>0.1508900341729126</v>
+        <v>0.1508925586802585</v>
       </c>
       <c r="B408" t="n">
-        <v>-0.06296244496974503</v>
+        <v>-0.05777285680601425</v>
       </c>
       <c r="C408" t="n">
         <v>0</v>
@@ -4929,10 +4929,10 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>0.1754848321503279</v>
+        <v>0.1754631476052446</v>
       </c>
       <c r="B409" t="n">
-        <v>0.1562139133140088</v>
+        <v>0.1422609496056311</v>
       </c>
       <c r="C409" t="n">
         <v>0</v>
@@ -4940,10 +4940,10 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>0.05914700446870924</v>
+        <v>0.05914456223357901</v>
       </c>
       <c r="B410" t="n">
-        <v>-0.08987942780211822</v>
+        <v>-0.08473213836247978</v>
       </c>
       <c r="C410" t="n">
         <v>1</v>
@@ -4951,10 +4951,10 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>0.1761750664450231</v>
+        <v>0.1761647065395842</v>
       </c>
       <c r="B411" t="n">
-        <v>-0.07105427039676926</v>
+        <v>-0.07284747837418326</v>
       </c>
       <c r="C411" t="n">
         <v>1</v>
@@ -4962,10 +4962,10 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>0.1271534256822834</v>
+        <v>0.127149230446356</v>
       </c>
       <c r="B412" t="n">
-        <v>-0.0567779742883813</v>
+        <v>-0.05047707299637607</v>
       </c>
       <c r="C412" t="n">
         <v>0</v>
@@ -4973,10 +4973,10 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>0.1064097234992863</v>
+        <v>0.106404890259779</v>
       </c>
       <c r="B413" t="n">
-        <v>0.0224418952729608</v>
+        <v>0.02363930790165093</v>
       </c>
       <c r="C413" t="n">
         <v>0</v>
@@ -4984,10 +4984,10 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>0.09524980642719802</v>
+        <v>0.09525530420843688</v>
       </c>
       <c r="B414" t="n">
-        <v>0.007406040691331639</v>
+        <v>0.01404714813344402</v>
       </c>
       <c r="C414" t="n">
         <v>1</v>
@@ -4995,10 +4995,10 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>0.04874556592064758</v>
+        <v>0.04873960175799948</v>
       </c>
       <c r="B415" t="n">
-        <v>0.02846464898753535</v>
+        <v>0.02564279643657261</v>
       </c>
       <c r="C415" t="n">
         <v>1</v>
@@ -5006,10 +5006,10 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>0.1357547012560658</v>
+        <v>0.1357540374681101</v>
       </c>
       <c r="B416" t="n">
-        <v>0.03121740108343352</v>
+        <v>0.02493900827639941</v>
       </c>
       <c r="C416" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>0.1459582715674747</v>
+        <v>0.1459613682231818</v>
       </c>
       <c r="B417" t="n">
-        <v>0.07228006133202047</v>
+        <v>0.07102800287825231</v>
       </c>
       <c r="C417" t="n">
         <v>0</v>
@@ -5028,10 +5028,10 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>0.1816260204114594</v>
+        <v>0.1816254473443114</v>
       </c>
       <c r="B418" t="n">
-        <v>-0.04351335171778827</v>
+        <v>-0.04665530136360579</v>
       </c>
       <c r="C418" t="n">
         <v>1</v>
@@ -5039,10 +5039,10 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>0.08653811543747228</v>
+        <v>0.08654364037744791</v>
       </c>
       <c r="B419" t="n">
-        <v>-0.02438729686763787</v>
+        <v>-0.02616652905469538</v>
       </c>
       <c r="C419" t="n">
         <v>1</v>
@@ -5050,10 +5050,10 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>0.153442490960855</v>
+        <v>0.1534429847420168</v>
       </c>
       <c r="B420" t="n">
-        <v>0.01384168717053731</v>
+        <v>0.006793799784025353</v>
       </c>
       <c r="C420" t="n">
         <v>0</v>
@@ -5061,10 +5061,10 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>0.2782507704954555</v>
+        <v>0.2782521165027256</v>
       </c>
       <c r="B421" t="n">
-        <v>-0.1155232012988384</v>
+        <v>-0.1002229067513104</v>
       </c>
       <c r="C421" t="n">
         <v>1</v>
@@ -5072,10 +5072,10 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>0.08986864226038625</v>
+        <v>0.08986898714358613</v>
       </c>
       <c r="B422" t="n">
-        <v>-0.03177337074989462</v>
+        <v>-0.03186123542985148</v>
       </c>
       <c r="C422" t="n">
         <v>0</v>
@@ -5083,10 +5083,10 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>0.2103074036822187</v>
+        <v>0.2103078600636244</v>
       </c>
       <c r="B423" t="n">
-        <v>0.1422660122736285</v>
+        <v>0.144638201543811</v>
       </c>
       <c r="C423" t="n">
         <v>0</v>
@@ -5105,10 +5105,10 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>0.1591401565564531</v>
+        <v>0.1591350903805873</v>
       </c>
       <c r="B425" t="n">
-        <v>-0.1511122849553594</v>
+        <v>-0.1481197878922632</v>
       </c>
       <c r="C425" t="n">
         <v>1</v>
@@ -5116,10 +5116,10 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>0.1691957688182039</v>
+        <v>0.169190276918039</v>
       </c>
       <c r="B426" t="n">
-        <v>0.08489136856219899</v>
+        <v>0.08807625322069101</v>
       </c>
       <c r="C426" t="n">
         <v>0</v>
@@ -5127,10 +5127,10 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>0.07126455795084172</v>
+        <v>0.07126925746270035</v>
       </c>
       <c r="B427" t="n">
-        <v>-0.03524715020912113</v>
+        <v>-0.03484775678569947</v>
       </c>
       <c r="C427" t="n">
         <v>0</v>
@@ -5138,10 +5138,10 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>0.1635237146822345</v>
+        <v>0.1635234343414868</v>
       </c>
       <c r="B428" t="n">
-        <v>0.1561217358995662</v>
+        <v>0.1538656671121466</v>
       </c>
       <c r="C428" t="n">
         <v>0</v>
@@ -5149,10 +5149,10 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>0.153692851490746</v>
+        <v>0.153690922918622</v>
       </c>
       <c r="B429" t="n">
-        <v>-0.07752894874219644</v>
+        <v>-0.07467869991273041</v>
       </c>
       <c r="C429" t="n">
         <v>1</v>
@@ -5160,10 +5160,10 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>0.2454363389431879</v>
+        <v>0.2454460386711496</v>
       </c>
       <c r="B430" t="n">
-        <v>0.04382867754726937</v>
+        <v>0.0384096460893862</v>
       </c>
       <c r="C430" t="n">
         <v>1</v>
@@ -5171,10 +5171,10 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>0.1673998773164201</v>
+        <v>0.167410720050168</v>
       </c>
       <c r="B431" t="n">
-        <v>0.09315816737233586</v>
+        <v>0.09097577839244236</v>
       </c>
       <c r="C431" t="n">
         <v>0</v>
@@ -5193,10 +5193,10 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>0.06863141482899547</v>
+        <v>0.06863492054239759</v>
       </c>
       <c r="B433" t="n">
-        <v>-0.05914522581406872</v>
+        <v>-0.05151772140845698</v>
       </c>
       <c r="C433" t="n">
         <v>1</v>
@@ -5204,10 +5204,10 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>0.1916776698362772</v>
+        <v>0.1916527231886143</v>
       </c>
       <c r="B434" t="n">
-        <v>0.07631464889206009</v>
+        <v>0.07998938631947432</v>
       </c>
       <c r="C434" t="n">
         <v>0</v>
@@ -5215,10 +5215,10 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>0.08146373712050012</v>
+        <v>0.08145536175760737</v>
       </c>
       <c r="B435" t="n">
-        <v>0.0144757451370874</v>
+        <v>0.008753165506314773</v>
       </c>
       <c r="C435" t="n">
         <v>0</v>
@@ -5226,10 +5226,10 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>0.2291762774952834</v>
+        <v>0.2291716933902277</v>
       </c>
       <c r="B436" t="n">
-        <v>0.0273258718306175</v>
+        <v>0.0007663476972315543</v>
       </c>
       <c r="C436" t="n">
         <v>1</v>
@@ -5237,10 +5237,10 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>0.1065250979306981</v>
+        <v>0.1065209882637712</v>
       </c>
       <c r="B437" t="n">
-        <v>0.04981414627485227</v>
+        <v>0.04855644803879949</v>
       </c>
       <c r="C437" t="n">
         <v>1</v>
@@ -5248,10 +5248,10 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>0.1118197406930849</v>
+        <v>0.1118205428147125</v>
       </c>
       <c r="B438" t="n">
-        <v>-0.07151008338324373</v>
+        <v>-0.06420666847304934</v>
       </c>
       <c r="C438" t="n">
         <v>0</v>
@@ -5259,10 +5259,10 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>0.1673674766864064</v>
+        <v>0.1673648493926391</v>
       </c>
       <c r="B439" t="n">
-        <v>0.1004245096275536</v>
+        <v>0.1075157569065232</v>
       </c>
       <c r="C439" t="n">
         <v>1</v>
@@ -5270,10 +5270,10 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>0.1658511679822538</v>
+        <v>0.1658488816832969</v>
       </c>
       <c r="B440" t="n">
-        <v>-0.009510523135890769</v>
+        <v>-0.00823203065219015</v>
       </c>
       <c r="C440" t="n">
         <v>0</v>
@@ -5281,10 +5281,10 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>0.2297996902828896</v>
+        <v>0.2298071714041645</v>
       </c>
       <c r="B441" t="n">
-        <v>-0.08214707093711116</v>
+        <v>-0.08852613319713985</v>
       </c>
       <c r="C441" t="n">
         <v>1</v>
@@ -5303,10 +5303,10 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>0.07916468033124187</v>
+        <v>0.07916541999366</v>
       </c>
       <c r="B443" t="n">
-        <v>-0.06761879499840379</v>
+        <v>-0.06045602194815841</v>
       </c>
       <c r="C443" t="n">
         <v>1</v>
@@ -5314,10 +5314,10 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>0.1411559424867148</v>
+        <v>0.1411560431659168</v>
       </c>
       <c r="B444" t="n">
-        <v>-0.001757193234258608</v>
+        <v>-0.004930212040785219</v>
       </c>
       <c r="C444" t="n">
         <v>1</v>
@@ -5325,10 +5325,10 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>0.1547848676904585</v>
+        <v>0.1547775143149134</v>
       </c>
       <c r="B445" t="n">
-        <v>0.09283334046071479</v>
+        <v>0.0875460053428191</v>
       </c>
       <c r="C445" t="n">
         <v>0</v>
@@ -5336,10 +5336,10 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>0.257736554233802</v>
+        <v>0.2577251681792224</v>
       </c>
       <c r="B446" t="n">
-        <v>0.2010554536732812</v>
+        <v>0.1948011083358937</v>
       </c>
       <c r="C446" t="n">
         <v>0</v>
@@ -5358,10 +5358,10 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>0.1665149867908497</v>
+        <v>0.1665366800199205</v>
       </c>
       <c r="B448" t="n">
-        <v>0.2208195371030075</v>
+        <v>0.2390224483268389</v>
       </c>
       <c r="C448" t="n">
         <v>0</v>
@@ -5369,10 +5369,10 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>0.2056687433637284</v>
+        <v>0.2056672927923658</v>
       </c>
       <c r="B449" t="n">
-        <v>0.07044119286612949</v>
+        <v>0.06518235223654303</v>
       </c>
       <c r="C449" t="n">
         <v>0</v>
@@ -5380,10 +5380,10 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>0.1996293627305769</v>
+        <v>0.1996239814803145</v>
       </c>
       <c r="B450" t="n">
-        <v>-0.09883946759763654</v>
+        <v>-0.1148886698675718</v>
       </c>
       <c r="C450" t="n">
         <v>1</v>
@@ -5391,10 +5391,10 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>0.2471112141080229</v>
+        <v>0.2471170282041844</v>
       </c>
       <c r="B451" t="n">
-        <v>-0.09308901388910401</v>
+        <v>-0.09915530787841612</v>
       </c>
       <c r="C451" t="n">
         <v>1</v>
@@ -5402,10 +5402,10 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>0.2540346280471449</v>
+        <v>0.2540264427707898</v>
       </c>
       <c r="B452" t="n">
-        <v>-0.1833251293388471</v>
+        <v>-0.1755676647795756</v>
       </c>
       <c r="C452" t="n">
         <v>1</v>
@@ -5413,10 +5413,10 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>0.08253287059446764</v>
+        <v>0.08253360460856844</v>
       </c>
       <c r="B453" t="n">
-        <v>0.04989311181503336</v>
+        <v>0.05641746517325132</v>
       </c>
       <c r="C453" t="n">
         <v>0</v>
@@ -5424,10 +5424,10 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>0.1480078026024701</v>
+        <v>0.147993194256031</v>
       </c>
       <c r="B454" t="n">
-        <v>0.08493094930227403</v>
+        <v>0.08067501660594605</v>
       </c>
       <c r="C454" t="n">
         <v>0</v>
@@ -5435,10 +5435,10 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>0.0591404507431709</v>
+        <v>0.05914420685131008</v>
       </c>
       <c r="B455" t="n">
-        <v>0.04517405429453177</v>
+        <v>0.04466332373890951</v>
       </c>
       <c r="C455" t="n">
         <v>0</v>
@@ -5446,10 +5446,10 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>0.1879714800596855</v>
+        <v>0.1879609938955707</v>
       </c>
       <c r="B456" t="n">
-        <v>-0.02570088657312219</v>
+        <v>-0.0291712201429998</v>
       </c>
       <c r="C456" t="n">
         <v>1</v>
@@ -5457,10 +5457,10 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>0.1361819065122244</v>
+        <v>0.1361875639625157</v>
       </c>
       <c r="B457" t="n">
-        <v>0.02691894906097965</v>
+        <v>0.01703373470899259</v>
       </c>
       <c r="C457" t="n">
         <v>0</v>
@@ -5468,10 +5468,10 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>0.2006468652690062</v>
+        <v>0.2006430854951691</v>
       </c>
       <c r="B458" t="n">
-        <v>0.05083047400002624</v>
+        <v>0.05045676245485431</v>
       </c>
       <c r="C458" t="n">
         <v>1</v>
@@ -5479,10 +5479,10 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>0.2137351746538056</v>
+        <v>0.2137479752054231</v>
       </c>
       <c r="B459" t="n">
-        <v>-0.08216894283149519</v>
+        <v>-0.06803854303204264</v>
       </c>
       <c r="C459" t="n">
         <v>1</v>
@@ -5490,10 +5490,10 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>0.09899592564432991</v>
+        <v>0.09897526420254729</v>
       </c>
       <c r="B460" t="n">
-        <v>0.06171884568489418</v>
+        <v>0.07004059495184729</v>
       </c>
       <c r="C460" t="n">
         <v>0</v>
@@ -5501,10 +5501,10 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>0.1618816767375669</v>
+        <v>0.1618827716580299</v>
       </c>
       <c r="B461" t="n">
-        <v>-0.0203249385959164</v>
+        <v>-0.009420047086008833</v>
       </c>
       <c r="C461" t="n">
         <v>1</v>
@@ -5512,10 +5512,10 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>0.2518032895105248</v>
+        <v>0.2518071270714661</v>
       </c>
       <c r="B462" t="n">
-        <v>0.03654676117038568</v>
+        <v>0.04807742495720276</v>
       </c>
       <c r="C462" t="n">
         <v>0</v>
@@ -5534,10 +5534,10 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>0.1380549659549987</v>
+        <v>0.1380586170655683</v>
       </c>
       <c r="B464" t="n">
-        <v>-0.06708212527791305</v>
+        <v>-0.07335879176565473</v>
       </c>
       <c r="C464" t="n">
         <v>1</v>
@@ -5545,10 +5545,10 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>0.2329922098257002</v>
+        <v>0.2329922353148129</v>
       </c>
       <c r="B465" t="n">
-        <v>0.005823450159627768</v>
+        <v>0.01051782533694158</v>
       </c>
       <c r="C465" t="n">
         <v>1</v>
@@ -5556,10 +5556,10 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>0.1588162772973705</v>
+        <v>0.1588107973514273</v>
       </c>
       <c r="B466" t="n">
-        <v>0.1272822518135984</v>
+        <v>0.13029773144163</v>
       </c>
       <c r="C466" t="n">
         <v>0</v>
@@ -5567,10 +5567,10 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>0.1116977194873246</v>
+        <v>0.1116961208578227</v>
       </c>
       <c r="B467" t="n">
-        <v>0.04187447321164629</v>
+        <v>0.04581657587999763</v>
       </c>
       <c r="C467" t="n">
         <v>0</v>
@@ -5578,10 +5578,10 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>0.1079798053395521</v>
+        <v>0.1079669927970679</v>
       </c>
       <c r="B468" t="n">
-        <v>0.08955774007598145</v>
+        <v>0.08493731651384091</v>
       </c>
       <c r="C468" t="n">
         <v>0</v>
@@ -5589,10 +5589,10 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>0.1435823899669663</v>
+        <v>0.1435857264575209</v>
       </c>
       <c r="B469" t="n">
-        <v>0.00097414538996466</v>
+        <v>-0.004233781736052618</v>
       </c>
       <c r="C469" t="n">
         <v>0</v>
@@ -5600,10 +5600,10 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>0.1398805184137618</v>
+        <v>0.1398834289803238</v>
       </c>
       <c r="B470" t="n">
-        <v>0.05600191673201336</v>
+        <v>0.05638249597808029</v>
       </c>
       <c r="C470" t="n">
         <v>0</v>
@@ -5611,10 +5611,10 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>0.01679796864314929</v>
+        <v>0.01679944016347424</v>
       </c>
       <c r="B471" t="n">
-        <v>0.00278955801760421</v>
+        <v>0.002220480840368897</v>
       </c>
       <c r="C471" t="n">
         <v>0</v>
@@ -5622,10 +5622,10 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>0.1068385279965043</v>
+        <v>0.1068416015698031</v>
       </c>
       <c r="B472" t="n">
-        <v>0.05601861928559967</v>
+        <v>0.05185116834711504</v>
       </c>
       <c r="C472" t="n">
         <v>0</v>
@@ -5633,10 +5633,10 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>0.1813734088316462</v>
+        <v>0.1813796783620872</v>
       </c>
       <c r="B473" t="n">
-        <v>-0.06914250329912597</v>
+        <v>-0.06759039608311379</v>
       </c>
       <c r="C473" t="n">
         <v>1</v>
@@ -5644,10 +5644,10 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>0.1249022725096007</v>
+        <v>0.1249126457104515</v>
       </c>
       <c r="B474" t="n">
-        <v>-0.04030403820026832</v>
+        <v>-0.04427354992607892</v>
       </c>
       <c r="C474" t="n">
         <v>1</v>
@@ -5655,10 +5655,10 @@
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>0.1299837762068795</v>
+        <v>0.1299646495352211</v>
       </c>
       <c r="B475" t="n">
-        <v>0.1156783380414975</v>
+        <v>0.1098355912603852</v>
       </c>
       <c r="C475" t="n">
         <v>0</v>
@@ -5666,10 +5666,10 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>0.1567867441727294</v>
+        <v>0.1567531146466866</v>
       </c>
       <c r="B476" t="n">
-        <v>0.06293650146715304</v>
+        <v>0.06186798762885809</v>
       </c>
       <c r="C476" t="n">
         <v>0</v>
@@ -5677,10 +5677,10 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>0.1189100545722288</v>
+        <v>0.1189073025803228</v>
       </c>
       <c r="B477" t="n">
-        <v>-0.009676762411833364</v>
+        <v>-0.01505791005315929</v>
       </c>
       <c r="C477" t="n">
         <v>1</v>
@@ -5688,10 +5688,10 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>0.1781796156407174</v>
+        <v>0.1781781394967019</v>
       </c>
       <c r="B478" t="n">
-        <v>0.07211191180896927</v>
+        <v>0.07112966384075362</v>
       </c>
       <c r="C478" t="n">
         <v>0</v>
@@ -5699,10 +5699,10 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>0.1497597872276415</v>
+        <v>0.1497615243062523</v>
       </c>
       <c r="B479" t="n">
-        <v>-0.03565603410968253</v>
+        <v>-0.04110354610487184</v>
       </c>
       <c r="C479" t="n">
         <v>1</v>
@@ -5710,10 +5710,10 @@
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>0.1086009834270451</v>
+        <v>0.1086045244980243</v>
       </c>
       <c r="B480" t="n">
-        <v>-0.02075100505943447</v>
+        <v>-0.02376239886705004</v>
       </c>
       <c r="C480" t="n">
         <v>1</v>
@@ -5721,10 +5721,10 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>0.1314481529452225</v>
+        <v>0.1314538315804987</v>
       </c>
       <c r="B481" t="n">
-        <v>-0.03771670502152003</v>
+        <v>-0.03656218604610075</v>
       </c>
       <c r="C481" t="n">
         <v>1</v>
@@ -5732,10 +5732,10 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>0.280561702677913</v>
+        <v>0.2805764166487074</v>
       </c>
       <c r="B482" t="n">
-        <v>-0.04684896174006363</v>
+        <v>-0.04014146833247424</v>
       </c>
       <c r="C482" t="n">
         <v>1</v>
@@ -5743,10 +5743,10 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>0.1445635585696443</v>
+        <v>0.144553194887299</v>
       </c>
       <c r="B483" t="n">
-        <v>0.1015144653635774</v>
+        <v>0.108385260693872</v>
       </c>
       <c r="C483" t="n">
         <v>1</v>
@@ -5754,10 +5754,10 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>0.285095115017939</v>
+        <v>0.2850993281597225</v>
       </c>
       <c r="B484" t="n">
-        <v>0.06213400721189698</v>
+        <v>0.06007784694574815</v>
       </c>
       <c r="C484" t="n">
         <v>0</v>
@@ -5765,10 +5765,10 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>0.1298662549551232</v>
+        <v>0.1298668219456094</v>
       </c>
       <c r="B485" t="n">
-        <v>0.08903241589590387</v>
+        <v>0.0891590872465208</v>
       </c>
       <c r="C485" t="n">
         <v>1</v>
@@ -5776,10 +5776,10 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>0.04962236391898688</v>
+        <v>0.0496268461914504</v>
       </c>
       <c r="B486" t="n">
-        <v>0.02162988920030736</v>
+        <v>0.02376285252305755</v>
       </c>
       <c r="C486" t="n">
         <v>0</v>
@@ -5787,10 +5787,10 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>0.1496309001404041</v>
+        <v>0.1496371733095363</v>
       </c>
       <c r="B487" t="n">
-        <v>0.04869699051794224</v>
+        <v>0.04304244572936632</v>
       </c>
       <c r="C487" t="n">
         <v>0</v>
@@ -5798,10 +5798,10 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>0.2898386695770968</v>
+        <v>0.2898430405321494</v>
       </c>
       <c r="B488" t="n">
-        <v>-0.04234995016447071</v>
+        <v>-0.04545963842631173</v>
       </c>
       <c r="C488" t="n">
         <v>1</v>
@@ -5820,10 +5820,10 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>0.09218540394764338</v>
+        <v>0.09218066940548356</v>
       </c>
       <c r="B490" t="n">
-        <v>0.05823294175584749</v>
+        <v>0.05787537410683229</v>
       </c>
       <c r="C490" t="n">
         <v>0</v>
@@ -5831,10 +5831,10 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>0.1509326519559308</v>
+        <v>0.1509347402600921</v>
       </c>
       <c r="B491" t="n">
-        <v>0.07114654899597639</v>
+        <v>0.08279820036257012</v>
       </c>
       <c r="C491" t="n">
         <v>0</v>
@@ -5842,10 +5842,10 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>0.1183799431878275</v>
+        <v>0.1183773037751952</v>
       </c>
       <c r="B492" t="n">
-        <v>-0.01420680065177629</v>
+        <v>-0.01428888856787169</v>
       </c>
       <c r="C492" t="n">
         <v>0</v>
@@ -5853,10 +5853,10 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>0.2359380017743897</v>
+        <v>0.2359362649318019</v>
       </c>
       <c r="B493" t="n">
-        <v>-0.03854821553423812</v>
+        <v>-0.02810469848009385</v>
       </c>
       <c r="C493" t="n">
         <v>1</v>
@@ -5864,10 +5864,10 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>0.1793186339505995</v>
+        <v>0.179326015487341</v>
       </c>
       <c r="B494" t="n">
-        <v>0.01062121554220943</v>
+        <v>0.01160018199190883</v>
       </c>
       <c r="C494" t="n">
         <v>0</v>
@@ -5875,10 +5875,10 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>0.291392496613642</v>
+        <v>0.2913966626517349</v>
       </c>
       <c r="B495" t="n">
-        <v>-0.09362561477892881</v>
+        <v>-0.09318128299738079</v>
       </c>
       <c r="C495" t="n">
         <v>1</v>
@@ -5886,10 +5886,10 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>0.06813113815660955</v>
+        <v>0.06813210999966998</v>
       </c>
       <c r="B496" t="n">
-        <v>0.0340620981151665</v>
+        <v>0.03160012614127891</v>
       </c>
       <c r="C496" t="n">
         <v>0</v>
@@ -5897,10 +5897,10 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>0.1981025731461586</v>
+        <v>0.1980979072590931</v>
       </c>
       <c r="B497" t="n">
-        <v>0.1983503125465826</v>
+        <v>0.18406113645863</v>
       </c>
       <c r="C497" t="n">
         <v>0</v>
@@ -5908,10 +5908,10 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>0.1627405626402111</v>
+        <v>0.1627409039710114</v>
       </c>
       <c r="B498" t="n">
-        <v>-0.1083845018952732</v>
+        <v>-0.1151497885828339</v>
       </c>
       <c r="C498" t="n">
         <v>1</v>
@@ -5919,10 +5919,10 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>0.1614547790687751</v>
+        <v>0.1614575250081284</v>
       </c>
       <c r="B499" t="n">
-        <v>-0.0533557171832396</v>
+        <v>-0.05161386597583847</v>
       </c>
       <c r="C499" t="n">
         <v>1</v>
@@ -5930,10 +5930,10 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>0.05053474191146332</v>
+        <v>0.05053076774878672</v>
       </c>
       <c r="B500" t="n">
-        <v>-0.008840886645637716</v>
+        <v>-0.007906410423706413</v>
       </c>
       <c r="C500" t="n">
         <v>1</v>
@@ -5952,10 +5952,10 @@
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>0.2078136992103021</v>
+        <v>0.2078114676661196</v>
       </c>
       <c r="B502" t="n">
-        <v>0.1209617414915157</v>
+        <v>0.1189446186549079</v>
       </c>
       <c r="C502" t="n">
         <v>0</v>
@@ -5963,10 +5963,10 @@
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>0.1499523797901767</v>
+        <v>0.1499464356061989</v>
       </c>
       <c r="B503" t="n">
-        <v>-0.06462339078590178</v>
+        <v>-0.05738953682303567</v>
       </c>
       <c r="C503" t="n">
         <v>0</v>
@@ -5974,10 +5974,10 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>0.2554522970940817</v>
+        <v>0.2554515407825459</v>
       </c>
       <c r="B504" t="n">
-        <v>-0.1090987047691639</v>
+        <v>-0.1161343543136199</v>
       </c>
       <c r="C504" t="n">
         <v>1</v>
@@ -5985,10 +5985,10 @@
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>0.1184390631565503</v>
+        <v>0.1184394634249505</v>
       </c>
       <c r="B505" t="n">
-        <v>-0.0423826591311426</v>
+        <v>-0.04638050784637946</v>
       </c>
       <c r="C505" t="n">
         <v>1</v>
@@ -5996,10 +5996,10 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>0.2262662918193611</v>
+        <v>0.226261044778743</v>
       </c>
       <c r="B506" t="n">
-        <v>-0.05220035806453959</v>
+        <v>-0.05215900696229434</v>
       </c>
       <c r="C506" t="n">
         <v>1</v>
@@ -6007,10 +6007,10 @@
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>0.1025538300430762</v>
+        <v>0.1025499549241835</v>
       </c>
       <c r="B507" t="n">
-        <v>0.001452950363508877</v>
+        <v>0.006113564040270804</v>
       </c>
       <c r="C507" t="n">
         <v>1</v>
@@ -6018,10 +6018,10 @@
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>0.1843215031513954</v>
+        <v>0.1842941290423595</v>
       </c>
       <c r="B508" t="n">
-        <v>0.0210473408968254</v>
+        <v>0.02219450251173685</v>
       </c>
       <c r="C508" t="n">
         <v>0</v>
@@ -6040,10 +6040,10 @@
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>0.1574000153096715</v>
+        <v>0.1574095943707683</v>
       </c>
       <c r="B510" t="n">
-        <v>-0.0219987645730097</v>
+        <v>-0.01266308651966331</v>
       </c>
       <c r="C510" t="n">
         <v>1</v>
@@ -6051,10 +6051,10 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>0.1209049383107767</v>
+        <v>0.1209017655693429</v>
       </c>
       <c r="B511" t="n">
-        <v>0.009275595148605504</v>
+        <v>0.0005636341744877406</v>
       </c>
       <c r="C511" t="n">
         <v>0</v>
@@ -6062,10 +6062,10 @@
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>0.1579519953564613</v>
+        <v>0.1579631800437536</v>
       </c>
       <c r="B512" t="n">
-        <v>0.249028040882128</v>
+        <v>0.2674277496164722</v>
       </c>
       <c r="C512" t="n">
         <v>0</v>
@@ -6073,10 +6073,10 @@
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>0.08266872729168918</v>
+        <v>0.08266476558793075</v>
       </c>
       <c r="B513" t="n">
-        <v>0.182527491124576</v>
+        <v>0.1675373559096666</v>
       </c>
       <c r="C513" t="n">
         <v>0</v>
@@ -6084,10 +6084,10 @@
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>0.09420766018317822</v>
+        <v>0.09420961193001819</v>
       </c>
       <c r="B514" t="n">
-        <v>-0.1313154447628727</v>
+        <v>-0.1273979626361947</v>
       </c>
       <c r="C514" t="n">
         <v>1</v>
@@ -6106,10 +6106,10 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>0.07002671794786865</v>
+        <v>0.07002641161194241</v>
       </c>
       <c r="B516" t="n">
-        <v>0.04953857228632712</v>
+        <v>0.05206183049552789</v>
       </c>
       <c r="C516" t="n">
         <v>0</v>
@@ -6117,10 +6117,10 @@
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>0.1310322631384014</v>
+        <v>0.1310329110064286</v>
       </c>
       <c r="B517" t="n">
-        <v>-0.04046042967685969</v>
+        <v>-0.05179311431935313</v>
       </c>
       <c r="C517" t="n">
         <v>1</v>
@@ -6128,10 +6128,10 @@
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>0.2347396017422591</v>
+        <v>0.2347435911974637</v>
       </c>
       <c r="B518" t="n">
-        <v>0.07990929378957964</v>
+        <v>0.08240907532898863</v>
       </c>
       <c r="C518" t="n">
         <v>0</v>
@@ -6139,10 +6139,10 @@
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>0.04096222817827876</v>
+        <v>0.04096745155610391</v>
       </c>
       <c r="B519" t="n">
-        <v>0.08409452394851075</v>
+        <v>0.09948586759767511</v>
       </c>
       <c r="C519" t="n">
         <v>0</v>
@@ -6150,10 +6150,10 @@
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>0.1918168916652804</v>
+        <v>0.1918062060455616</v>
       </c>
       <c r="B520" t="n">
-        <v>0.1131441422409253</v>
+        <v>0.1156511079761347</v>
       </c>
       <c r="C520" t="n">
         <v>1</v>
@@ -6161,10 +6161,10 @@
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>0.1736854706271147</v>
+        <v>0.1736814242678371</v>
       </c>
       <c r="B521" t="n">
-        <v>-0.03867038331617698</v>
+        <v>-0.04094944355367082</v>
       </c>
       <c r="C521" t="n">
         <v>1</v>
@@ -6172,10 +6172,10 @@
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>0.1202977559490307</v>
+        <v>0.1203020105478101</v>
       </c>
       <c r="B522" t="n">
-        <v>0.001059535159360099</v>
+        <v>-0.007618375489381747</v>
       </c>
       <c r="C522" t="n">
         <v>1</v>
@@ -6183,10 +6183,10 @@
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>0.06269121153118035</v>
+        <v>0.06269213861435317</v>
       </c>
       <c r="B523" t="n">
-        <v>-0.01541993382444636</v>
+        <v>-0.01239829141914908</v>
       </c>
       <c r="C523" t="n">
         <v>1</v>
@@ -6194,10 +6194,10 @@
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>0.1530585113966786</v>
+        <v>0.1530660957959848</v>
       </c>
       <c r="B524" t="n">
-        <v>-0.03449330499811357</v>
+        <v>-0.04113861751428632</v>
       </c>
       <c r="C524" t="n">
         <v>1</v>
@@ -6205,10 +6205,10 @@
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>0.172157359709403</v>
+        <v>0.1721653337116547</v>
       </c>
       <c r="B525" t="n">
-        <v>-0.025451654972348</v>
+        <v>-0.0350649002732159</v>
       </c>
       <c r="C525" t="n">
         <v>1</v>
@@ -6227,10 +6227,10 @@
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>0.1912503976395661</v>
+        <v>0.1912568495843032</v>
       </c>
       <c r="B527" t="n">
-        <v>0.02727342848936774</v>
+        <v>0.02529405276763218</v>
       </c>
       <c r="C527" t="n">
         <v>0</v>
@@ -6238,10 +6238,10 @@
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>0.1611882062733123</v>
+        <v>0.16118455392242</v>
       </c>
       <c r="B528" t="n">
-        <v>0.03937123660042073</v>
+        <v>0.03696944028728463</v>
       </c>
       <c r="C528" t="n">
         <v>0</v>
@@ -6249,10 +6249,10 @@
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>0.1097446984233314</v>
+        <v>0.109748140656217</v>
       </c>
       <c r="B529" t="n">
-        <v>0.3687026516845309</v>
+        <v>0.3897015669396684</v>
       </c>
       <c r="C529" t="n">
         <v>0</v>
@@ -6260,10 +6260,10 @@
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>0.1716939052594939</v>
+        <v>0.1716966088779298</v>
       </c>
       <c r="B530" t="n">
-        <v>-0.06416740114191187</v>
+        <v>-0.0630861749990114</v>
       </c>
       <c r="C530" t="n">
         <v>1</v>
@@ -6271,10 +6271,10 @@
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>0.2390264324393327</v>
+        <v>0.2390353116141785</v>
       </c>
       <c r="B531" t="n">
-        <v>-0.04496217329330846</v>
+        <v>-0.05530490034007445</v>
       </c>
       <c r="C531" t="n">
         <v>1</v>
@@ -6282,10 +6282,10 @@
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>0.2226619895659822</v>
+        <v>0.2226681139986147</v>
       </c>
       <c r="B532" t="n">
-        <v>0.01517643012645713</v>
+        <v>0.017558796241111</v>
       </c>
       <c r="C532" t="n">
         <v>0</v>
@@ -6293,10 +6293,10 @@
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>0.109644782886483</v>
+        <v>0.1096554886037001</v>
       </c>
       <c r="B533" t="n">
-        <v>0.03106364435808585</v>
+        <v>0.02968518983044927</v>
       </c>
       <c r="C533" t="n">
         <v>0</v>
@@ -6304,10 +6304,10 @@
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>0.1792595411810204</v>
+        <v>0.1792641379710251</v>
       </c>
       <c r="B534" t="n">
-        <v>0.01346507350755008</v>
+        <v>0.01393105453838995</v>
       </c>
       <c r="C534" t="n">
         <v>0</v>
@@ -6315,10 +6315,10 @@
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>0.1561971046976661</v>
+        <v>0.1561938145506287</v>
       </c>
       <c r="B535" t="n">
-        <v>-0.01832743839977606</v>
+        <v>-0.02164351535131323</v>
       </c>
       <c r="C535" t="n">
         <v>1</v>
@@ -6326,10 +6326,10 @@
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>0.1977715013317224</v>
+        <v>0.1977840614335983</v>
       </c>
       <c r="B536" t="n">
-        <v>-0.0463629607408081</v>
+        <v>-0.0429599720040369</v>
       </c>
       <c r="C536" t="n">
         <v>1</v>
@@ -6337,10 +6337,10 @@
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>0.2918170240220549</v>
+        <v>0.2918207269188818</v>
       </c>
       <c r="B537" t="n">
-        <v>-0.1830339828192829</v>
+        <v>-0.1755933487049308</v>
       </c>
       <c r="C537" t="n">
         <v>1</v>
@@ -6348,10 +6348,10 @@
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>0.08057901464095381</v>
+        <v>0.08056795188874019</v>
       </c>
       <c r="B538" t="n">
-        <v>0.09436935692550118</v>
+        <v>0.08272022549740526</v>
       </c>
       <c r="C538" t="n">
         <v>0</v>
@@ -6359,10 +6359,10 @@
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>0.1193527544273082</v>
+        <v>0.1193580416085746</v>
       </c>
       <c r="B539" t="n">
-        <v>0.1254426153553579</v>
+        <v>0.1358156483627894</v>
       </c>
       <c r="C539" t="n">
         <v>0</v>
@@ -6370,10 +6370,10 @@
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>0.2199195480358614</v>
+        <v>0.2199220616656909</v>
       </c>
       <c r="B540" t="n">
-        <v>0.05545496489381756</v>
+        <v>0.05854609648910697</v>
       </c>
       <c r="C540" t="n">
         <v>0</v>
@@ -6381,10 +6381,10 @@
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>0.3511091703963676</v>
+        <v>0.3511076870817124</v>
       </c>
       <c r="B541" t="n">
-        <v>-0.1270165543557684</v>
+        <v>-0.1306928963480053</v>
       </c>
       <c r="C541" t="n">
         <v>1</v>
@@ -6392,10 +6392,10 @@
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>0.03725691947846558</v>
+        <v>0.03725739822774366</v>
       </c>
       <c r="B542" t="n">
-        <v>0.01339506598664101</v>
+        <v>0.01616457647883732</v>
       </c>
       <c r="C542" t="n">
         <v>0</v>
@@ -6403,10 +6403,10 @@
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>0.1738215998585126</v>
+        <v>0.1738127569440541</v>
       </c>
       <c r="B543" t="n">
-        <v>-0.06456229492811733</v>
+        <v>-0.07249067716905465</v>
       </c>
       <c r="C543" t="n">
         <v>1</v>
@@ -6414,10 +6414,10 @@
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>0.09695653134607232</v>
+        <v>0.09694355203143754</v>
       </c>
       <c r="B544" t="n">
-        <v>0.2142126653544943</v>
+        <v>0.213781606779113</v>
       </c>
       <c r="C544" t="n">
         <v>0</v>
@@ -6425,10 +6425,10 @@
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>0.152682515012857</v>
+        <v>0.1526797143414836</v>
       </c>
       <c r="B545" t="n">
-        <v>0.002524723235431612</v>
+        <v>0.002711259899304614</v>
       </c>
       <c r="C545" t="n">
         <v>0</v>
@@ -6436,10 +6436,10 @@
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>0.1214531123557102</v>
+        <v>0.1214510658890849</v>
       </c>
       <c r="B546" t="n">
-        <v>-0.02157817467803161</v>
+        <v>-0.01492326097423148</v>
       </c>
       <c r="C546" t="n">
         <v>1</v>
@@ -6447,10 +6447,10 @@
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>0.1310322631384014</v>
+        <v>0.1310329110064286</v>
       </c>
       <c r="B547" t="n">
-        <v>-0.04046042967685969</v>
+        <v>-0.05179311431935313</v>
       </c>
       <c r="C547" t="n">
         <v>1</v>
@@ -6458,10 +6458,10 @@
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>0.1801857496831574</v>
+        <v>0.1801826011471024</v>
       </c>
       <c r="B548" t="n">
-        <v>0.07401374563269987</v>
+        <v>0.07246134006919407</v>
       </c>
       <c r="C548" t="n">
         <v>1</v>
@@ -6469,10 +6469,10 @@
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>0.1691445213789543</v>
+        <v>0.1691440947565896</v>
       </c>
       <c r="B549" t="n">
-        <v>0.1109803477478441</v>
+        <v>0.1158147909786402</v>
       </c>
       <c r="C549" t="n">
         <v>0</v>
@@ -6480,10 +6480,10 @@
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>0.3214071737276282</v>
+        <v>0.3214000278142268</v>
       </c>
       <c r="B550" t="n">
-        <v>-0.05770837330528675</v>
+        <v>-0.05566106618493722</v>
       </c>
       <c r="C550" t="n">
         <v>1</v>
@@ -6491,10 +6491,10 @@
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>0.0715780698035402</v>
+        <v>0.07158762012450451</v>
       </c>
       <c r="B551" t="n">
-        <v>-0.01525956338972066</v>
+        <v>-0.00570584765039026</v>
       </c>
       <c r="C551" t="n">
         <v>1</v>
@@ -6502,10 +6502,10 @@
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>0.1212350855118398</v>
+        <v>0.1212310814919038</v>
       </c>
       <c r="B552" t="n">
-        <v>-0.02526789964765718</v>
+        <v>-0.02454761536154892</v>
       </c>
       <c r="C552" t="n">
         <v>1</v>
@@ -6513,10 +6513,10 @@
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>0.1204876244626745</v>
+        <v>0.1204697491099481</v>
       </c>
       <c r="B553" t="n">
-        <v>0.08369140988514857</v>
+        <v>0.07318903076718149</v>
       </c>
       <c r="C553" t="n">
         <v>0</v>
@@ -6524,10 +6524,10 @@
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>0.139881066466852</v>
+        <v>0.1398621898955911</v>
       </c>
       <c r="B554" t="n">
-        <v>0.02593319789635887</v>
+        <v>0.0359087434669379</v>
       </c>
       <c r="C554" t="n">
         <v>0</v>
@@ -6535,10 +6535,10 @@
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>0.08455670112324724</v>
+        <v>0.08456146571892187</v>
       </c>
       <c r="B555" t="n">
-        <v>0.01724025682975159</v>
+        <v>0.007596301782594883</v>
       </c>
       <c r="C555" t="n">
         <v>0</v>
@@ -6546,10 +6546,10 @@
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>0.1669562592348037</v>
+        <v>0.1669472754464375</v>
       </c>
       <c r="B556" t="n">
-        <v>-0.07276686441581867</v>
+        <v>-0.07187648259133211</v>
       </c>
       <c r="C556" t="n">
         <v>1</v>
@@ -6557,10 +6557,10 @@
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>0.1784831337116556</v>
+        <v>0.1784884317150107</v>
       </c>
       <c r="B557" t="n">
-        <v>0.03957170217314637</v>
+        <v>0.05321667295196515</v>
       </c>
       <c r="C557" t="n">
         <v>0</v>
@@ -6568,10 +6568,10 @@
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>0.06114237741093506</v>
+        <v>0.0611442388069104</v>
       </c>
       <c r="B558" t="n">
-        <v>0.07980269878002795</v>
+        <v>0.08627474130117166</v>
       </c>
       <c r="C558" t="n">
         <v>0</v>
@@ -6579,10 +6579,10 @@
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>0.2646955693676079</v>
+        <v>0.2647041822724614</v>
       </c>
       <c r="B559" t="n">
-        <v>0.05476008894002297</v>
+        <v>0.05250924424493838</v>
       </c>
       <c r="C559" t="n">
         <v>0</v>
@@ -6590,10 +6590,10 @@
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>0.2135494868403356</v>
+        <v>0.2135466767590858</v>
       </c>
       <c r="B560" t="n">
-        <v>-0.03890295985155812</v>
+        <v>-0.0468584059605013</v>
       </c>
       <c r="C560" t="n">
         <v>1</v>
@@ -6601,10 +6601,10 @@
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>0.126234832205812</v>
+        <v>0.1262329141895515</v>
       </c>
       <c r="B561" t="n">
-        <v>0.09527260145599989</v>
+        <v>0.1005581665729454</v>
       </c>
       <c r="C561" t="n">
         <v>1</v>
@@ -6612,10 +6612,10 @@
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>0.07349378762921679</v>
+        <v>0.07349790321655823</v>
       </c>
       <c r="B562" t="n">
-        <v>0.07265866674096803</v>
+        <v>0.07726121825445606</v>
       </c>
       <c r="C562" t="n">
         <v>0</v>
@@ -6634,10 +6634,10 @@
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>0.1633040278269016</v>
+        <v>0.1633296939929915</v>
       </c>
       <c r="B564" t="n">
-        <v>0.09868780110173057</v>
+        <v>0.10319784232546</v>
       </c>
       <c r="C564" t="n">
         <v>0</v>
@@ -6645,10 +6645,10 @@
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>0.1131788003146138</v>
+        <v>0.1131751657204564</v>
       </c>
       <c r="B565" t="n">
-        <v>-0.1332510268561865</v>
+        <v>-0.1278177818563288</v>
       </c>
       <c r="C565" t="n">
         <v>1</v>
@@ -6656,10 +6656,10 @@
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>0.1027072558617082</v>
+        <v>0.1027026939632772</v>
       </c>
       <c r="B566" t="n">
-        <v>0.07570054820897774</v>
+        <v>0.07735969103137708</v>
       </c>
       <c r="C566" t="n">
         <v>0</v>
@@ -6667,10 +6667,10 @@
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>0.1723634253450588</v>
+        <v>0.1723651807786472</v>
       </c>
       <c r="B567" t="n">
-        <v>0.08244584356213555</v>
+        <v>0.08320243711107114</v>
       </c>
       <c r="C567" t="n">
         <v>0</v>
@@ -6678,10 +6678,10 @@
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>0.1411188358927423</v>
+        <v>0.1411204506507078</v>
       </c>
       <c r="B568" t="n">
-        <v>0.04621765472862534</v>
+        <v>0.04584071341035949</v>
       </c>
       <c r="C568" t="n">
         <v>0</v>
@@ -6689,10 +6689,10 @@
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>0.1762576741353127</v>
+        <v>0.1762674121269375</v>
       </c>
       <c r="B569" t="n">
-        <v>0.0308327462232869</v>
+        <v>0.02935900529592349</v>
       </c>
       <c r="C569" t="n">
         <v>0</v>
@@ -6700,10 +6700,10 @@
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>0.2239843541431033</v>
+        <v>0.2239779519836686</v>
       </c>
       <c r="B570" t="n">
-        <v>-0.2599604451203671</v>
+        <v>-0.2545960348627848</v>
       </c>
       <c r="C570" t="n">
         <v>1</v>
@@ -6711,10 +6711,10 @@
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>0.2452903602526842</v>
+        <v>0.2452922240355806</v>
       </c>
       <c r="B571" t="n">
-        <v>0.04919977150716843</v>
+        <v>0.05088938861886812</v>
       </c>
       <c r="C571" t="n">
         <v>0</v>
@@ -6722,10 +6722,10 @@
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>0.1697615953356762</v>
+        <v>0.1697709445844195</v>
       </c>
       <c r="B572" t="n">
-        <v>-0.05387050521444499</v>
+        <v>-0.05416288218071276</v>
       </c>
       <c r="C572" t="n">
         <v>1</v>
@@ -6733,10 +6733,10 @@
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>0.09449306543704071</v>
+        <v>0.09448492595210037</v>
       </c>
       <c r="B573" t="n">
-        <v>0.1530429422685369</v>
+        <v>0.149830681503267</v>
       </c>
       <c r="C573" t="n">
         <v>0</v>
@@ -6744,10 +6744,10 @@
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>0.4366082144256425</v>
+        <v>0.4366047335396954</v>
       </c>
       <c r="B574" t="n">
-        <v>-0.2096158819394469</v>
+        <v>-0.1882613775377134</v>
       </c>
       <c r="C574" t="n">
         <v>1</v>
@@ -6755,10 +6755,10 @@
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>0.2135238117362087</v>
+        <v>0.2135199678691896</v>
       </c>
       <c r="B575" t="n">
-        <v>0.01937120407605872</v>
+        <v>0.01958506111499805</v>
       </c>
       <c r="C575" t="n">
         <v>1</v>
@@ -6766,10 +6766,10 @@
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>0.1102791069192669</v>
+        <v>0.1102775623322256</v>
       </c>
       <c r="B576" t="n">
-        <v>-0.05115442389204208</v>
+        <v>-0.03913612599950357</v>
       </c>
       <c r="C576" t="n">
         <v>0</v>
@@ -6777,10 +6777,10 @@
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>0.05676238513812243</v>
+        <v>0.05676296792822114</v>
       </c>
       <c r="B577" t="n">
-        <v>-0.06434780185800769</v>
+        <v>-0.06347809449384335</v>
       </c>
       <c r="C577" t="n">
         <v>1</v>
@@ -6788,10 +6788,10 @@
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>0.1039199450914634</v>
+        <v>0.1039228207935781</v>
       </c>
       <c r="B578" t="n">
-        <v>-0.04952076260610228</v>
+        <v>-0.0506164569866471</v>
       </c>
       <c r="C578" t="n">
         <v>1</v>
@@ -6799,10 +6799,10 @@
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>0.1891579985987853</v>
+        <v>0.1891574362678445</v>
       </c>
       <c r="B579" t="n">
-        <v>-0.06951741407450528</v>
+        <v>-0.06329860384214182</v>
       </c>
       <c r="C579" t="n">
         <v>1</v>
@@ -6810,10 +6810,10 @@
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>0.1299317772398963</v>
+        <v>0.1299323614162237</v>
       </c>
       <c r="B580" t="n">
-        <v>0.04489211485959888</v>
+        <v>0.04244474300590156</v>
       </c>
       <c r="C580" t="n">
         <v>0</v>
@@ -6821,10 +6821,10 @@
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>0.2424116465149564</v>
+        <v>0.2424107705760347</v>
       </c>
       <c r="B581" t="n">
-        <v>-0.03756826439854324</v>
+        <v>-0.04484757683269985</v>
       </c>
       <c r="C581" t="n">
         <v>1</v>
@@ -6832,10 +6832,10 @@
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>0.1419973218212562</v>
+        <v>0.1419930025033682</v>
       </c>
       <c r="B582" t="n">
-        <v>0.1004653890519267</v>
+        <v>0.09546644069166905</v>
       </c>
       <c r="C582" t="n">
         <v>0</v>
@@ -6843,10 +6843,10 @@
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>0.1890678607407389</v>
+        <v>0.1890713819914736</v>
       </c>
       <c r="B583" t="n">
-        <v>0.06752096510336017</v>
+        <v>0.06930642255671658</v>
       </c>
       <c r="C583" t="n">
         <v>0</v>
@@ -6854,10 +6854,10 @@
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>0.1595934078099855</v>
+        <v>0.1595901136289199</v>
       </c>
       <c r="B584" t="n">
-        <v>-0.0246026613192636</v>
+        <v>-0.02619816445739821</v>
       </c>
       <c r="C584" t="n">
         <v>0</v>
@@ -6865,10 +6865,10 @@
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>0.2529096316063876</v>
+        <v>0.2529269153687831</v>
       </c>
       <c r="B585" t="n">
-        <v>-0.1177881034144469</v>
+        <v>-0.1060396971623336</v>
       </c>
       <c r="C585" t="n">
         <v>1</v>
@@ -6876,10 +6876,10 @@
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>0.0287780321494556</v>
+        <v>0.02877770883743386</v>
       </c>
       <c r="B586" t="n">
-        <v>-0.0214816139917787</v>
+        <v>-0.01735246393840119</v>
       </c>
       <c r="C586" t="n">
         <v>0</v>
@@ -6887,10 +6887,10 @@
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>0.0700936640403565</v>
+        <v>0.07008905482223708</v>
       </c>
       <c r="B587" t="n">
-        <v>0.03129006401502038</v>
+        <v>0.02943172550899004</v>
       </c>
       <c r="C587" t="n">
         <v>0</v>
@@ -6898,10 +6898,10 @@
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>0.1283379822844744</v>
+        <v>0.1283312624760469</v>
       </c>
       <c r="B588" t="n">
-        <v>-0.1451381824392471</v>
+        <v>-0.1390488638150397</v>
       </c>
       <c r="C588" t="n">
         <v>1</v>
@@ -6909,10 +6909,10 @@
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>0.05470457587260773</v>
+        <v>0.05470871082592914</v>
       </c>
       <c r="B589" t="n">
-        <v>-0.01692452546294623</v>
+        <v>-0.01100940995551284</v>
       </c>
       <c r="C589" t="n">
         <v>1</v>
@@ -6920,10 +6920,10 @@
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>0.08926923853991756</v>
+        <v>0.08927233897994706</v>
       </c>
       <c r="B590" t="n">
-        <v>-0.01029194455464081</v>
+        <v>-0.008849624888367741</v>
       </c>
       <c r="C590" t="n">
         <v>0</v>
@@ -6931,10 +6931,10 @@
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>0.2261173962888711</v>
+        <v>0.2261103256616493</v>
       </c>
       <c r="B591" t="n">
-        <v>0.1497951934069396</v>
+        <v>0.1370354178609508</v>
       </c>
       <c r="C591" t="n">
         <v>0</v>
@@ -6942,10 +6942,10 @@
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>0.1915133008321243</v>
+        <v>0.1915191898049331</v>
       </c>
       <c r="B592" t="n">
-        <v>0.114663129480204</v>
+        <v>0.1156488691042547</v>
       </c>
       <c r="C592" t="n">
         <v>0</v>
@@ -6953,10 +6953,10 @@
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>0.2140466891850045</v>
+        <v>0.214037346520171</v>
       </c>
       <c r="B593" t="n">
-        <v>-0.03893149832618777</v>
+        <v>-0.03356425298538127</v>
       </c>
       <c r="C593" t="n">
         <v>1</v>
@@ -6964,10 +6964,10 @@
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>0.1068664050552808</v>
+        <v>0.1068680143880325</v>
       </c>
       <c r="B594" t="n">
-        <v>-0.02427215676176668</v>
+        <v>-0.02428802400726383</v>
       </c>
       <c r="C594" t="n">
         <v>1</v>
@@ -6975,10 +6975,10 @@
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>0.1361189152944138</v>
+        <v>0.136117064757711</v>
       </c>
       <c r="B595" t="n">
-        <v>0.1949966683348803</v>
+        <v>0.1990332466274087</v>
       </c>
       <c r="C595" t="n">
         <v>0</v>
@@ -6986,10 +6986,10 @@
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>0.08976616172448898</v>
+        <v>0.08976360869522</v>
       </c>
       <c r="B596" t="n">
-        <v>-0.05283940942409635</v>
+        <v>-0.05451795744991103</v>
       </c>
       <c r="C596" t="n">
         <v>1</v>
@@ -6997,10 +6997,10 @@
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>0.1786049714513939</v>
+        <v>0.1786017959851675</v>
       </c>
       <c r="B597" t="n">
-        <v>0.07986455896048539</v>
+        <v>0.06739146277374848</v>
       </c>
       <c r="C597" t="n">
         <v>0</v>
@@ -7008,10 +7008,10 @@
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>0.1654804403684012</v>
+        <v>0.1654888399460902</v>
       </c>
       <c r="B598" t="n">
-        <v>0.04269859866981718</v>
+        <v>0.03403063298597036</v>
       </c>
       <c r="C598" t="n">
         <v>0</v>
@@ -7019,10 +7019,10 @@
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>0.2014818295282681</v>
+        <v>0.2014729814141246</v>
       </c>
       <c r="B599" t="n">
-        <v>-0.1953775111171702</v>
+        <v>-0.1826297963756816</v>
       </c>
       <c r="C599" t="n">
         <v>1</v>
@@ -7030,10 +7030,10 @@
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>0.1429322097729127</v>
+        <v>0.1429307199261785</v>
       </c>
       <c r="B600" t="n">
-        <v>0.06370988054477314</v>
+        <v>0.08670555325396846</v>
       </c>
       <c r="C600" t="n">
         <v>1</v>
@@ -7041,10 +7041,10 @@
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>0.09187333554586112</v>
+        <v>0.09187438317995182</v>
       </c>
       <c r="B601" t="n">
-        <v>-0.01019283583051586</v>
+        <v>-0.02009512903740185</v>
       </c>
       <c r="C601" t="n">
         <v>1</v>
@@ -7052,10 +7052,10 @@
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>0.2023609445824084</v>
+        <v>0.2023587882328675</v>
       </c>
       <c r="B602" t="n">
-        <v>-0.04365412637467172</v>
+        <v>-0.04262401076406303</v>
       </c>
       <c r="C602" t="n">
         <v>1</v>
@@ -7063,10 +7063,10 @@
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>0.2478949284818515</v>
+        <v>0.2478911428115251</v>
       </c>
       <c r="B603" t="n">
-        <v>0.07462220148579302</v>
+        <v>0.07540422056038956</v>
       </c>
       <c r="C603" t="n">
         <v>0</v>
@@ -7085,10 +7085,10 @@
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>0.3356968178312242</v>
+        <v>0.3357043077838632</v>
       </c>
       <c r="B605" t="n">
-        <v>-0.09494796203833082</v>
+        <v>-0.08398309593701558</v>
       </c>
       <c r="C605" t="n">
         <v>1</v>
@@ -7096,10 +7096,10 @@
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>0.1511273941923693</v>
+        <v>0.1511173403076644</v>
       </c>
       <c r="B606" t="n">
-        <v>0.07682673493821443</v>
+        <v>0.07753022915158204</v>
       </c>
       <c r="C606" t="n">
         <v>1</v>
@@ -7107,10 +7107,10 @@
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>0.1266063183127359</v>
+        <v>0.1266019602155201</v>
       </c>
       <c r="B607" t="n">
-        <v>0.07052925679040151</v>
+        <v>0.06703523188776099</v>
       </c>
       <c r="C607" t="n">
         <v>0</v>
@@ -7118,10 +7118,10 @@
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>0.1049516840265238</v>
+        <v>0.1049514780668363</v>
       </c>
       <c r="B608" t="n">
-        <v>0.1422378213113552</v>
+        <v>0.1646758336615375</v>
       </c>
       <c r="C608" t="n">
         <v>0</v>
@@ -7129,10 +7129,10 @@
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>0.1183326599852112</v>
+        <v>0.1183366735496824</v>
       </c>
       <c r="B609" t="n">
-        <v>0.193555893547632</v>
+        <v>0.2051093526378954</v>
       </c>
       <c r="C609" t="n">
         <v>0</v>
@@ -7140,10 +7140,10 @@
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>0.1608928834727167</v>
+        <v>0.1608974217583716</v>
       </c>
       <c r="B610" t="n">
-        <v>0.06059763280310441</v>
+        <v>0.05346882473931969</v>
       </c>
       <c r="C610" t="n">
         <v>0</v>
@@ -7151,10 +7151,10 @@
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>0.116866245322088</v>
+        <v>0.1168678690581395</v>
       </c>
       <c r="B611" t="n">
-        <v>0.06055873117671062</v>
+        <v>0.06222148676646778</v>
       </c>
       <c r="C611" t="n">
         <v>1</v>
@@ -7162,10 +7162,10 @@
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>0.1940537185241671</v>
+        <v>0.1940500294347647</v>
       </c>
       <c r="B612" t="n">
-        <v>0.00839807433094818</v>
+        <v>0.009193221128930498</v>
       </c>
       <c r="C612" t="n">
         <v>0</v>
@@ -7173,10 +7173,10 @@
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>0.1513969438656435</v>
+        <v>0.1513944716654848</v>
       </c>
       <c r="B613" t="n">
-        <v>0.07536458255649922</v>
+        <v>0.09151745094858502</v>
       </c>
       <c r="C613" t="n">
         <v>1</v>
@@ -7184,10 +7184,10 @@
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>0.1073186025399669</v>
+        <v>0.1073193546570572</v>
       </c>
       <c r="B614" t="n">
-        <v>0.06071837230126698</v>
+        <v>0.04548790351278036</v>
       </c>
       <c r="C614" t="n">
         <v>1</v>
@@ -7195,10 +7195,10 @@
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>0.2053906414804933</v>
+        <v>0.2053906132501713</v>
       </c>
       <c r="B615" t="n">
-        <v>-0.08600005298909763</v>
+        <v>-0.08964965102769593</v>
       </c>
       <c r="C615" t="n">
         <v>1</v>
@@ -7206,10 +7206,10 @@
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>0.07763186425052593</v>
+        <v>0.0776305315733202</v>
       </c>
       <c r="B616" t="n">
-        <v>-0.03682542709837112</v>
+        <v>-0.02967661737259294</v>
       </c>
       <c r="C616" t="n">
         <v>1</v>
@@ -7217,10 +7217,10 @@
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>0.2807998563955779</v>
+        <v>0.2807951081853813</v>
       </c>
       <c r="B617" t="n">
-        <v>-0.1212974346846122</v>
+        <v>-0.1172136725196739</v>
       </c>
       <c r="C617" t="n">
         <v>1</v>
@@ -7228,10 +7228,10 @@
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>0.1846400742086627</v>
+        <v>0.184642277798524</v>
       </c>
       <c r="B618" t="n">
-        <v>-0.08490216406135405</v>
+        <v>-0.08170541145050846</v>
       </c>
       <c r="C618" t="n">
         <v>1</v>
@@ -7239,10 +7239,10 @@
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>0.2040950583413556</v>
+        <v>0.204106036965899</v>
       </c>
       <c r="B619" t="n">
-        <v>0.08322640975398565</v>
+        <v>0.08283612967787957</v>
       </c>
       <c r="C619" t="n">
         <v>0</v>
@@ -7250,10 +7250,10 @@
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>0.1646450326286403</v>
+        <v>0.1646468670256636</v>
       </c>
       <c r="B620" t="n">
-        <v>0.07484107370696361</v>
+        <v>0.05474584756529698</v>
       </c>
       <c r="C620" t="n">
         <v>0</v>
@@ -7261,10 +7261,10 @@
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>0.2585135659195454</v>
+        <v>0.2585153010799307</v>
       </c>
       <c r="B621" t="n">
-        <v>0.03030220308562056</v>
+        <v>0.02460744884583635</v>
       </c>
       <c r="C621" t="n">
         <v>0</v>
@@ -7272,10 +7272,10 @@
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>0.3277658396593555</v>
+        <v>0.327767891285734</v>
       </c>
       <c r="B622" t="n">
-        <v>-0.0545703023682205</v>
+        <v>-0.05878889924167521</v>
       </c>
       <c r="C622" t="n">
         <v>1</v>
@@ -7283,10 +7283,10 @@
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>0.2413523618653939</v>
+        <v>0.2413495756082764</v>
       </c>
       <c r="B623" t="n">
-        <v>0.1120198887787639</v>
+        <v>0.1225989492057029</v>
       </c>
       <c r="C623" t="n">
         <v>1</v>
@@ -7294,10 +7294,10 @@
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>0.140056157492672</v>
+        <v>0.1400542598068649</v>
       </c>
       <c r="B624" t="n">
-        <v>0.03502056672098611</v>
+        <v>0.03527079406313582</v>
       </c>
       <c r="C624" t="n">
         <v>0</v>
@@ -7305,10 +7305,10 @@
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>0.3224258901612726</v>
+        <v>0.3224212799878904</v>
       </c>
       <c r="B625" t="n">
-        <v>0.02094831468504926</v>
+        <v>0.01378112384963481</v>
       </c>
       <c r="C625" t="n">
         <v>0</v>
@@ -7316,10 +7316,10 @@
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>0.2035282227204485</v>
+        <v>0.2035361160927487</v>
       </c>
       <c r="B626" t="n">
-        <v>-0.1153112608544666</v>
+        <v>-0.1144532647208775</v>
       </c>
       <c r="C626" t="n">
         <v>1</v>
@@ -7327,10 +7327,10 @@
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>0.1349433230026269</v>
+        <v>0.1349424582531064</v>
       </c>
       <c r="B627" t="n">
-        <v>-0.02285142317349693</v>
+        <v>-0.0272673778250609</v>
       </c>
       <c r="C627" t="n">
         <v>1</v>
@@ -7338,10 +7338,10 @@
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>0.1275576953392321</v>
+        <v>0.1275492148467626</v>
       </c>
       <c r="B628" t="n">
-        <v>-0.08216721992321763</v>
+        <v>-0.07853162466431318</v>
       </c>
       <c r="C628" t="n">
         <v>1</v>
@@ -7349,10 +7349,10 @@
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>0.1485870716785508</v>
+        <v>0.1485903152427512</v>
       </c>
       <c r="B629" t="n">
-        <v>0.1360412886934869</v>
+        <v>0.1382418459916311</v>
       </c>
       <c r="C629" t="n">
         <v>1</v>
@@ -7360,10 +7360,10 @@
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>0.3088879742839171</v>
+        <v>0.3088893854981498</v>
       </c>
       <c r="B630" t="n">
-        <v>-0.1431859140838482</v>
+        <v>-0.1417477002739826</v>
       </c>
       <c r="C630" t="n">
         <v>1</v>
@@ -7371,10 +7371,10 @@
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>0.2521181593622439</v>
+        <v>0.2521247490261844</v>
       </c>
       <c r="B631" t="n">
-        <v>-0.08459332813467041</v>
+        <v>-0.08415973106855822</v>
       </c>
       <c r="C631" t="n">
         <v>1</v>
@@ -7382,10 +7382,10 @@
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>0.2852371490776923</v>
+        <v>0.2852353196894604</v>
       </c>
       <c r="B632" t="n">
-        <v>-0.1393259067388836</v>
+        <v>-0.1320431903179403</v>
       </c>
       <c r="C632" t="n">
         <v>1</v>
@@ -7393,10 +7393,10 @@
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>0.09215121093094947</v>
+        <v>0.09214576973611954</v>
       </c>
       <c r="B633" t="n">
-        <v>0.01761985579956975</v>
+        <v>0.0116684929721502</v>
       </c>
       <c r="C633" t="n">
         <v>1</v>
@@ -7404,10 +7404,10 @@
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>0.182049457958142</v>
+        <v>0.1820408556620569</v>
       </c>
       <c r="B634" t="n">
-        <v>-0.01018128006743776</v>
+        <v>-0.01073645847754209</v>
       </c>
       <c r="C634" t="n">
         <v>0</v>
@@ -7415,10 +7415,10 @@
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>0.1963425243151131</v>
+        <v>0.1963442648017572</v>
       </c>
       <c r="B635" t="n">
-        <v>0.01667715064686099</v>
+        <v>0.00242934896730625</v>
       </c>
       <c r="C635" t="n">
         <v>1</v>
@@ -7426,10 +7426,10 @@
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>0.2104641085705642</v>
+        <v>0.2104781209531192</v>
       </c>
       <c r="B636" t="n">
-        <v>-0.04590849834016343</v>
+        <v>-0.05058664515139241</v>
       </c>
       <c r="C636" t="n">
         <v>1</v>
@@ -7437,10 +7437,10 @@
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>0.1543116780061259</v>
+        <v>0.1543138275541081</v>
       </c>
       <c r="B637" t="n">
-        <v>0.02241506599632886</v>
+        <v>0.01906809210237083</v>
       </c>
       <c r="C637" t="n">
         <v>0</v>
@@ -7448,10 +7448,10 @@
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>0.1966234891184485</v>
+        <v>0.1966327870921455</v>
       </c>
       <c r="B638" t="n">
-        <v>0.008171014280187638</v>
+        <v>0.01299668652519129</v>
       </c>
       <c r="C638" t="n">
         <v>0</v>
@@ -7459,10 +7459,10 @@
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>0.1529812521994116</v>
+        <v>0.1529766284669115</v>
       </c>
       <c r="B639" t="n">
-        <v>0.03605213564896655</v>
+        <v>0.03606957549649031</v>
       </c>
       <c r="C639" t="n">
         <v>1</v>
@@ -7470,10 +7470,10 @@
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>0.2999455905903284</v>
+        <v>0.2999406141283852</v>
       </c>
       <c r="B640" t="n">
-        <v>-0.1328595580527264</v>
+        <v>-0.1297380729682393</v>
       </c>
       <c r="C640" t="n">
         <v>1</v>
@@ -7481,10 +7481,10 @@
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>0.2106541010295582</v>
+        <v>0.2106592707724381</v>
       </c>
       <c r="B641" t="n">
-        <v>-0.02296308208699816</v>
+        <v>-0.02331982494105764</v>
       </c>
       <c r="C641" t="n">
         <v>1</v>
@@ -7492,10 +7492,10 @@
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>0.04366007007966961</v>
+        <v>0.04366034310299673</v>
       </c>
       <c r="B642" t="n">
-        <v>0.005400292596285571</v>
+        <v>0.007612452236555619</v>
       </c>
       <c r="C642" t="n">
         <v>1</v>
@@ -7503,10 +7503,10 @@
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>0.1640819903070411</v>
+        <v>0.1640820569350827</v>
       </c>
       <c r="B643" t="n">
-        <v>-0.1000697999341442</v>
+        <v>-0.09990706504433688</v>
       </c>
       <c r="C643" t="n">
         <v>1</v>
@@ -7514,10 +7514,10 @@
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>0.09478649276904032</v>
+        <v>0.09478266247177985</v>
       </c>
       <c r="B644" t="n">
-        <v>-0.07717583834251684</v>
+        <v>-0.07018350939010004</v>
       </c>
       <c r="C644" t="n">
         <v>1</v>
@@ -7536,10 +7536,10 @@
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>0.1064436411931009</v>
+        <v>0.106449849322509</v>
       </c>
       <c r="B646" t="n">
-        <v>0.02812240026143633</v>
+        <v>0.02989082066779745</v>
       </c>
       <c r="C646" t="n">
         <v>0</v>
@@ -7558,10 +7558,10 @@
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>0.02298636906148706</v>
+        <v>0.02298487340537479</v>
       </c>
       <c r="B648" t="n">
-        <v>0.03624194746780531</v>
+        <v>0.03266965031457705</v>
       </c>
       <c r="C648" t="n">
         <v>0</v>
@@ -7569,10 +7569,10 @@
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>0.01412074479960324</v>
+        <v>0.01412085875176469</v>
       </c>
       <c r="B649" t="n">
-        <v>-0.01750351874078088</v>
+        <v>-0.01787499846761074</v>
       </c>
       <c r="C649" t="n">
         <v>1</v>
@@ -7580,10 +7580,10 @@
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>0.1586231970192117</v>
+        <v>0.15863249632806</v>
       </c>
       <c r="B650" t="n">
-        <v>0.01107053033734084</v>
+        <v>0.005273385192937967</v>
       </c>
       <c r="C650" t="n">
         <v>0</v>
@@ -7591,10 +7591,10 @@
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>0.03104596603064082</v>
+        <v>0.03104953380952431</v>
       </c>
       <c r="B651" t="n">
-        <v>-0.02863238588250957</v>
+        <v>-0.02605230349290943</v>
       </c>
       <c r="C651" t="n">
         <v>1</v>
@@ -7602,10 +7602,10 @@
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>0.03171365273805549</v>
+        <v>0.03171475118266502</v>
       </c>
       <c r="B652" t="n">
-        <v>0.1340871936525071</v>
+        <v>0.1211591880324171</v>
       </c>
       <c r="C652" t="n">
         <v>0</v>
@@ -7613,10 +7613,10 @@
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>0.1322292265170657</v>
+        <v>0.1322243102319013</v>
       </c>
       <c r="B653" t="n">
-        <v>0.07605851071726021</v>
+        <v>0.07698132566724689</v>
       </c>
       <c r="C653" t="n">
         <v>0</v>
@@ -7624,10 +7624,10 @@
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>0.1057211000760955</v>
+        <v>0.1057211139219319</v>
       </c>
       <c r="B654" t="n">
-        <v>-0.03963142268655055</v>
+        <v>-0.03207136897975446</v>
       </c>
       <c r="C654" t="n">
         <v>1</v>
@@ -7635,10 +7635,10 @@
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>0.286441293891408</v>
+        <v>0.2864326278622495</v>
       </c>
       <c r="B655" t="n">
-        <v>-0.04604176494254595</v>
+        <v>-0.04603544342409911</v>
       </c>
       <c r="C655" t="n">
         <v>1</v>
@@ -7646,10 +7646,10 @@
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>0.1049331924457833</v>
+        <v>0.1049329459753247</v>
       </c>
       <c r="B656" t="n">
-        <v>0.02006527952096464</v>
+        <v>0.02149635875851049</v>
       </c>
       <c r="C656" t="n">
         <v>0</v>
@@ -7657,10 +7657,10 @@
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>0.1248464075676452</v>
+        <v>0.1248288878873569</v>
       </c>
       <c r="B657" t="n">
-        <v>0.1182926861750973</v>
+        <v>0.1044741370654604</v>
       </c>
       <c r="C657" t="n">
         <v>0</v>
@@ -7668,10 +7668,10 @@
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>0.1480430188952878</v>
+        <v>0.1480415096850405</v>
       </c>
       <c r="B658" t="n">
-        <v>0.09832593596854233</v>
+        <v>0.09844727831137955</v>
       </c>
       <c r="C658" t="n">
         <v>1</v>
@@ -7679,10 +7679,10 @@
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>0.1937924330403723</v>
+        <v>0.1937886557340768</v>
       </c>
       <c r="B659" t="n">
-        <v>-0.08067431214268071</v>
+        <v>-0.09140084762500289</v>
       </c>
       <c r="C659" t="n">
         <v>1</v>
@@ -7690,10 +7690,10 @@
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>0.1149447895577686</v>
+        <v>0.1149481473188071</v>
       </c>
       <c r="B660" t="n">
-        <v>0.1170687011529218</v>
+        <v>0.1192965049314332</v>
       </c>
       <c r="C660" t="n">
         <v>0</v>
@@ -7701,10 +7701,10 @@
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>0.08732879419430298</v>
+        <v>0.08733131895867347</v>
       </c>
       <c r="B661" t="n">
-        <v>0.02222793268795326</v>
+        <v>0.02309516582490824</v>
       </c>
       <c r="C661" t="n">
         <v>1</v>
@@ -7712,10 +7712,10 @@
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>0.1312316786989863</v>
+        <v>0.1312349016545853</v>
       </c>
       <c r="B662" t="n">
-        <v>-0.04479071276709842</v>
+        <v>-0.04917625174341036</v>
       </c>
       <c r="C662" t="n">
         <v>1</v>
@@ -7723,10 +7723,10 @@
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>0.07389657272234229</v>
+        <v>0.07390301653687431</v>
       </c>
       <c r="B663" t="n">
-        <v>0.1588804035222634</v>
+        <v>0.1796141980902421</v>
       </c>
       <c r="C663" t="n">
         <v>1</v>
@@ -7734,10 +7734,10 @@
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>0.2730763402947259</v>
+        <v>0.2730741437897323</v>
       </c>
       <c r="B664" t="n">
-        <v>0.09310180007738231</v>
+        <v>0.1004545538864251</v>
       </c>
       <c r="C664" t="n">
         <v>1</v>
@@ -7745,10 +7745,10 @@
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>0.07510184671475456</v>
+        <v>0.07509477346904218</v>
       </c>
       <c r="B665" t="n">
-        <v>-0.002399426787998239</v>
+        <v>-0.000728311325746737</v>
       </c>
       <c r="C665" t="n">
         <v>0</v>
@@ -7756,10 +7756,10 @@
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>0.1313596954084115</v>
+        <v>0.1313453217159673</v>
       </c>
       <c r="B666" t="n">
-        <v>0.1464529159411226</v>
+        <v>0.1492621433294618</v>
       </c>
       <c r="C666" t="n">
         <v>0</v>
@@ -7767,10 +7767,10 @@
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>0.1618866739157443</v>
+        <v>0.1618983460219454</v>
       </c>
       <c r="B667" t="n">
-        <v>0.03839325550958732</v>
+        <v>0.04666096090686278</v>
       </c>
       <c r="C667" t="n">
         <v>1</v>
@@ -7778,10 +7778,10 @@
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>0.1184001352047615</v>
+        <v>0.1183963105560843</v>
       </c>
       <c r="B668" t="n">
-        <v>-0.03398493759447309</v>
+        <v>-0.02702758382330461</v>
       </c>
       <c r="C668" t="n">
         <v>0</v>
@@ -7789,10 +7789,10 @@
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>0.1023731678003499</v>
+        <v>0.1023792229934176</v>
       </c>
       <c r="B669" t="n">
-        <v>0.006974473642044484</v>
+        <v>0.002830661550291242</v>
       </c>
       <c r="C669" t="n">
         <v>1</v>
@@ -7800,10 +7800,10 @@
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>0.3623850074449036</v>
+        <v>0.3623912491745201</v>
       </c>
       <c r="B670" t="n">
-        <v>0.1045102779920098</v>
+        <v>0.09280866578489824</v>
       </c>
       <c r="C670" t="n">
         <v>0</v>
@@ -7811,10 +7811,10 @@
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>0.1535125786281197</v>
+        <v>0.1535034825947398</v>
       </c>
       <c r="B671" t="n">
-        <v>0.2213460743201937</v>
+        <v>0.2147111229398636</v>
       </c>
       <c r="C671" t="n">
         <v>0</v>
@@ -7822,10 +7822,10 @@
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>0.1216045831969291</v>
+        <v>0.1216061393218031</v>
       </c>
       <c r="B672" t="n">
-        <v>0.1833839639409329</v>
+        <v>0.2023160215206448</v>
       </c>
       <c r="C672" t="n">
         <v>0</v>
@@ -7833,10 +7833,10 @@
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>0.2058157379225652</v>
+        <v>0.205814397237366</v>
       </c>
       <c r="B673" t="n">
-        <v>-0.07268145236662783</v>
+        <v>-0.06367664034730515</v>
       </c>
       <c r="C673" t="n">
         <v>0</v>
@@ -7844,10 +7844,10 @@
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>0.1163674140802354</v>
+        <v>0.1163708307142114</v>
       </c>
       <c r="B674" t="n">
-        <v>0.04787209795436166</v>
+        <v>0.0454307509410009</v>
       </c>
       <c r="C674" t="n">
         <v>0</v>
@@ -7855,10 +7855,10 @@
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>0.2254643358555573</v>
+        <v>0.2254693387311166</v>
       </c>
       <c r="B675" t="n">
-        <v>0.04894350389410733</v>
+        <v>0.05909679003339581</v>
       </c>
       <c r="C675" t="n">
         <v>0</v>
@@ -7866,10 +7866,10 @@
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>0.09813096254619162</v>
+        <v>0.09811666322780989</v>
       </c>
       <c r="B676" t="n">
-        <v>0.04167998838295091</v>
+        <v>0.02485013409544567</v>
       </c>
       <c r="C676" t="n">
         <v>1</v>
@@ -7877,10 +7877,10 @@
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>0.1636849825507053</v>
+        <v>0.1636929831925107</v>
       </c>
       <c r="B677" t="n">
-        <v>-0.06410899211652099</v>
+        <v>-0.06759146049904789</v>
       </c>
       <c r="C677" t="n">
         <v>1</v>
@@ -7888,10 +7888,10 @@
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>0.2785991102120197</v>
+        <v>0.2786004315067451</v>
       </c>
       <c r="B678" t="n">
-        <v>0.03880198632753674</v>
+        <v>0.02732657012261156</v>
       </c>
       <c r="C678" t="n">
         <v>0</v>
@@ -7899,10 +7899,10 @@
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>0.1257886562054499</v>
+        <v>0.1257966212538732</v>
       </c>
       <c r="B679" t="n">
-        <v>-0.0770217481770908</v>
+        <v>-0.07180880381733364</v>
       </c>
       <c r="C679" t="n">
         <v>1</v>
@@ -7910,10 +7910,10 @@
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>0.3026036559008511</v>
+        <v>0.3025920145950353</v>
       </c>
       <c r="B680" t="n">
-        <v>-0.2809927752952808</v>
+        <v>-0.2690002166730106</v>
       </c>
       <c r="C680" t="n">
         <v>1</v>
@@ -7921,10 +7921,10 @@
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>0.2476073655829486</v>
+        <v>0.2476119498844297</v>
       </c>
       <c r="B681" t="n">
-        <v>0.2894129375126757</v>
+        <v>0.2965462573943392</v>
       </c>
       <c r="C681" t="n">
         <v>0</v>
@@ -7932,10 +7932,10 @@
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>0.2044668928249619</v>
+        <v>0.2044655740008722</v>
       </c>
       <c r="B682" t="n">
-        <v>-0.03000897998906765</v>
+        <v>-0.03680477819724658</v>
       </c>
       <c r="C682" t="n">
         <v>1</v>
@@ -7943,10 +7943,10 @@
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>0.1310322631384014</v>
+        <v>0.1310329110064286</v>
       </c>
       <c r="B683" t="n">
-        <v>-0.04046042967685969</v>
+        <v>-0.05179311431935313</v>
       </c>
       <c r="C683" t="n">
         <v>1</v>
@@ -7954,10 +7954,10 @@
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>0.1414818268635068</v>
+        <v>0.1414763125025133</v>
       </c>
       <c r="B684" t="n">
-        <v>-0.06519735608599157</v>
+        <v>-0.0585990256638888</v>
       </c>
       <c r="C684" t="n">
         <v>0</v>
@@ -7965,10 +7965,10 @@
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>0.1466509364498806</v>
+        <v>0.146655818416135</v>
       </c>
       <c r="B685" t="n">
-        <v>0.02665568977339688</v>
+        <v>0.02438552626752195</v>
       </c>
       <c r="C685" t="n">
         <v>0</v>
@@ -7976,10 +7976,10 @@
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>0.3336865794825262</v>
+        <v>0.3336943985389934</v>
       </c>
       <c r="B686" t="n">
-        <v>0.05497732791899448</v>
+        <v>0.04155994833086521</v>
       </c>
       <c r="C686" t="n">
         <v>0</v>
@@ -7987,10 +7987,10 @@
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>0.2650773919474575</v>
+        <v>0.2650722776733311</v>
       </c>
       <c r="B687" t="n">
-        <v>0.0004333175864333538</v>
+        <v>0.0002998254941852342</v>
       </c>
       <c r="C687" t="n">
         <v>1</v>
@@ -7998,10 +7998,10 @@
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>0.1041242725800682</v>
+        <v>0.1041243527803536</v>
       </c>
       <c r="B688" t="n">
-        <v>0.1459258620767209</v>
+        <v>0.1439464283418088</v>
       </c>
       <c r="C688" t="n">
         <v>1</v>
@@ -8009,10 +8009,10 @@
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>0.1586644214095877</v>
+        <v>0.1586683910559244</v>
       </c>
       <c r="B689" t="n">
-        <v>-0.07801220665290455</v>
+        <v>-0.07433344232401565</v>
       </c>
       <c r="C689" t="n">
         <v>1</v>
@@ -8020,10 +8020,10 @@
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>0.2680733419185228</v>
+        <v>0.268076100027212</v>
       </c>
       <c r="B690" t="n">
-        <v>0.05952268424550188</v>
+        <v>0.05121633775361406</v>
       </c>
       <c r="C690" t="n">
         <v>0</v>
@@ -8031,10 +8031,10 @@
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>0.1818083061115382</v>
+        <v>0.1818091802435747</v>
       </c>
       <c r="B691" t="n">
-        <v>-0.1737321588689465</v>
+        <v>-0.1642288817393469</v>
       </c>
       <c r="C691" t="n">
         <v>1</v>
@@ -8042,10 +8042,10 @@
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>0.1406107377894309</v>
+        <v>0.1406191634574849</v>
       </c>
       <c r="B692" t="n">
-        <v>0.06375548094889281</v>
+        <v>0.0714253586090923</v>
       </c>
       <c r="C692" t="n">
         <v>0</v>
@@ -8053,10 +8053,10 @@
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>0.1922730326829804</v>
+        <v>0.1922632836013789</v>
       </c>
       <c r="B693" t="n">
-        <v>-0.1618935991817195</v>
+        <v>-0.1502747150028432</v>
       </c>
       <c r="C693" t="n">
         <v>1</v>
@@ -8064,10 +8064,10 @@
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>0.2385874067577924</v>
+        <v>0.2385873996046539</v>
       </c>
       <c r="B694" t="n">
-        <v>-0.01744216116599999</v>
+        <v>-0.020677669168367</v>
       </c>
       <c r="C694" t="n">
         <v>1</v>
@@ -8075,10 +8075,10 @@
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>0.1271640557890338</v>
+        <v>0.1271734485341423</v>
       </c>
       <c r="B695" t="n">
-        <v>0.009443181746415161</v>
+        <v>0.01096600713610282</v>
       </c>
       <c r="C695" t="n">
         <v>0</v>
@@ -8086,10 +8086,10 @@
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>0.08351874573562733</v>
+        <v>0.08350994822988558</v>
       </c>
       <c r="B696" t="n">
-        <v>-0.05041986681467675</v>
+        <v>-0.05242522649090209</v>
       </c>
       <c r="C696" t="n">
         <v>1</v>
@@ -8097,10 +8097,10 @@
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>0.05158937253705706</v>
+        <v>0.05159573799754075</v>
       </c>
       <c r="B697" t="n">
-        <v>0.04905555356532264</v>
+        <v>0.04451518709575202</v>
       </c>
       <c r="C697" t="n">
         <v>0</v>
@@ -8108,10 +8108,10 @@
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>0.1648253184249591</v>
+        <v>0.1648264734778537</v>
       </c>
       <c r="B698" t="n">
-        <v>-0.05416303538625553</v>
+        <v>-0.05155912198087132</v>
       </c>
       <c r="C698" t="n">
         <v>1</v>
@@ -8119,10 +8119,10 @@
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>0.2147781084180106</v>
+        <v>0.2147702189370855</v>
       </c>
       <c r="B699" t="n">
-        <v>-0.01586396477201069</v>
+        <v>-0.008105392533699567</v>
       </c>
       <c r="C699" t="n">
         <v>1</v>
@@ -8130,10 +8130,10 @@
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>0.08754942130622012</v>
+        <v>0.08754944736873423</v>
       </c>
       <c r="B700" t="n">
-        <v>-0.0179807125468304</v>
+        <v>-0.01989196402611079</v>
       </c>
       <c r="C700" t="n">
         <v>0</v>
@@ -8141,10 +8141,10 @@
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>0.2099193043288897</v>
+        <v>0.2099299423722047</v>
       </c>
       <c r="B701" t="n">
-        <v>-0.0002571736544766828</v>
+        <v>0.01913261250583893</v>
       </c>
       <c r="C701" t="n">
         <v>0</v>
@@ -8152,10 +8152,10 @@
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>0.2026554885156126</v>
+        <v>0.2026568991497395</v>
       </c>
       <c r="B702" t="n">
-        <v>-0.009826105949247889</v>
+        <v>-0.02030161028421281</v>
       </c>
       <c r="C702" t="n">
         <v>1</v>
@@ -8163,10 +8163,10 @@
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>0.1310322631384014</v>
+        <v>0.1310329110064286</v>
       </c>
       <c r="B703" t="n">
-        <v>-0.04046042967685969</v>
+        <v>-0.05179311431935313</v>
       </c>
       <c r="C703" t="n">
         <v>1</v>
@@ -8174,10 +8174,10 @@
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>0.1572545917452055</v>
+        <v>0.1572533017473757</v>
       </c>
       <c r="B704" t="n">
-        <v>0.06656355393464958</v>
+        <v>0.06925534522804513</v>
       </c>
       <c r="C704" t="n">
         <v>0</v>
@@ -8185,10 +8185,10 @@
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>0.1912134287974475</v>
+        <v>0.1911962637077174</v>
       </c>
       <c r="B705" t="n">
-        <v>0.1536536548353947</v>
+        <v>0.1464657605443504</v>
       </c>
       <c r="C705" t="n">
         <v>0</v>
@@ -8196,10 +8196,10 @@
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>0.1380935488071745</v>
+        <v>0.1380893848183193</v>
       </c>
       <c r="B706" t="n">
-        <v>0.09726859545808289</v>
+        <v>0.09160955327153511</v>
       </c>
       <c r="C706" t="n">
         <v>0</v>
@@ -8207,10 +8207,10 @@
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>0.3585639762216728</v>
+        <v>0.358560640398001</v>
       </c>
       <c r="B707" t="n">
-        <v>0.04582533109428453</v>
+        <v>0.03257922532698895</v>
       </c>
       <c r="C707" t="n">
         <v>0</v>
@@ -8218,10 +8218,10 @@
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>0.1520533314734116</v>
+        <v>0.15205502945599</v>
       </c>
       <c r="B708" t="n">
-        <v>0.007552117489964771</v>
+        <v>0.01156643846144638</v>
       </c>
       <c r="C708" t="n">
         <v>0</v>
@@ -8229,10 +8229,10 @@
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>0.1128029393701243</v>
+        <v>0.1128060432557548</v>
       </c>
       <c r="B709" t="n">
-        <v>0.02008736536989548</v>
+        <v>0.01664904745779379</v>
       </c>
       <c r="C709" t="n">
         <v>1</v>
@@ -8240,10 +8240,10 @@
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>0.170580172780438</v>
+        <v>0.1705663986314505</v>
       </c>
       <c r="B710" t="n">
-        <v>0.1470786526877841</v>
+        <v>0.1326974591870202</v>
       </c>
       <c r="C710" t="n">
         <v>0</v>
@@ -8251,10 +8251,10 @@
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>0.3448786254602584</v>
+        <v>0.3448847049350833</v>
       </c>
       <c r="B711" t="n">
-        <v>-0.1803564269656991</v>
+        <v>-0.1768888500110776</v>
       </c>
       <c r="C711" t="n">
         <v>1</v>
@@ -8273,10 +8273,10 @@
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>0.2288128880919146</v>
+        <v>0.2288034560426454</v>
       </c>
       <c r="B713" t="n">
-        <v>-0.3143530971217458</v>
+        <v>-0.2963859421933383</v>
       </c>
       <c r="C713" t="n">
         <v>1</v>
@@ -8284,10 +8284,10 @@
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>0.1884059047910093</v>
+        <v>0.1884078513521137</v>
       </c>
       <c r="B714" t="n">
-        <v>-0.0608434361263186</v>
+        <v>-0.05468502873546674</v>
       </c>
       <c r="C714" t="n">
         <v>1</v>
@@ -8295,10 +8295,10 @@
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>0.2832972948005146</v>
+        <v>0.2833088908544365</v>
       </c>
       <c r="B715" t="n">
-        <v>-0.06817814822061134</v>
+        <v>-0.0680028589959488</v>
       </c>
       <c r="C715" t="n">
         <v>1</v>
@@ -8306,10 +8306,10 @@
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>0.1441442787047645</v>
+        <v>0.1441333271025836</v>
       </c>
       <c r="B716" t="n">
-        <v>0.08487703197747051</v>
+        <v>0.08296934472903798</v>
       </c>
       <c r="C716" t="n">
         <v>0</v>
@@ -8317,10 +8317,10 @@
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>0.17946714344344</v>
+        <v>0.1794639667832537</v>
       </c>
       <c r="B717" t="n">
-        <v>-0.01171851801116614</v>
+        <v>-0.01263580485334151</v>
       </c>
       <c r="C717" t="n">
         <v>0</v>
@@ -8328,10 +8328,10 @@
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>0.1610587126720453</v>
+        <v>0.161055018770184</v>
       </c>
       <c r="B718" t="n">
-        <v>-0.1101941097709767</v>
+        <v>-0.1036662996108734</v>
       </c>
       <c r="C718" t="n">
         <v>1</v>
@@ -8339,10 +8339,10 @@
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>0.2287925160566099</v>
+        <v>0.2287866010965661</v>
       </c>
       <c r="B719" t="n">
-        <v>-0.1717251032728946</v>
+        <v>-0.1636820842626234</v>
       </c>
       <c r="C719" t="n">
         <v>1</v>
@@ -8350,10 +8350,10 @@
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>0.1378220942027457</v>
+        <v>0.1378311104822721</v>
       </c>
       <c r="B720" t="n">
-        <v>-0.02879606698483314</v>
+        <v>-0.03009266052870896</v>
       </c>
       <c r="C720" t="n">
         <v>0</v>
@@ -8361,10 +8361,10 @@
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>0.261011243528001</v>
+        <v>0.2610155236038379</v>
       </c>
       <c r="B721" t="n">
-        <v>-0.05927394538337215</v>
+        <v>-0.06747531840868676</v>
       </c>
       <c r="C721" t="n">
         <v>1</v>
@@ -8383,10 +8383,10 @@
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>0.2153823127291338</v>
+        <v>0.2153806866973583</v>
       </c>
       <c r="B723" t="n">
-        <v>-0.03843192933400795</v>
+        <v>-0.02559338732883801</v>
       </c>
       <c r="C723" t="n">
         <v>1</v>
@@ -8394,10 +8394,10 @@
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>0.2197663026995426</v>
+        <v>0.2197544431971299</v>
       </c>
       <c r="B724" t="n">
-        <v>0.1361799212346498</v>
+        <v>0.1180255450458487</v>
       </c>
       <c r="C724" t="n">
         <v>0</v>
@@ -8405,10 +8405,10 @@
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>0.1444404832631695</v>
+        <v>0.1444369715554037</v>
       </c>
       <c r="B725" t="n">
-        <v>0.04719734204681916</v>
+        <v>0.04842406431978234</v>
       </c>
       <c r="C725" t="n">
         <v>1</v>
@@ -8416,10 +8416,10 @@
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>0.1966210911053312</v>
+        <v>0.196629052138191</v>
       </c>
       <c r="B726" t="n">
-        <v>-0.02491186789812967</v>
+        <v>-0.02698656109462521</v>
       </c>
       <c r="C726" t="n">
         <v>1</v>
@@ -8427,10 +8427,10 @@
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>0.1222732867257604</v>
+        <v>0.1222704164095392</v>
       </c>
       <c r="B727" t="n">
-        <v>0.08688992782770529</v>
+        <v>0.0940237811485877</v>
       </c>
       <c r="C727" t="n">
         <v>0</v>
@@ -8438,10 +8438,10 @@
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>0.1388127225217984</v>
+        <v>0.1387976775165704</v>
       </c>
       <c r="B728" t="n">
-        <v>-0.01030763769864141</v>
+        <v>-0.01228399341868031</v>
       </c>
       <c r="C728" t="n">
         <v>0</v>
@@ -8460,10 +8460,10 @@
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>0.1946604201549595</v>
+        <v>0.1946532212256619</v>
       </c>
       <c r="B730" t="n">
-        <v>-0.06396886302538847</v>
+        <v>-0.06424496460936334</v>
       </c>
       <c r="C730" t="n">
         <v>1</v>
@@ -8471,10 +8471,10 @@
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>0.08546761723390366</v>
+        <v>0.08547022892445225</v>
       </c>
       <c r="B731" t="n">
-        <v>0.05574420479961746</v>
+        <v>0.05799712492790896</v>
       </c>
       <c r="C731" t="n">
         <v>0</v>
@@ -8482,10 +8482,10 @@
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>0.1046002131114083</v>
+        <v>0.1046070867682255</v>
       </c>
       <c r="B732" t="n">
-        <v>-0.03771997555911695</v>
+        <v>-0.01915938101299107</v>
       </c>
       <c r="C732" t="n">
         <v>1</v>
@@ -8493,10 +8493,10 @@
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>0.097791739739528</v>
+        <v>0.09778765154265995</v>
       </c>
       <c r="B733" t="n">
-        <v>-0.03107017820272585</v>
+        <v>-0.03835393553495952</v>
       </c>
       <c r="C733" t="n">
         <v>1</v>
@@ -8504,10 +8504,10 @@
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>0.2228786749928995</v>
+        <v>0.2228786042145288</v>
       </c>
       <c r="B734" t="n">
-        <v>-0.04318727757053032</v>
+        <v>-0.03935159157600501</v>
       </c>
       <c r="C734" t="n">
         <v>1</v>
@@ -8515,10 +8515,10 @@
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>0.1889030017256969</v>
+        <v>0.1888940349966035</v>
       </c>
       <c r="B735" t="n">
-        <v>0.05131868326471716</v>
+        <v>0.04275493699730915</v>
       </c>
       <c r="C735" t="n">
         <v>0</v>
@@ -8526,10 +8526,10 @@
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>0.3173410601701157</v>
+        <v>0.3173355326980914</v>
       </c>
       <c r="B736" t="n">
-        <v>-0.1745964798747891</v>
+        <v>-0.1658178813701877</v>
       </c>
       <c r="C736" t="n">
         <v>1</v>
@@ -8537,10 +8537,10 @@
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>0.2152002895798369</v>
+        <v>0.2152023185581314</v>
       </c>
       <c r="B737" t="n">
-        <v>0.03253466328982677</v>
+        <v>0.03367456094319583</v>
       </c>
       <c r="C737" t="n">
         <v>1</v>
@@ -8548,10 +8548,10 @@
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>0.09527274810952484</v>
+        <v>0.09527796132340915</v>
       </c>
       <c r="B738" t="n">
-        <v>0.004397066588768876</v>
+        <v>0.009867285135932385</v>
       </c>
       <c r="C738" t="n">
         <v>1</v>
@@ -8570,10 +8570,10 @@
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>0.1847329097079067</v>
+        <v>0.1847289975473935</v>
       </c>
       <c r="B740" t="n">
-        <v>-0.05773727915122326</v>
+        <v>-0.05415314379968882</v>
       </c>
       <c r="C740" t="n">
         <v>1</v>
@@ -8581,10 +8581,10 @@
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>0.0918423127101243</v>
+        <v>0.09185421336951873</v>
       </c>
       <c r="B741" t="n">
-        <v>0.01579302579264313</v>
+        <v>0.01449839696629439</v>
       </c>
       <c r="C741" t="n">
         <v>0</v>
@@ -8592,10 +8592,10 @@
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>0.08256785094889096</v>
+        <v>0.08258648831563074</v>
       </c>
       <c r="B742" t="n">
-        <v>0.2089417054904616</v>
+        <v>0.2334222419111147</v>
       </c>
       <c r="C742" t="n">
         <v>0</v>
@@ -8603,10 +8603,10 @@
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>0.1047735079054023</v>
+        <v>0.1047671927132138</v>
       </c>
       <c r="B743" t="n">
-        <v>0.01529509153910763</v>
+        <v>0.02109555307861001</v>
       </c>
       <c r="C743" t="n">
         <v>1</v>
@@ -8625,10 +8625,10 @@
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>0.1502346462681238</v>
+        <v>0.1502418701825959</v>
       </c>
       <c r="B745" t="n">
-        <v>0.1037809829454709</v>
+        <v>0.1207730003110594</v>
       </c>
       <c r="C745" t="n">
         <v>0</v>
@@ -8636,10 +8636,10 @@
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>0.1609944102771543</v>
+        <v>0.1609989614283334</v>
       </c>
       <c r="B746" t="n">
-        <v>0.05103382017078214</v>
+        <v>0.05342189755862336</v>
       </c>
       <c r="C746" t="n">
         <v>0</v>
@@ -8647,10 +8647,10 @@
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>0.1917113146052127</v>
+        <v>0.1917157516949236</v>
       </c>
       <c r="B747" t="n">
-        <v>-0.153435032800052</v>
+        <v>-0.1489812660545066</v>
       </c>
       <c r="C747" t="n">
         <v>1</v>
@@ -8658,10 +8658,10 @@
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>0.1013058130495437</v>
+        <v>0.1013209078364037</v>
       </c>
       <c r="B748" t="n">
-        <v>0.1651047963749104</v>
+        <v>0.1818958315785174</v>
       </c>
       <c r="C748" t="n">
         <v>0</v>
@@ -8669,10 +8669,10 @@
     </row>
     <row r="749">
       <c r="A749" t="n">
-        <v>0.1237235342731125</v>
+        <v>0.1237168240563151</v>
       </c>
       <c r="B749" t="n">
-        <v>0.1248593587561365</v>
+        <v>0.1290827772850993</v>
       </c>
       <c r="C749" t="n">
         <v>0</v>
@@ -8680,10 +8680,10 @@
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>0.1815254540478082</v>
+        <v>0.1815250405667015</v>
       </c>
       <c r="B750" t="n">
-        <v>0.01234759151629317</v>
+        <v>0.02280333229585416</v>
       </c>
       <c r="C750" t="n">
         <v>0</v>
@@ -8691,10 +8691,10 @@
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>0.1896845779745872</v>
+        <v>0.1896901665815155</v>
       </c>
       <c r="B751" t="n">
-        <v>-0.03459248170715575</v>
+        <v>-0.04184760957152941</v>
       </c>
       <c r="C751" t="n">
         <v>1</v>
@@ -8702,10 +8702,10 @@
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>0.04353167253808173</v>
+        <v>0.04353333422271766</v>
       </c>
       <c r="B752" t="n">
-        <v>0.03880847474362455</v>
+        <v>0.04447604657589187</v>
       </c>
       <c r="C752" t="n">
         <v>0</v>
@@ -8713,10 +8713,10 @@
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>0.1646397505183101</v>
+        <v>0.1646388697176406</v>
       </c>
       <c r="B753" t="n">
-        <v>0.07552691912880476</v>
+        <v>0.08002119565613718</v>
       </c>
       <c r="C753" t="n">
         <v>0</v>
@@ -8724,10 +8724,10 @@
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>0.1461827192383535</v>
+        <v>0.14618336341566</v>
       </c>
       <c r="B754" t="n">
-        <v>-0.05016529635740277</v>
+        <v>-0.06271777083856631</v>
       </c>
       <c r="C754" t="n">
         <v>1</v>
@@ -8735,10 +8735,10 @@
     </row>
     <row r="755">
       <c r="A755" t="n">
-        <v>0.212350657072851</v>
+        <v>0.2123558821010149</v>
       </c>
       <c r="B755" t="n">
-        <v>-0.06778053021245328</v>
+        <v>-0.06221270716433835</v>
       </c>
       <c r="C755" t="n">
         <v>1</v>
@@ -8746,10 +8746,10 @@
     </row>
     <row r="756">
       <c r="A756" t="n">
-        <v>0.2100030052146198</v>
+        <v>0.2099931363580086</v>
       </c>
       <c r="B756" t="n">
-        <v>-0.06978673126583834</v>
+        <v>-0.06206776612973865</v>
       </c>
       <c r="C756" t="n">
         <v>1</v>
@@ -8757,10 +8757,10 @@
     </row>
     <row r="757">
       <c r="A757" t="n">
-        <v>0.09497881204299606</v>
+        <v>0.09497629886908177</v>
       </c>
       <c r="B757" t="n">
-        <v>-0.01374988405808452</v>
+        <v>-0.01596503103474201</v>
       </c>
       <c r="C757" t="n">
         <v>0</v>
@@ -8768,10 +8768,10 @@
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>0.05617781810679952</v>
+        <v>0.05617961686814451</v>
       </c>
       <c r="B758" t="n">
-        <v>-0.01853845764518211</v>
+        <v>-0.01132597634959743</v>
       </c>
       <c r="C758" t="n">
         <v>0</v>
@@ -8779,10 +8779,10 @@
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>0.1300027429585091</v>
+        <v>0.1299952146866417</v>
       </c>
       <c r="B759" t="n">
-        <v>-0.0625391696160347</v>
+        <v>-0.06168121464297607</v>
       </c>
       <c r="C759" t="n">
         <v>1</v>
@@ -8790,10 +8790,10 @@
     </row>
     <row r="760">
       <c r="A760" t="n">
-        <v>0.2594230525962845</v>
+        <v>0.2594189024831141</v>
       </c>
       <c r="B760" t="n">
-        <v>-0.1168049834066597</v>
+        <v>-0.1303679646379233</v>
       </c>
       <c r="C760" t="n">
         <v>1</v>
@@ -8801,10 +8801,10 @@
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>0.1400380700373226</v>
+        <v>0.1400302318969472</v>
       </c>
       <c r="B761" t="n">
-        <v>-0.05272751752424863</v>
+        <v>-0.05228977047291156</v>
       </c>
       <c r="C761" t="n">
         <v>1</v>
@@ -8812,10 +8812,10 @@
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>0.136130303804238</v>
+        <v>0.1361346535076683</v>
       </c>
       <c r="B762" t="n">
-        <v>-0.041868359685099</v>
+        <v>-0.05042260924096938</v>
       </c>
       <c r="C762" t="n">
         <v>1</v>
@@ -8823,10 +8823,10 @@
     </row>
     <row r="763">
       <c r="A763" t="n">
-        <v>0.03744726146954581</v>
+        <v>0.03744476449552612</v>
       </c>
       <c r="B763" t="n">
-        <v>-0.02115008073351819</v>
+        <v>-0.02111600799145043</v>
       </c>
       <c r="C763" t="n">
         <v>1</v>
@@ -8834,10 +8834,10 @@
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>0.085271738993937</v>
+        <v>0.08527781879607983</v>
       </c>
       <c r="B764" t="n">
-        <v>0.002237650242092678</v>
+        <v>0.0069430337662556</v>
       </c>
       <c r="C764" t="n">
         <v>1</v>
@@ -8845,10 +8845,10 @@
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>0.1531063829124223</v>
+        <v>0.1531018217968049</v>
       </c>
       <c r="B765" t="n">
-        <v>-0.08402505456871459</v>
+        <v>-0.08577847575949228</v>
       </c>
       <c r="C765" t="n">
         <v>1</v>
@@ -8856,10 +8856,10 @@
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>0.1614064718388626</v>
+        <v>0.1613969195853652</v>
       </c>
       <c r="B766" t="n">
-        <v>-0.009274967322690847</v>
+        <v>-0.01121122849752864</v>
       </c>
       <c r="C766" t="n">
         <v>1</v>
@@ -8867,10 +8867,10 @@
     </row>
     <row r="767">
       <c r="A767" t="n">
-        <v>0.04920262260847513</v>
+        <v>0.0492020888418165</v>
       </c>
       <c r="B767" t="n">
-        <v>-0.00335840014049298</v>
+        <v>0.0002942217014492377</v>
       </c>
       <c r="C767" t="n">
         <v>0</v>
@@ -8878,10 +8878,10 @@
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>0.2026953388627514</v>
+        <v>0.2026921030058717</v>
       </c>
       <c r="B768" t="n">
-        <v>-0.03231734654289671</v>
+        <v>-0.0272671865173074</v>
       </c>
       <c r="C768" t="n">
         <v>0</v>
@@ -8889,10 +8889,10 @@
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>0.1314265020582496</v>
+        <v>0.1314319841010645</v>
       </c>
       <c r="B769" t="n">
-        <v>0.02815909966673399</v>
+        <v>0.04321124370204649</v>
       </c>
       <c r="C769" t="n">
         <v>0</v>
@@ -8900,10 +8900,10 @@
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>0.1736362743996852</v>
+        <v>0.1736396654840845</v>
       </c>
       <c r="B770" t="n">
-        <v>0.07989002138557026</v>
+        <v>0.08738919880834781</v>
       </c>
       <c r="C770" t="n">
         <v>0</v>
@@ -8911,10 +8911,10 @@
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>0.239315494254998</v>
+        <v>0.2393114449589199</v>
       </c>
       <c r="B771" t="n">
-        <v>-0.08654898260242284</v>
+        <v>-0.1003364153214913</v>
       </c>
       <c r="C771" t="n">
         <v>1</v>
@@ -8922,10 +8922,10 @@
     </row>
     <row r="772">
       <c r="A772" t="n">
-        <v>0.1122321488572036</v>
+        <v>0.1122400655661797</v>
       </c>
       <c r="B772" t="n">
-        <v>0.01838008952676823</v>
+        <v>0.01397197083795833</v>
       </c>
       <c r="C772" t="n">
         <v>1</v>
@@ -8933,10 +8933,10 @@
     </row>
     <row r="773">
       <c r="A773" t="n">
-        <v>0.1015622772394965</v>
+        <v>0.1015660248480249</v>
       </c>
       <c r="B773" t="n">
-        <v>-0.09636127594158793</v>
+        <v>-0.0891517460139766</v>
       </c>
       <c r="C773" t="n">
         <v>1</v>
@@ -8955,10 +8955,10 @@
     </row>
     <row r="775">
       <c r="A775" t="n">
-        <v>0.2313265529005311</v>
+        <v>0.2313256119148888</v>
       </c>
       <c r="B775" t="n">
-        <v>-0.08470903350636991</v>
+        <v>-0.09482901816548756</v>
       </c>
       <c r="C775" t="n">
         <v>1</v>
@@ -8966,10 +8966,10 @@
     </row>
     <row r="776">
       <c r="A776" t="n">
-        <v>0.2022700430527027</v>
+        <v>0.2022782368625003</v>
       </c>
       <c r="B776" t="n">
-        <v>-0.001332020819992967</v>
+        <v>0.004677652047060619</v>
       </c>
       <c r="C776" t="n">
         <v>1</v>
@@ -8977,10 +8977,10 @@
     </row>
     <row r="777">
       <c r="A777" t="n">
-        <v>0.2741440629203579</v>
+        <v>0.2741541341910465</v>
       </c>
       <c r="B777" t="n">
-        <v>0.02569100155217878</v>
+        <v>0.0252687264801544</v>
       </c>
       <c r="C777" t="n">
         <v>0</v>
@@ -8988,10 +8988,10 @@
     </row>
     <row r="778">
       <c r="A778" t="n">
-        <v>0.135942214708651</v>
+        <v>0.1359386716057519</v>
       </c>
       <c r="B778" t="n">
-        <v>-0.07683123364399755</v>
+        <v>-0.07332225241296068</v>
       </c>
       <c r="C778" t="n">
         <v>1</v>
@@ -8999,10 +8999,10 @@
     </row>
     <row r="779">
       <c r="A779" t="n">
-        <v>0.0916922139174341</v>
+        <v>0.09168386954726437</v>
       </c>
       <c r="B779" t="n">
-        <v>-0.05328255577071971</v>
+        <v>-0.04933661231016995</v>
       </c>
       <c r="C779" t="n">
         <v>1</v>
@@ -9010,10 +9010,10 @@
     </row>
     <row r="780">
       <c r="A780" t="n">
-        <v>0.1387127259573503</v>
+        <v>0.1387111311140541</v>
       </c>
       <c r="B780" t="n">
-        <v>0.02550584658879593</v>
+        <v>0.02565423299707321</v>
       </c>
       <c r="C780" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
     </row>
     <row r="781">
       <c r="A781" t="n">
-        <v>0.1051817984206832</v>
+        <v>0.1051846538658355</v>
       </c>
       <c r="B781" t="n">
-        <v>-0.05413600385523503</v>
+        <v>-0.05445627393849944</v>
       </c>
       <c r="C781" t="n">
         <v>1</v>
@@ -9032,10 +9032,10 @@
     </row>
     <row r="782">
       <c r="A782" t="n">
-        <v>0.1350268679140739</v>
+        <v>0.1350239925741933</v>
       </c>
       <c r="B782" t="n">
-        <v>0.1424869539605814</v>
+        <v>0.1450016071090841</v>
       </c>
       <c r="C782" t="n">
         <v>0</v>
@@ -9043,10 +9043,10 @@
     </row>
     <row r="783">
       <c r="A783" t="n">
-        <v>0.2708729020332649</v>
+        <v>0.2708793453050343</v>
       </c>
       <c r="B783" t="n">
-        <v>-0.008677920487474244</v>
+        <v>-0.02283326719997816</v>
       </c>
       <c r="C783" t="n">
         <v>1</v>
@@ -9054,10 +9054,10 @@
     </row>
     <row r="784">
       <c r="A784" t="n">
-        <v>0.1031522492689306</v>
+        <v>0.1031439139578615</v>
       </c>
       <c r="B784" t="n">
-        <v>0.1052002784900219</v>
+        <v>0.09772599499139317</v>
       </c>
       <c r="C784" t="n">
         <v>0</v>
@@ -9065,10 +9065,10 @@
     </row>
     <row r="785">
       <c r="A785" t="n">
-        <v>0.07134977388600772</v>
+        <v>0.07135419608328213</v>
       </c>
       <c r="B785" t="n">
-        <v>0.094788117579404</v>
+        <v>0.09616206914839337</v>
       </c>
       <c r="C785" t="n">
         <v>0</v>
@@ -9076,10 +9076,10 @@
     </row>
     <row r="786">
       <c r="A786" t="n">
-        <v>0.1306912122814005</v>
+        <v>0.1306992601592093</v>
       </c>
       <c r="B786" t="n">
-        <v>-0.01481642400026808</v>
+        <v>-0.02301847854012465</v>
       </c>
       <c r="C786" t="n">
         <v>1</v>
@@ -9087,10 +9087,10 @@
     </row>
     <row r="787">
       <c r="A787" t="n">
-        <v>0.128729197552892</v>
+        <v>0.1287256269526395</v>
       </c>
       <c r="B787" t="n">
-        <v>0.003053645016521741</v>
+        <v>-1.380961790372389e-05</v>
       </c>
       <c r="C787" t="n">
         <v>0</v>
@@ -9098,10 +9098,10 @@
     </row>
     <row r="788">
       <c r="A788" t="n">
-        <v>0.133586944249755</v>
+        <v>0.1335649681122399</v>
       </c>
       <c r="B788" t="n">
-        <v>0.07034946931534412</v>
+        <v>0.07323579372645037</v>
       </c>
       <c r="C788" t="n">
         <v>0</v>

--- a/python-test/scripts/4_ai_scikit_learn/newgroups-truncated.xlsx
+++ b/python-test/scripts/4_ai_scikit_learn/newgroups-truncated.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.112201945198315</v>
+        <v>0.1122049841141363</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04631250397364985</v>
+        <v>0.05313152613429514</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -463,10 +463,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1399346165061877</v>
+        <v>0.1399318541509972</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.1412115777125796</v>
+        <v>-0.1322691101109795</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -474,10 +474,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.2326807903135577</v>
+        <v>0.2326784736305952</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.07011804701193484</v>
+        <v>-0.06576810539094088</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -485,10 +485,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.109748140656217</v>
+        <v>0.1097332809144971</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3897015669396684</v>
+        <v>0.3996653916987936</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -496,10 +496,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1452690519292514</v>
+        <v>0.1452684208781735</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.08498672897980072</v>
+        <v>-0.07635327027829383</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -507,10 +507,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2773042256839608</v>
+        <v>0.2772993256955238</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.06323628799979548</v>
+        <v>-0.07317871186184126</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -518,10 +518,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.1141076357482814</v>
+        <v>0.114106080985851</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1367940730645786</v>
+        <v>0.1371630923665359</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -529,10 +529,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0735370808429707</v>
+        <v>0.07353458048174435</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02696082539409977</v>
+        <v>0.02703347410419649</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -540,10 +540,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.2480258033554327</v>
+        <v>0.2480182517908186</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.06668115280906023</v>
+        <v>-0.08068286862793453</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.08593855240417639</v>
+        <v>0.08593815289688872</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.003945337305921177</v>
+        <v>-0.0003480191523339013</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -562,10 +562,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.07409993502333616</v>
+        <v>0.07410120985294277</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.05486601519566462</v>
+        <v>-0.06016093887373873</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -573,10 +573,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.1347936064549864</v>
+        <v>0.1347905305808199</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01239188406381906</v>
+        <v>0.01245500757528845</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -584,10 +584,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.2373571917530086</v>
+        <v>0.2373578064746377</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1433823691038853</v>
+        <v>0.1423405378127922</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1185436435831081</v>
+        <v>0.1185435607012417</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.08348087174541438</v>
+        <v>-0.08923065616937144</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.2072490329468186</v>
+        <v>0.2072565259685935</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0321083349517681</v>
+        <v>0.03728954022617335</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1571185357008044</v>
+        <v>0.1571285344129872</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1271672645849418</v>
+        <v>0.1263147843915285</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.1126433881018684</v>
+        <v>0.1126455808703124</v>
       </c>
       <c r="B18" t="n">
-        <v>0.08671971893193857</v>
+        <v>0.09270300933991898</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -639,10 +639,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.1767901124588772</v>
+        <v>0.1767977923812526</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.07039783160447839</v>
+        <v>-0.06747404755148882</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -650,10 +650,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1217187280148803</v>
+        <v>0.1217217513669244</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02009274183062931</v>
+        <v>0.01248490741969199</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.08797006640914982</v>
+        <v>0.08796838592951231</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.02880285512366825</v>
+        <v>-0.03567344643586862</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -672,10 +672,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.2356149665690805</v>
+        <v>0.2356228802581889</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09556639641325583</v>
+        <v>0.101220627431119</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -683,10 +683,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.186140378383274</v>
+        <v>0.1861420736390944</v>
       </c>
       <c r="B23" t="n">
-        <v>0.06743777349892707</v>
+        <v>0.06621079244520819</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -694,10 +694,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.436485210325937</v>
+        <v>0.4364785063411309</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.1417310078521041</v>
+        <v>-0.1678373444823358</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -705,10 +705,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.08456656455638206</v>
+        <v>0.08456560305474513</v>
       </c>
       <c r="B25" t="n">
-        <v>0.03956587185295991</v>
+        <v>0.04282164244215485</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.257008240565986</v>
+        <v>0.2570102467580962</v>
       </c>
       <c r="B26" t="n">
-        <v>0.04349877947348292</v>
+        <v>0.03976595795060735</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -727,10 +727,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.2500581437165202</v>
+        <v>0.2500555045558547</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2005616473990959</v>
+        <v>0.212357618147651</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -738,10 +738,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.145269847567933</v>
+        <v>0.1452663322530583</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.01693346754115614</v>
+        <v>-0.006364320728772025</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -749,10 +749,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.03012604269945101</v>
+        <v>0.03012465308588646</v>
       </c>
       <c r="B29" t="n">
-        <v>0.005684830932850786</v>
+        <v>0.0006348184890335048</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -760,10 +760,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.1485223729362507</v>
+        <v>0.1485177417788914</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.05746186364037201</v>
+        <v>-0.0547357356984159</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -771,10 +771,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.1065367958547001</v>
+        <v>0.1065406867577012</v>
       </c>
       <c r="B31" t="n">
-        <v>0.02627816671458385</v>
+        <v>0.02002321271604571</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.2461742929525775</v>
+        <v>0.24617661846321</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.1208101788122117</v>
+        <v>-0.1222241726217024</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.05322449240341144</v>
+        <v>0.05322756913483763</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.1378131998485474</v>
+        <v>-0.1347848902805144</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
@@ -804,10 +804,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.1601770509753054</v>
+        <v>0.1601812648123506</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.1022966346809141</v>
+        <v>-0.1028186890986067</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -815,10 +815,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.04918354716750125</v>
+        <v>0.04918184001816741</v>
       </c>
       <c r="B35" t="n">
-        <v>0.05017071189645603</v>
+        <v>0.03997084166258365</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
@@ -826,10 +826,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.1815955081038275</v>
+        <v>0.1815993056601838</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1564589857742332</v>
+        <v>0.1659055542551074</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.1666108213421814</v>
+        <v>0.1665957849085564</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.08582003852488779</v>
+        <v>-0.09394618347860297</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.3212881583820066</v>
+        <v>0.3212855279530369</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.02828033610393374</v>
+        <v>-0.03206846203486589</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -859,10 +859,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.2366555740945612</v>
+        <v>0.2366584265861047</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.07413818714856614</v>
+        <v>-0.08001230709584926</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -870,10 +870,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.08242327892341463</v>
+        <v>0.08242771149740205</v>
       </c>
       <c r="B40" t="n">
-        <v>0.06821201967843869</v>
+        <v>0.07077033009525963</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.09242330378572731</v>
+        <v>0.09242005343121329</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.04192316061504454</v>
+        <v>-0.04561682982730472</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
@@ -892,10 +892,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.1825624010356143</v>
+        <v>0.1825602250181117</v>
       </c>
       <c r="B42" t="n">
-        <v>0.07837189124578164</v>
+        <v>0.07164044924765191</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -903,10 +903,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.07026645092136649</v>
+        <v>0.07026891592792724</v>
       </c>
       <c r="B43" t="n">
-        <v>0.07421673190265177</v>
+        <v>0.07500079077912106</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.1656566004827696</v>
+        <v>0.1656601860659455</v>
       </c>
       <c r="B44" t="n">
-        <v>0.007618563524049719</v>
+        <v>0.005435994746070713</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -925,10 +925,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.1267960396108199</v>
+        <v>0.126791517687654</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.007986738196879992</v>
+        <v>-0.004354421043232588</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -936,10 +936,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.2045760796054632</v>
+        <v>0.204580401983618</v>
       </c>
       <c r="B46" t="n">
-        <v>0.02161911283484964</v>
+        <v>0.03266136292576417</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.2133097912551447</v>
+        <v>0.2133163015386536</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.007957854014119759</v>
+        <v>-0.001763635374575242</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.143380550782871</v>
+        <v>0.1433846458194338</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.02982252883345013</v>
+        <v>-0.0276004691627751</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
@@ -969,10 +969,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.1452354604975811</v>
+        <v>0.1452451611217793</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1137022501949554</v>
+        <v>0.1164074456074853</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -980,10 +980,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.2278026966175197</v>
+        <v>0.2278054784116988</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.04865080069446794</v>
+        <v>-0.04637939254020568</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -991,10 +991,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.1271489766073042</v>
+        <v>0.1271515563856239</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.01907145584024278</v>
+        <v>-0.01735581678255215</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1002,10 +1002,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.2138532302816225</v>
+        <v>0.2138595242794763</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.1420154450875509</v>
+        <v>-0.1302513356322731</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.1103701602337641</v>
+        <v>0.1103757384526461</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.06186388770836455</v>
+        <v>-0.06219349381912059</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.09280642856340771</v>
+        <v>0.09280831168107084</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.06156430684027214</v>
+        <v>-0.06414413078697249</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.3185398725339003</v>
+        <v>0.3185329759889863</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.1146990376985148</v>
+        <v>-0.1178103293416719</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
@@ -1046,10 +1046,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.0510642658019007</v>
+        <v>0.05106143601568774</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.02747837649651105</v>
+        <v>-0.02852156205038248</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
@@ -1068,10 +1068,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.1822604520484268</v>
+        <v>0.1822629318748111</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.05569681844905418</v>
+        <v>-0.05216888733096404</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
@@ -1079,10 +1079,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.110223934010662</v>
+        <v>0.110236967963398</v>
       </c>
       <c r="B59" t="n">
-        <v>0.02165251134906896</v>
+        <v>0.04095526907528573</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1090,10 +1090,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.1606421184803146</v>
+        <v>0.1606453316599695</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0847830307592175</v>
+        <v>0.09434737977610697</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.2380111854750874</v>
+        <v>0.2380085500371213</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.1116045585231282</v>
+        <v>-0.1174013102054138</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -1112,10 +1112,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.07783153772978947</v>
+        <v>0.0778365954412939</v>
       </c>
       <c r="B62" t="n">
-        <v>0.02158252787652617</v>
+        <v>0.0293575418398767</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -1123,10 +1123,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.1601061074630107</v>
+        <v>0.160105847768447</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.1057615631279405</v>
+        <v>-0.1023666361354697</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
@@ -1134,10 +1134,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.1632470114560797</v>
+        <v>0.1632475495828288</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.05369219804023244</v>
+        <v>-0.06245864605057162</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -1145,10 +1145,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.1437015134985168</v>
+        <v>0.1436991717600534</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1143999190888513</v>
+        <v>0.1125336044000503</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -1156,10 +1156,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.188380976720635</v>
+        <v>0.1883838842330938</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.1174270871139186</v>
+        <v>-0.113341049329109</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.2808201597682972</v>
+        <v>0.2808215136617003</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.1852645358101195</v>
+        <v>-0.1700255338094273</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
@@ -1178,10 +1178,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.1390733177785503</v>
+        <v>0.1390789823734776</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.004266710062010169</v>
+        <v>0.004755444051723333</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
@@ -1189,10 +1189,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.2253227904794274</v>
+        <v>0.2253154942835512</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.06170503017261914</v>
+        <v>-0.06916904809287089</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
@@ -1200,10 +1200,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.3070133941674729</v>
+        <v>0.3069976111454445</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.05686547045351593</v>
+        <v>-0.06022070721376962</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
@@ -1211,10 +1211,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.1201192047581443</v>
+        <v>0.1201151279951383</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.02976697253823785</v>
+        <v>-0.0349143882414572</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.2459148189603554</v>
+        <v>0.2459071311238189</v>
       </c>
       <c r="B72" t="n">
-        <v>0.09128438381874183</v>
+        <v>0.08851139162340196</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -1233,10 +1233,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.2173544362509045</v>
+        <v>0.2173500446982183</v>
       </c>
       <c r="B73" t="n">
-        <v>0.06771159170700992</v>
+        <v>0.05780630404248073</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -1244,10 +1244,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.08786191706734142</v>
+        <v>0.0878656576106164</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.07911520795232464</v>
+        <v>-0.077974932440598</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
@@ -1255,10 +1255,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.1834899766321769</v>
+        <v>0.1835004587114578</v>
       </c>
       <c r="B75" t="n">
-        <v>0.06542057178350257</v>
+        <v>0.07012422493416062</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -1266,10 +1266,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.1195099797203412</v>
+        <v>0.1195025575732304</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.02210034179145916</v>
+        <v>-0.01567959610968588</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
@@ -1277,10 +1277,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.1943064680655962</v>
+        <v>0.1943102019178995</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.1360653274720933</v>
+        <v>-0.1296123656657905</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
@@ -1299,10 +1299,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.2601826698944787</v>
+        <v>0.2601796413790717</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.006823615381715963</v>
+        <v>0.003957871614437499</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.04417962869893723</v>
+        <v>0.04417848852178174</v>
       </c>
       <c r="B80" t="n">
-        <v>0.02220330525639947</v>
+        <v>0.02117818413912068</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.1632880760032914</v>
+        <v>0.1632883842197623</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.002083830285637821</v>
+        <v>0.006580330237790573</v>
       </c>
       <c r="C81" t="n">
         <v>1</v>
@@ -1332,10 +1332,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.1325827401738364</v>
+        <v>0.1325772241717639</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.01599699864200103</v>
+        <v>-0.02377254047371447</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -1343,10 +1343,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.216221524793593</v>
+        <v>0.2162238382187208</v>
       </c>
       <c r="B83" t="n">
-        <v>0.01485944081089953</v>
+        <v>0.01627249131794274</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.1273052661882116</v>
+        <v>0.1273112428003627</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.006619280588592875</v>
+        <v>-0.009710531780769853</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -1365,10 +1365,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.1761251522012474</v>
+        <v>0.1761163275077773</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.05304632191964725</v>
+        <v>-0.0608089807929875</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.1674999152411816</v>
+        <v>0.167499822077728</v>
       </c>
       <c r="B86" t="n">
-        <v>0.001089331544573433</v>
+        <v>0.00353163101571113</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.1158647641920954</v>
+        <v>0.1158606698119571</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.009986502905303306</v>
+        <v>-0.01291750681173916</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
@@ -1398,10 +1398,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.2197244591394264</v>
+        <v>0.2197001199771215</v>
       </c>
       <c r="B88" t="n">
-        <v>0.01045771177480443</v>
+        <v>-4.536032998035482e-05</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.2031669278051878</v>
+        <v>0.2031630560107016</v>
       </c>
       <c r="B89" t="n">
-        <v>0.01228118894566131</v>
+        <v>0.01704865813927624</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.1617414990411203</v>
+        <v>0.1617406988458606</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.01354178625049901</v>
+        <v>-0.01456870631806638</v>
       </c>
       <c r="C90" t="n">
         <v>1</v>
@@ -1431,10 +1431,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.1755558644904564</v>
+        <v>0.1755721210185608</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1023050483779326</v>
+        <v>0.1110924632153558</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -1442,10 +1442,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.1054275939811783</v>
+        <v>0.1054295684865188</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.1756930658647453</v>
+        <v>-0.168456980229162</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.1431126524834607</v>
+        <v>0.1431084718733934</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.06432998123053282</v>
+        <v>-0.07397525690262544</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.2275920017411289</v>
+        <v>0.2275931512278074</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.09796035776197719</v>
+        <v>-0.0924650795457494</v>
       </c>
       <c r="C94" t="n">
         <v>1</v>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.1760727811375648</v>
+        <v>0.1760830891016964</v>
       </c>
       <c r="B95" t="n">
-        <v>0.07344907824747124</v>
+        <v>0.07843918100977733</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -1486,10 +1486,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.1467598236802743</v>
+        <v>0.1467657073545211</v>
       </c>
       <c r="B96" t="n">
-        <v>0.05634117396110875</v>
+        <v>0.05565538247850237</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -1497,10 +1497,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.1383448107216874</v>
+        <v>0.1383541300971833</v>
       </c>
       <c r="B97" t="n">
-        <v>0.1841230766090236</v>
+        <v>0.1958428565002635</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -1508,10 +1508,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.2799211744385826</v>
+        <v>0.2799214368924554</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.1217299913440449</v>
+        <v>-0.1003023839289546</v>
       </c>
       <c r="C98" t="n">
         <v>1</v>
@@ -1519,10 +1519,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.2726638992495986</v>
+        <v>0.2726674816704825</v>
       </c>
       <c r="B99" t="n">
-        <v>0.02379850186048521</v>
+        <v>0.01558907213544088</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.2663476791275808</v>
+        <v>0.2663573027413731</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.1362032014498739</v>
+        <v>-0.1246852456747052</v>
       </c>
       <c r="C100" t="n">
         <v>1</v>
@@ -1541,10 +1541,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.2283266398118553</v>
+        <v>0.2283229389692029</v>
       </c>
       <c r="B101" t="n">
-        <v>0.09018764125776847</v>
+        <v>0.07395634827648691</v>
       </c>
       <c r="C101" t="n">
         <v>1</v>
@@ -1552,10 +1552,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.1003995552325421</v>
+        <v>0.1003959076189136</v>
       </c>
       <c r="B102" t="n">
-        <v>0.008343006059273803</v>
+        <v>0.004011480099262782</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -1563,10 +1563,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.1626395033378473</v>
+        <v>0.1626297723405731</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.02328619260641209</v>
+        <v>-0.02725723760983231</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -1574,10 +1574,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.09707205999081153</v>
+        <v>0.09707303212833367</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.03564133062223938</v>
+        <v>-0.03337716453603448</v>
       </c>
       <c r="C104" t="n">
         <v>1</v>
@@ -1585,10 +1585,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.2045116386533337</v>
+        <v>0.2045020094681704</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1675676197974716</v>
+        <v>0.147369184275996</v>
       </c>
       <c r="C105" t="n">
         <v>1</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.2207234285878364</v>
+        <v>0.2207165287354737</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.06020718643570471</v>
+        <v>-0.04284547928236248</v>
       </c>
       <c r="C106" t="n">
         <v>1</v>
@@ -1607,10 +1607,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.07712807997670243</v>
+        <v>0.07712035671294247</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.03644239598590442</v>
+        <v>-0.04554673580929984</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.1629122744618646</v>
+        <v>0.1629174531928728</v>
       </c>
       <c r="B108" t="n">
-        <v>0.02658944629032953</v>
+        <v>0.03394177689218222</v>
       </c>
       <c r="C108" t="n">
         <v>1</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.1419191209063699</v>
+        <v>0.1419146711760168</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.005133454723892711</v>
+        <v>-0.007517221014606453</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -1640,10 +1640,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.08717331748685442</v>
+        <v>0.08717166423587588</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.01852466406201721</v>
+        <v>-0.02848245327907549</v>
       </c>
       <c r="C110" t="n">
         <v>1</v>
@@ -1651,10 +1651,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.298935919077984</v>
+        <v>0.2989480300126974</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.254811747055395</v>
+        <v>-0.2435010742573926</v>
       </c>
       <c r="C111" t="n">
         <v>1</v>
@@ -1662,10 +1662,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.1891615336854166</v>
+        <v>0.1891627766671015</v>
       </c>
       <c r="B112" t="n">
-        <v>0.02950780178066598</v>
+        <v>0.03925755021839658</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -1673,10 +1673,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.2446699186465347</v>
+        <v>0.2446732317819742</v>
       </c>
       <c r="B113" t="n">
-        <v>0.09859393137417505</v>
+        <v>0.1043818218402311</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -1684,10 +1684,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.2725097635170243</v>
+        <v>0.2725197446801685</v>
       </c>
       <c r="B114" t="n">
-        <v>0.1265607597282066</v>
+        <v>0.133642031956451</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -1695,10 +1695,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.1525860030153462</v>
+        <v>0.15260903024685</v>
       </c>
       <c r="B115" t="n">
-        <v>0.1230235009681684</v>
+        <v>0.1368551396712404</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -1706,10 +1706,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.09610658374367402</v>
+        <v>0.09610699513178755</v>
       </c>
       <c r="B116" t="n">
-        <v>0.03151039989749591</v>
+        <v>0.04773517929369152</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -1717,10 +1717,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.1063770133294183</v>
+        <v>0.1063804112721654</v>
       </c>
       <c r="B117" t="n">
-        <v>0.01951028315379678</v>
+        <v>0.01552713997511384</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -1728,10 +1728,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.3217632978982139</v>
+        <v>0.3217659975843618</v>
       </c>
       <c r="B118" t="n">
-        <v>0.08682243728862547</v>
+        <v>0.0727533050737267</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.08883421646045074</v>
+        <v>0.08882991778135045</v>
       </c>
       <c r="B119" t="n">
-        <v>0.02164773828522851</v>
+        <v>0.02138520295771085</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -1750,10 +1750,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.1437984902958428</v>
+        <v>0.1437925485163001</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.06659131685914545</v>
+        <v>-0.07621729581881599</v>
       </c>
       <c r="C120" t="n">
         <v>1</v>
@@ -1761,10 +1761,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.2147692191666496</v>
+        <v>0.2147600487301437</v>
       </c>
       <c r="B121" t="n">
-        <v>0.1255750791683642</v>
+        <v>0.1093388545639209</v>
       </c>
       <c r="C121" t="n">
         <v>1</v>
@@ -1772,10 +1772,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.1887005557201508</v>
+        <v>0.1886938844135897</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.03525539812411607</v>
+        <v>-0.02218186724058769</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.239443298855341</v>
+        <v>0.2394445909128609</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.1446753598934148</v>
+        <v>-0.1511317842094329</v>
       </c>
       <c r="C123" t="n">
         <v>1</v>
@@ -1794,10 +1794,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.04840863618300449</v>
+        <v>0.048408545326206</v>
       </c>
       <c r="B124" t="n">
-        <v>0.05633434673813138</v>
+        <v>0.05884957539509071</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -1805,10 +1805,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.1056614687490705</v>
+        <v>0.1056681266907686</v>
       </c>
       <c r="B125" t="n">
-        <v>0.04009262883087003</v>
+        <v>0.03739908534060061</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.08630651923206166</v>
+        <v>0.0863050435850289</v>
       </c>
       <c r="B126" t="n">
-        <v>0.04958368447280135</v>
+        <v>0.04943964182962594</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -1838,10 +1838,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.1440080752371529</v>
+        <v>0.1440123098308929</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0009411553238447929</v>
+        <v>0.002553207362498235</v>
       </c>
       <c r="C128" t="n">
         <v>1</v>
@@ -1849,10 +1849,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.1386107054730349</v>
+        <v>0.1386014005204276</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.04457004106668987</v>
+        <v>-0.05360529974125808</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -1860,10 +1860,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.1506067021772873</v>
+        <v>0.1506039442996737</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.01180794490575729</v>
+        <v>-0.01286308490740066</v>
       </c>
       <c r="C130" t="n">
         <v>1</v>
@@ -1871,10 +1871,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.1716498656113384</v>
+        <v>0.1716367012133502</v>
       </c>
       <c r="B131" t="n">
-        <v>0.07540091176411383</v>
+        <v>0.0753131538354852</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.2242759974744616</v>
+        <v>0.2242730677359357</v>
       </c>
       <c r="B132" t="n">
-        <v>0.03250677874673638</v>
+        <v>0.02963594228374661</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -1893,10 +1893,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.04575885491838943</v>
+        <v>0.04575161241617678</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.0445215840123505</v>
+        <v>-0.04920305344414228</v>
       </c>
       <c r="C133" t="n">
         <v>1</v>
@@ -1904,10 +1904,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.1891107162007457</v>
+        <v>0.1891090002751532</v>
       </c>
       <c r="B134" t="n">
-        <v>0.01835919592992643</v>
+        <v>0.004059079557822743</v>
       </c>
       <c r="C134" t="n">
         <v>1</v>
@@ -1915,10 +1915,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.1162701273537934</v>
+        <v>0.1162696414354054</v>
       </c>
       <c r="B135" t="n">
-        <v>0.05891997398361798</v>
+        <v>0.05881936633399878</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -1926,10 +1926,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.1026116727057284</v>
+        <v>0.1026156399534477</v>
       </c>
       <c r="B136" t="n">
-        <v>0.1763736115592652</v>
+        <v>0.1861400607340539</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.2477956048175098</v>
+        <v>0.2477908335750542</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.1245974471087063</v>
+        <v>-0.1246522007336977</v>
       </c>
       <c r="C137" t="n">
         <v>1</v>
@@ -1948,10 +1948,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.05790356028127059</v>
+        <v>0.05790370448589726</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.02147192889184163</v>
+        <v>-0.02513207975110375</v>
       </c>
       <c r="C138" t="n">
         <v>1</v>
@@ -1959,10 +1959,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.1111710251819837</v>
+        <v>0.1111689680762208</v>
       </c>
       <c r="B139" t="n">
-        <v>0.04897862914200364</v>
+        <v>0.0663529642072704</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.1633296939929915</v>
+        <v>0.1633131450582882</v>
       </c>
       <c r="B140" t="n">
-        <v>0.10319784232546</v>
+        <v>0.089783495780398</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -1981,10 +1981,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.124569662040021</v>
+        <v>0.1245622781647474</v>
       </c>
       <c r="B141" t="n">
-        <v>0.1674976085365766</v>
+        <v>0.1695058107796117</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -1992,10 +1992,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.1400926420563479</v>
+        <v>0.1401017410110053</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.07780205873375597</v>
+        <v>-0.07431600132236361</v>
       </c>
       <c r="C142" t="n">
         <v>1</v>
@@ -2003,10 +2003,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.1018439635249995</v>
+        <v>0.1018471422243137</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.02877942859920822</v>
+        <v>-0.03035132423574398</v>
       </c>
       <c r="C143" t="n">
         <v>1</v>
@@ -2014,10 +2014,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.2574457143882095</v>
+        <v>0.2574479567923324</v>
       </c>
       <c r="B144" t="n">
-        <v>0.02319340510504311</v>
+        <v>0.01898470678823034</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -2025,10 +2025,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.1037847404035179</v>
+        <v>0.103779465732668</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.01084604384682746</v>
+        <v>-0.0119417393002351</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -2036,10 +2036,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.286257769014231</v>
+        <v>0.2862578168337445</v>
       </c>
       <c r="B146" t="n">
-        <v>0.1593282748247573</v>
+        <v>0.1721441058159091</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.1405646732262209</v>
+        <v>0.1405412780486652</v>
       </c>
       <c r="B147" t="n">
-        <v>0.01504363673396443</v>
+        <v>0.006549592437407398</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.1988746593397974</v>
+        <v>0.1988759376156814</v>
       </c>
       <c r="B148" t="n">
-        <v>0.05655196418210787</v>
+        <v>0.05742946197365732</v>
       </c>
       <c r="C148" t="n">
         <v>1</v>
@@ -2069,10 +2069,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.2602147520271331</v>
+        <v>0.2602243421244789</v>
       </c>
       <c r="B149" t="n">
-        <v>0.04027047874520012</v>
+        <v>0.05117517818445402</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.1397669214615536</v>
+        <v>0.1397649123288652</v>
       </c>
       <c r="B150" t="n">
-        <v>0.08225029047344939</v>
+        <v>0.08696259526757973</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.09643661749591341</v>
+        <v>0.09643982896307937</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.003505372332093162</v>
+        <v>-0.002520888630006975</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -2102,10 +2102,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.0567697751551146</v>
+        <v>0.05677183612855577</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.05091130015169917</v>
+        <v>-0.05060094677368595</v>
       </c>
       <c r="C152" t="n">
         <v>1</v>
@@ -2113,10 +2113,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.1281370025391253</v>
+        <v>0.1281336074482555</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.019432102942405</v>
+        <v>-0.01815940330882633</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -2124,10 +2124,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.2244082301693834</v>
+        <v>0.2244066514936114</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0136512431114804</v>
+        <v>0.02036004356983979</v>
       </c>
       <c r="C154" t="n">
         <v>1</v>
@@ -2135,10 +2135,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.1380022417882842</v>
+        <v>0.1380093284041668</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.01279765226111963</v>
+        <v>-0.002291121729347478</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.106180826025066</v>
+        <v>0.1061804038210661</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0254471799112415</v>
+        <v>0.02010036750115937</v>
       </c>
       <c r="C156" t="n">
         <v>1</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.2222033757321345</v>
+        <v>0.2221920436424373</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.07746476561538145</v>
+        <v>-0.07005602184648388</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -2179,10 +2179,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.1123683641569817</v>
+        <v>0.1123719738657629</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.06900281300657583</v>
+        <v>-0.06472517770755395</v>
       </c>
       <c r="C159" t="n">
         <v>1</v>
@@ -2190,10 +2190,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.1151930478210517</v>
+        <v>0.1151975451369566</v>
       </c>
       <c r="B160" t="n">
-        <v>0.003770195714138912</v>
+        <v>0.001781350260851482</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -2201,10 +2201,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.09838425571379635</v>
+        <v>0.09838886586313106</v>
       </c>
       <c r="B161" t="n">
-        <v>0.1862222313826832</v>
+        <v>0.197857430317351</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -2212,10 +2212,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.09439161838690212</v>
+        <v>0.09438513247580865</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.02750395923854521</v>
+        <v>-0.03459376861183118</v>
       </c>
       <c r="C162" t="n">
         <v>1</v>
@@ -2223,10 +2223,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.1740493080337242</v>
+        <v>0.1740318067159278</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.03262555727043448</v>
+        <v>-0.04156205735037544</v>
       </c>
       <c r="C163" t="n">
         <v>1</v>
@@ -2234,10 +2234,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.1277452511476296</v>
+        <v>0.1277591290138528</v>
       </c>
       <c r="B164" t="n">
-        <v>0.06132298547289167</v>
+        <v>0.06992006183097421</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.1932769898605726</v>
+        <v>0.1932763439454228</v>
       </c>
       <c r="B165" t="n">
-        <v>0.123890684996566</v>
+        <v>0.122756073292642</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.1277968913096955</v>
+        <v>0.1277934447874433</v>
       </c>
       <c r="B166" t="n">
-        <v>0.06466768661981487</v>
+        <v>0.05609769730895584</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -2267,10 +2267,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.105484972805772</v>
+        <v>0.1054706937423263</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.02701700607128599</v>
+        <v>-0.02924228978638722</v>
       </c>
       <c r="C167" t="n">
         <v>1</v>
@@ -2278,10 +2278,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.1560643892407992</v>
+        <v>0.1560681679464531</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.0478493707683158</v>
+        <v>-0.04005873250128861</v>
       </c>
       <c r="C168" t="n">
         <v>1</v>
@@ -2289,10 +2289,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.122932692627933</v>
+        <v>0.1229344400425283</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.03544039670798396</v>
+        <v>-0.03848696543081775</v>
       </c>
       <c r="C169" t="n">
         <v>1</v>
@@ -2300,10 +2300,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.1160111729038989</v>
+        <v>0.1160091029770716</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0650612263041512</v>
+        <v>0.05906626324783495</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -2311,10 +2311,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.1313349593986021</v>
+        <v>0.1313409229531327</v>
       </c>
       <c r="B171" t="n">
-        <v>0.03865720330543793</v>
+        <v>0.03913758257344638</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -2322,10 +2322,10 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.1823404414177648</v>
+        <v>0.1823446199437358</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.0203194966017403</v>
+        <v>-0.01836613767683498</v>
       </c>
       <c r="C172" t="n">
         <v>1</v>
@@ -2333,10 +2333,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.05616421624154713</v>
+        <v>0.05615916030720015</v>
       </c>
       <c r="B173" t="n">
-        <v>0.02383679769915727</v>
+        <v>0.01497889804012511</v>
       </c>
       <c r="C173" t="n">
         <v>1</v>
@@ -2344,10 +2344,10 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.1170255871596413</v>
+        <v>0.1170219935011874</v>
       </c>
       <c r="B174" t="n">
-        <v>0.06220851232187554</v>
+        <v>0.0542326065542845</v>
       </c>
       <c r="C174" t="n">
         <v>1</v>
@@ -2355,10 +2355,10 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.2102553008063124</v>
+        <v>0.2102551995720122</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.03701301228811118</v>
+        <v>-0.03704553295645108</v>
       </c>
       <c r="C175" t="n">
         <v>1</v>
@@ -2366,10 +2366,10 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.2452020634764208</v>
+        <v>0.2452069442954351</v>
       </c>
       <c r="B176" t="n">
-        <v>0.07163145628599785</v>
+        <v>0.06511433044862279</v>
       </c>
       <c r="C176" t="n">
         <v>1</v>
@@ -2377,10 +2377,10 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.05330342925152447</v>
+        <v>0.05330118356009506</v>
       </c>
       <c r="B177" t="n">
-        <v>0.03396604750702325</v>
+        <v>0.02764050149735683</v>
       </c>
       <c r="C177" t="n">
         <v>1</v>
@@ -2388,10 +2388,10 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.08384146620720907</v>
+        <v>0.08384209250625292</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.0144494330104292</v>
+        <v>-0.01892687819983591</v>
       </c>
       <c r="C178" t="n">
         <v>1</v>
@@ -2399,10 +2399,10 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.06339757433712992</v>
+        <v>0.06339809685900047</v>
       </c>
       <c r="B179" t="n">
-        <v>0.01473125552546624</v>
+        <v>0.006067333001930421</v>
       </c>
       <c r="C179" t="n">
         <v>1</v>
@@ -2410,10 +2410,10 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.09105185061341745</v>
+        <v>0.09105255876164556</v>
       </c>
       <c r="B180" t="n">
-        <v>0.03696893752990544</v>
+        <v>0.05282826196080354</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -2421,10 +2421,10 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.1354175694092471</v>
+        <v>0.1354161147867517</v>
       </c>
       <c r="B181" t="n">
-        <v>0.1892381718036604</v>
+        <v>0.1895238629791679</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -2432,10 +2432,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.1276276976068181</v>
+        <v>0.1276387849308788</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.2344261029918353</v>
+        <v>-0.2221741780755009</v>
       </c>
       <c r="C182" t="n">
         <v>1</v>
@@ -2443,10 +2443,10 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.2728716842894233</v>
+        <v>0.2728710499742517</v>
       </c>
       <c r="B183" t="n">
-        <v>0.1168194965098017</v>
+        <v>0.1115620712877151</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -2454,10 +2454,10 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.1923761191548316</v>
+        <v>0.192377556616044</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.0129750729466642</v>
+        <v>-0.01761917699555762</v>
       </c>
       <c r="C184" t="n">
         <v>1</v>
@@ -2465,10 +2465,10 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.1218237111819558</v>
+        <v>0.1218268389512344</v>
       </c>
       <c r="B185" t="n">
-        <v>0.1909232092859915</v>
+        <v>0.2009083204002158</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -2476,10 +2476,10 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.1391908034732828</v>
+        <v>0.1391845322446998</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.02386777672199898</v>
+        <v>-0.02387865854253141</v>
       </c>
       <c r="C186" t="n">
         <v>1</v>
@@ -2487,10 +2487,10 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.1854911422563234</v>
+        <v>0.1854992598628312</v>
       </c>
       <c r="B187" t="n">
-        <v>0.08457437948585092</v>
+        <v>0.0861276766879865</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -2498,10 +2498,10 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.09659377506388116</v>
+        <v>0.09659206473949543</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.02228323734634187</v>
+        <v>-0.0254953248825458</v>
       </c>
       <c r="C188" t="n">
         <v>1</v>
@@ -2509,10 +2509,10 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.152352130298329</v>
+        <v>0.1523522583890033</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.04043598793028837</v>
+        <v>-0.04682088376913059</v>
       </c>
       <c r="C189" t="n">
         <v>1</v>
@@ -2520,10 +2520,10 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.1632329948868317</v>
+        <v>0.1632361083273751</v>
       </c>
       <c r="B190" t="n">
-        <v>0.1110977945903601</v>
+        <v>0.1143681062683467</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -2531,10 +2531,10 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.1898233461877244</v>
+        <v>0.1898224978113368</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.08628589243871562</v>
+        <v>-0.08732453743296412</v>
       </c>
       <c r="C191" t="n">
         <v>1</v>
@@ -2542,10 +2542,10 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.1909070177488631</v>
+        <v>0.1909083265015169</v>
       </c>
       <c r="B192" t="n">
-        <v>0.002465156967852372</v>
+        <v>-0.002717034792784453</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -2553,10 +2553,10 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.1500806800942253</v>
+        <v>0.1500785130460225</v>
       </c>
       <c r="B193" t="n">
-        <v>0.01463690641665632</v>
+        <v>0.005194874400487554</v>
       </c>
       <c r="C193" t="n">
         <v>1</v>
@@ -2564,10 +2564,10 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.1007342251717471</v>
+        <v>0.1007399226537952</v>
       </c>
       <c r="B194" t="n">
-        <v>0.06053924284969657</v>
+        <v>0.06133262654894137</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -2575,10 +2575,10 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.1491595485817443</v>
+        <v>0.1491656178378106</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.03304444224519545</v>
+        <v>-0.03262657052274971</v>
       </c>
       <c r="C195" t="n">
         <v>1</v>
@@ -2586,10 +2586,10 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.2012705597723168</v>
+        <v>0.2012778224017198</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.05074119986134294</v>
+        <v>-0.05416047783028304</v>
       </c>
       <c r="C196" t="n">
         <v>1</v>
@@ -2597,10 +2597,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.09134579607527239</v>
+        <v>0.09135661117799616</v>
       </c>
       <c r="B197" t="n">
-        <v>0.1208662628944639</v>
+        <v>0.120884314976773</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.2140967372427179</v>
+        <v>0.2141003091683988</v>
       </c>
       <c r="B198" t="n">
-        <v>0.1749930514211854</v>
+        <v>0.1914008304481853</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -2619,10 +2619,10 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.06226497023536033</v>
+        <v>0.06226525497700183</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.03181859563917289</v>
+        <v>-0.0354822174454985</v>
       </c>
       <c r="C199" t="n">
         <v>1</v>
@@ -2630,10 +2630,10 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.1646862087186607</v>
+        <v>0.1646799103777576</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.03903278954030501</v>
+        <v>-0.03765441917283463</v>
       </c>
       <c r="C200" t="n">
         <v>1</v>
@@ -2641,10 +2641,10 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.07813134683889328</v>
+        <v>0.07813166722342084</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0418312783547936</v>
+        <v>0.03794366088816732</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -2652,10 +2652,10 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.2038292948812737</v>
+        <v>0.2038376174033703</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.1750442189173081</v>
+        <v>-0.1586565727815675</v>
       </c>
       <c r="C202" t="n">
         <v>1</v>
@@ -2663,10 +2663,10 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.09232062787416227</v>
+        <v>0.09232414055299688</v>
       </c>
       <c r="B203" t="n">
-        <v>0.03362158067533158</v>
+        <v>0.03998013860278498</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -2674,10 +2674,10 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.08900950785025233</v>
+        <v>0.08901233740549236</v>
       </c>
       <c r="B204" t="n">
-        <v>0.03589946057694829</v>
+        <v>0.0378619662699786</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.09348952755681955</v>
+        <v>0.0934958291418386</v>
       </c>
       <c r="B205" t="n">
-        <v>0.006106881740973296</v>
+        <v>0.006095944578705473</v>
       </c>
       <c r="C205" t="n">
         <v>1</v>
@@ -2696,10 +2696,10 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.1513152261933074</v>
+        <v>0.1513165620992517</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.02386594289786485</v>
+        <v>-0.02470851179472327</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -2707,10 +2707,10 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.2888951219406929</v>
+        <v>0.288900614460104</v>
       </c>
       <c r="B207" t="n">
-        <v>0.1447242922939208</v>
+        <v>0.1467476262651695</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -2718,10 +2718,10 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.1675599163092711</v>
+        <v>0.1675519413124959</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.02637361552538358</v>
+        <v>-0.01886658924597241</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -2729,10 +2729,10 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.1261584510466586</v>
+        <v>0.1261420446839123</v>
       </c>
       <c r="B209" t="n">
-        <v>0.03275404697249311</v>
+        <v>0.02208078484024896</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -2740,10 +2740,10 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.2105937204889642</v>
+        <v>0.2105884588545913</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.04969755117585612</v>
+        <v>-0.04172944386488116</v>
       </c>
       <c r="C210" t="n">
         <v>1</v>
@@ -2751,10 +2751,10 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.1362304018712115</v>
+        <v>0.1362322450269255</v>
       </c>
       <c r="B211" t="n">
-        <v>0.04879810914672173</v>
+        <v>0.05244533148430433</v>
       </c>
       <c r="C211" t="n">
         <v>1</v>
@@ -2762,10 +2762,10 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.2629468586897139</v>
+        <v>0.2629435776764273</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.03578972587399307</v>
+        <v>-0.05538567859430014</v>
       </c>
       <c r="C212" t="n">
         <v>1</v>
@@ -2773,10 +2773,10 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.06202263814536001</v>
+        <v>0.06202138837271765</v>
       </c>
       <c r="B213" t="n">
-        <v>0.03253383450568405</v>
+        <v>0.0350773520765605</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -2784,10 +2784,10 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.08818153722572085</v>
+        <v>0.08817325401454765</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.0289458125370323</v>
+        <v>-0.02746931420905408</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -2795,10 +2795,10 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.1544653151243813</v>
+        <v>0.1544736628600268</v>
       </c>
       <c r="B215" t="n">
-        <v>-0.001457623181394519</v>
+        <v>0.01141754494236412</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.09396128912782832</v>
+        <v>0.09395830004601056</v>
       </c>
       <c r="B216" t="n">
-        <v>0.06938601977930364</v>
+        <v>0.06389754754222716</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -2817,10 +2817,10 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.153850370648669</v>
+        <v>0.1538481852031326</v>
       </c>
       <c r="B217" t="n">
-        <v>0.01747403335035651</v>
+        <v>0.01490428498826349</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -2828,10 +2828,10 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.3452501244330455</v>
+        <v>0.3452473284757553</v>
       </c>
       <c r="B218" t="n">
-        <v>0.1039589919528753</v>
+        <v>0.0888216000707908</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0.1683414267776912</v>
+        <v>0.1683397005050412</v>
       </c>
       <c r="B219" t="n">
-        <v>0.134579759830165</v>
+        <v>0.1427398868214341</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -2850,10 +2850,10 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.1197154818442369</v>
+        <v>0.119704615923669</v>
       </c>
       <c r="B220" t="n">
-        <v>0.3225687672137041</v>
+        <v>0.3205991355382622</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -2861,10 +2861,10 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.08816974718504601</v>
+        <v>0.08816646310689254</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.03259754453702646</v>
+        <v>-0.03214035301377952</v>
       </c>
       <c r="C221" t="n">
         <v>1</v>
@@ -2883,10 +2883,10 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.160314299187245</v>
+        <v>0.1603145480470033</v>
       </c>
       <c r="B223" t="n">
-        <v>0.05868817292391721</v>
+        <v>0.05733602483766084</v>
       </c>
       <c r="C223" t="n">
         <v>1</v>
@@ -2894,10 +2894,10 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.08309193278061602</v>
+        <v>0.08308887039689111</v>
       </c>
       <c r="B224" t="n">
-        <v>0.01008108903021806</v>
+        <v>0.004714508990734783</v>
       </c>
       <c r="C224" t="n">
         <v>1</v>
@@ -2905,10 +2905,10 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.2860702944783393</v>
+        <v>0.2860622706393379</v>
       </c>
       <c r="B225" t="n">
-        <v>0.07082375463326696</v>
+        <v>0.06924310996975541</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.169337714007953</v>
+        <v>0.1693319756182489</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.08203591201428714</v>
+        <v>-0.08429182740687315</v>
       </c>
       <c r="C226" t="n">
         <v>1</v>
@@ -2927,10 +2927,10 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.1211384405757146</v>
+        <v>0.1211440554868647</v>
       </c>
       <c r="B227" t="n">
-        <v>0.1871381965255772</v>
+        <v>0.1930023034664882</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -2938,10 +2938,10 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.128988366039901</v>
+        <v>0.1289881841684389</v>
       </c>
       <c r="B228" t="n">
-        <v>0.1705936968099885</v>
+        <v>0.1697368360716059</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.1309585083412255</v>
+        <v>0.1309658998315153</v>
       </c>
       <c r="B229" t="n">
-        <v>0.04223729195255024</v>
+        <v>0.04585119985949432</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -2960,10 +2960,10 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.256726603883164</v>
+        <v>0.2567269634533698</v>
       </c>
       <c r="B230" t="n">
-        <v>0.01547889662595171</v>
+        <v>0.01107002767936179</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -2971,10 +2971,10 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.3614403896144456</v>
+        <v>0.3614433517393479</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.131293335048408</v>
+        <v>-0.1266896587353629</v>
       </c>
       <c r="C231" t="n">
         <v>1</v>
@@ -2982,10 +2982,10 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.2074461970693177</v>
+        <v>0.2074495852512565</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.0494027280536293</v>
+        <v>-0.04713878428987175</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -2993,10 +2993,10 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.316811822945433</v>
+        <v>0.3168129409458607</v>
       </c>
       <c r="B233" t="n">
-        <v>0.0886182651381842</v>
+        <v>0.08303809032386013</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -3004,10 +3004,10 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.1419763852193151</v>
+        <v>0.1419754211550341</v>
       </c>
       <c r="B234" t="n">
-        <v>0.0007753730309942447</v>
+        <v>0.004135917412613368</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.1124323470818251</v>
+        <v>0.1124331601261523</v>
       </c>
       <c r="B235" t="n">
-        <v>0.06295492503217963</v>
+        <v>0.0535038921509863</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -3026,10 +3026,10 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.2369137325364319</v>
+        <v>0.2369139754383237</v>
       </c>
       <c r="B236" t="n">
-        <v>0.02480202014287693</v>
+        <v>0.02782489859150863</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -3037,10 +3037,10 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.1764314635460423</v>
+        <v>0.1764243086113479</v>
       </c>
       <c r="B237" t="n">
-        <v>0.002077042992534776</v>
+        <v>-0.001451540886206087</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -3048,10 +3048,10 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.09834496902139862</v>
+        <v>0.09834519321500601</v>
       </c>
       <c r="B238" t="n">
-        <v>0.1383485634785514</v>
+        <v>0.1359648539075566</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -3059,10 +3059,10 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.1876939295553834</v>
+        <v>0.1876946387950931</v>
       </c>
       <c r="B239" t="n">
-        <v>0.01864502866434851</v>
+        <v>0.02547229920853201</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -3070,10 +3070,10 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.1156244503136881</v>
+        <v>0.1156338142108891</v>
       </c>
       <c r="B240" t="n">
-        <v>0.05967150716580875</v>
+        <v>0.06168650084929963</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -3081,10 +3081,10 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.1395772628205048</v>
+        <v>0.139581390444348</v>
       </c>
       <c r="B241" t="n">
-        <v>0.07004127140588963</v>
+        <v>0.08128484782972799</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -3092,10 +3092,10 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0.07005333871490779</v>
+        <v>0.07005843338235794</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.1312067425603633</v>
+        <v>-0.1244286313796761</v>
       </c>
       <c r="C242" t="n">
         <v>1</v>
@@ -3103,10 +3103,10 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.1883975045416615</v>
+        <v>0.1884059410353865</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.07242843935620365</v>
+        <v>-0.07039609150162242</v>
       </c>
       <c r="C243" t="n">
         <v>1</v>
@@ -3114,10 +3114,10 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.1237655269817581</v>
+        <v>0.1237636314735351</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.02406106091580363</v>
+        <v>-0.03194710927119965</v>
       </c>
       <c r="C244" t="n">
         <v>1</v>
@@ -3125,10 +3125,10 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0.1716766603692511</v>
+        <v>0.1716902243864226</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.2625787942434912</v>
+        <v>-0.2451698507818451</v>
       </c>
       <c r="C245" t="n">
         <v>1</v>
@@ -3136,10 +3136,10 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.1217513883502002</v>
+        <v>0.1217525601912629</v>
       </c>
       <c r="B246" t="n">
-        <v>0.08880630572188375</v>
+        <v>0.08483047954063713</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -3147,10 +3147,10 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.1770267638889935</v>
+        <v>0.1770244871480681</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.1088760674536733</v>
+        <v>-0.1120808591072724</v>
       </c>
       <c r="C247" t="n">
         <v>1</v>
@@ -3158,10 +3158,10 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.1368187248824685</v>
+        <v>0.1368215753020931</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.06175118153280813</v>
+        <v>-0.06737283539188099</v>
       </c>
       <c r="C248" t="n">
         <v>1</v>
@@ -3169,10 +3169,10 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.06937806162670508</v>
+        <v>0.06938001985566677</v>
       </c>
       <c r="B249" t="n">
-        <v>0.05418176349449041</v>
+        <v>0.05743406885924933</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -3180,10 +3180,10 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0.2404958137828721</v>
+        <v>0.2404895872467171</v>
       </c>
       <c r="B250" t="n">
-        <v>0.002775917365023388</v>
+        <v>0.006616119774782851</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -3191,10 +3191,10 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.1408375491114997</v>
+        <v>0.1408486415352023</v>
       </c>
       <c r="B251" t="n">
-        <v>0.1042374223051057</v>
+        <v>0.1113916175518744</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0.1620925923077089</v>
+        <v>0.1620924019465488</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.0309191343716213</v>
+        <v>-0.02426185113536428</v>
       </c>
       <c r="C252" t="n">
         <v>1</v>
@@ -3213,10 +3213,10 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0.203781101307068</v>
+        <v>0.2037803114040463</v>
       </c>
       <c r="B253" t="n">
-        <v>0.01987809658678648</v>
+        <v>0.02573407447828222</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -3224,10 +3224,10 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0.2541959686745383</v>
+        <v>0.2541843946865576</v>
       </c>
       <c r="B254" t="n">
-        <v>0.1093521612193736</v>
+        <v>0.1176658797283552</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>0.2357672888153001</v>
+        <v>0.2357763732355231</v>
       </c>
       <c r="B255" t="n">
-        <v>-0.167028516514787</v>
+        <v>-0.1653896436667175</v>
       </c>
       <c r="C255" t="n">
         <v>1</v>
@@ -3246,10 +3246,10 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0.08504381702195937</v>
+        <v>0.08505004113673478</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.01386789899744145</v>
+        <v>-0.00810497900551321</v>
       </c>
       <c r="C256" t="n">
         <v>1</v>
@@ -3257,10 +3257,10 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0.0731936969328052</v>
+        <v>0.07319428621321243</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.02418340276501837</v>
+        <v>-0.02916429557801123</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -3268,10 +3268,10 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0.09853194289838769</v>
+        <v>0.09853130560150208</v>
       </c>
       <c r="B258" t="n">
-        <v>0.001791736235477976</v>
+        <v>0.003347792278968316</v>
       </c>
       <c r="C258" t="n">
         <v>1</v>
@@ -3279,10 +3279,10 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.1458760451564253</v>
+        <v>0.1458677271489021</v>
       </c>
       <c r="B259" t="n">
-        <v>0.05132405164425435</v>
+        <v>0.05251148813493382</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -3290,10 +3290,10 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0.1548853680661887</v>
+        <v>0.1548842269419379</v>
       </c>
       <c r="B260" t="n">
-        <v>-0.0006953039319203314</v>
+        <v>0.008942218745355354</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -3301,10 +3301,10 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.1990808447926465</v>
+        <v>0.1990863520859674</v>
       </c>
       <c r="B261" t="n">
-        <v>0.04501937365945241</v>
+        <v>0.05560397773209651</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -3312,10 +3312,10 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0.2646587704382448</v>
+        <v>0.2646626273990901</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.01815727570643023</v>
+        <v>-0.008942820362487607</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -3323,10 +3323,10 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.1057017504641127</v>
+        <v>0.1057031854561431</v>
       </c>
       <c r="B263" t="n">
-        <v>0.1184205397291855</v>
+        <v>0.1150078872639485</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -3334,10 +3334,10 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>0.2540650438127008</v>
+        <v>0.2540601166080464</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.1067799500237265</v>
+        <v>-0.0973933690493215</v>
       </c>
       <c r="C264" t="n">
         <v>1</v>
@@ -3345,10 +3345,10 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>0.03891369919752247</v>
+        <v>0.03891653598349525</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.01274940087219113</v>
+        <v>-0.01156697611103671</v>
       </c>
       <c r="C265" t="n">
         <v>1</v>
@@ -3356,10 +3356,10 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.2068992239968097</v>
+        <v>0.2068986982125331</v>
       </c>
       <c r="B266" t="n">
-        <v>-0.1803020991123959</v>
+        <v>-0.1696416915622055</v>
       </c>
       <c r="C266" t="n">
         <v>1</v>
@@ -3367,10 +3367,10 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.1390330306173125</v>
+        <v>0.1390422601755717</v>
       </c>
       <c r="B267" t="n">
-        <v>0.04262999494350907</v>
+        <v>0.04515575645267111</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -3378,10 +3378,10 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>0.08352814848156266</v>
+        <v>0.0835255404011998</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.0076194756070739</v>
+        <v>-0.008035578636537385</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -3389,10 +3389,10 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.2094480858447461</v>
+        <v>0.2094475338381527</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.00963018094423591</v>
+        <v>-0.02429812097264016</v>
       </c>
       <c r="C269" t="n">
         <v>1</v>
@@ -3400,10 +3400,10 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0.1525362212774005</v>
+        <v>0.1525344428580268</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.03133230706076927</v>
+        <v>-0.02902632945376704</v>
       </c>
       <c r="C270" t="n">
         <v>1</v>
@@ -3411,10 +3411,10 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0.213417227604727</v>
+        <v>0.2134040906233491</v>
       </c>
       <c r="B271" t="n">
-        <v>-0.08004128095647609</v>
+        <v>-0.09833606245233099</v>
       </c>
       <c r="C271" t="n">
         <v>1</v>
@@ -3422,10 +3422,10 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.2249908643453551</v>
+        <v>0.2249885310468822</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.03809848604991117</v>
+        <v>-0.04548608389850936</v>
       </c>
       <c r="C272" t="n">
         <v>1</v>
@@ -3433,10 +3433,10 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.08655761954312488</v>
+        <v>0.08655429254928611</v>
       </c>
       <c r="B273" t="n">
-        <v>-0.03600049808900886</v>
+        <v>-0.04527823434359683</v>
       </c>
       <c r="C273" t="n">
         <v>1</v>
@@ -3444,10 +3444,10 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0.2113554007706768</v>
+        <v>0.2113498604360118</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.06587664160806932</v>
+        <v>-0.08441645543726366</v>
       </c>
       <c r="C274" t="n">
         <v>1</v>
@@ -3455,10 +3455,10 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>0.1468541975278663</v>
+        <v>0.1468566703944209</v>
       </c>
       <c r="B275" t="n">
-        <v>0.02687617954276815</v>
+        <v>0.02859713726439971</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -3466,10 +3466,10 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.0987966554475934</v>
+        <v>0.09879582001485897</v>
       </c>
       <c r="B276" t="n">
-        <v>0.05988694604252001</v>
+        <v>0.05927357411746061</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>0.1472636139755925</v>
+        <v>0.1472718652698352</v>
       </c>
       <c r="B277" t="n">
-        <v>-0.1386366116124031</v>
+        <v>-0.127731106107464</v>
       </c>
       <c r="C277" t="n">
         <v>1</v>
@@ -3488,10 +3488,10 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0.2154354819913956</v>
+        <v>0.2154326440216442</v>
       </c>
       <c r="B278" t="n">
-        <v>-0.07786823222460573</v>
+        <v>-0.07522221940790987</v>
       </c>
       <c r="C278" t="n">
         <v>1</v>
@@ -3499,10 +3499,10 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>0.2219679500498764</v>
+        <v>0.2219683326518841</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.05182951483109365</v>
+        <v>-0.05930119850846009</v>
       </c>
       <c r="C279" t="n">
         <v>1</v>
@@ -3510,10 +3510,10 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0.07029792042669128</v>
+        <v>0.07029493482571193</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.0293505855662762</v>
+        <v>-0.03368722510306053</v>
       </c>
       <c r="C280" t="n">
         <v>1</v>
@@ -3521,10 +3521,10 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0.1646470785966682</v>
+        <v>0.1646494286344601</v>
       </c>
       <c r="B281" t="n">
-        <v>-0.04368508852938234</v>
+        <v>-0.04443793333147578</v>
       </c>
       <c r="C281" t="n">
         <v>1</v>
@@ -3532,10 +3532,10 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>0.1934716439701459</v>
+        <v>0.1934747955875183</v>
       </c>
       <c r="B282" t="n">
-        <v>-0.1923860756317825</v>
+        <v>-0.1768052216041773</v>
       </c>
       <c r="C282" t="n">
         <v>1</v>
@@ -3543,10 +3543,10 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0.2211940669871809</v>
+        <v>0.2212074663879394</v>
       </c>
       <c r="B283" t="n">
-        <v>-0.2758954140890693</v>
+        <v>-0.2617482014533543</v>
       </c>
       <c r="C283" t="n">
         <v>1</v>
@@ -3554,10 +3554,10 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0.1046506372893231</v>
+        <v>0.104647752808573</v>
       </c>
       <c r="B284" t="n">
-        <v>0.008844604704602427</v>
+        <v>-0.001916411565395537</v>
       </c>
       <c r="C284" t="n">
         <v>1</v>
@@ -3565,10 +3565,10 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0.1654167713884778</v>
+        <v>0.1654159572510124</v>
       </c>
       <c r="B285" t="n">
-        <v>0.00765585502938006</v>
+        <v>-0.008910922294313081</v>
       </c>
       <c r="C285" t="n">
         <v>1</v>
@@ -3576,10 +3576,10 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>0.1801448256876464</v>
+        <v>0.1801428183006067</v>
       </c>
       <c r="B286" t="n">
-        <v>-0.04167596122758557</v>
+        <v>-0.04197725316646586</v>
       </c>
       <c r="C286" t="n">
         <v>1</v>
@@ -3587,10 +3587,10 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>0.1848420810957047</v>
+        <v>0.1848367077309472</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.03308784841319724</v>
+        <v>-0.04418590619995931</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -3598,10 +3598,10 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0.09179996038327892</v>
+        <v>0.09180125059027922</v>
       </c>
       <c r="B288" t="n">
-        <v>0.06222502425114304</v>
+        <v>0.05919691538870583</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -3609,10 +3609,10 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>0.2613277332842005</v>
+        <v>0.2613247795914333</v>
       </c>
       <c r="B289" t="n">
-        <v>-0.05704272992803208</v>
+        <v>-0.06157714236233335</v>
       </c>
       <c r="C289" t="n">
         <v>1</v>
@@ -3620,10 +3620,10 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>0.0463958798532496</v>
+        <v>0.04639146630754506</v>
       </c>
       <c r="B290" t="n">
-        <v>0.03204630865106664</v>
+        <v>0.02754851800141514</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -3631,10 +3631,10 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>0.0654512717406435</v>
+        <v>0.06545168620336486</v>
       </c>
       <c r="B291" t="n">
-        <v>0.02298971848945485</v>
+        <v>0.02385428763196211</v>
       </c>
       <c r="C291" t="n">
         <v>1</v>
@@ -3642,10 +3642,10 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>0.1015704134069144</v>
+        <v>0.1015724308420975</v>
       </c>
       <c r="B292" t="n">
-        <v>0.1159767653220486</v>
+        <v>0.1167624254478033</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -3653,10 +3653,10 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>0.2213094635113849</v>
+        <v>0.2213082832028238</v>
       </c>
       <c r="B293" t="n">
-        <v>0.05730677866550389</v>
+        <v>0.05811047342908923</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -3664,10 +3664,10 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>0.1481074333457473</v>
+        <v>0.1481040618381002</v>
       </c>
       <c r="B294" t="n">
-        <v>0.03203765259406484</v>
+        <v>0.02295354369849776</v>
       </c>
       <c r="C294" t="n">
         <v>1</v>
@@ -3675,10 +3675,10 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>0.2068827439445132</v>
+        <v>0.2068826829984712</v>
       </c>
       <c r="B295" t="n">
-        <v>-0.04154698887333792</v>
+        <v>-0.04428663729966939</v>
       </c>
       <c r="C295" t="n">
         <v>1</v>
@@ -3686,10 +3686,10 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0.2178599480007948</v>
+        <v>0.2178602410097777</v>
       </c>
       <c r="B296" t="n">
-        <v>0.01851534617772951</v>
+        <v>0.02696904268804202</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -3697,10 +3697,10 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0.2048720539491297</v>
+        <v>0.204884402367396</v>
       </c>
       <c r="B297" t="n">
-        <v>0.1560995214572546</v>
+        <v>0.1615091247911646</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>0.08524451866433171</v>
+        <v>0.08524006768006553</v>
       </c>
       <c r="B298" t="n">
-        <v>0.007878004807572257</v>
+        <v>-0.0005665051863111346</v>
       </c>
       <c r="C298" t="n">
         <v>1</v>
@@ -3719,10 +3719,10 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>0.185281829745602</v>
+        <v>0.1852795238178539</v>
       </c>
       <c r="B299" t="n">
-        <v>0.05831695056578556</v>
+        <v>0.05471853565335538</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -3730,10 +3730,10 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>0.1836287636785748</v>
+        <v>0.1836360163293764</v>
       </c>
       <c r="B300" t="n">
-        <v>-0.07920942533057765</v>
+        <v>-0.07088158508073127</v>
       </c>
       <c r="C300" t="n">
         <v>1</v>
@@ -3741,10 +3741,10 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>0.2086911707879192</v>
+        <v>0.2086962980524515</v>
       </c>
       <c r="B301" t="n">
-        <v>0.1014756297483458</v>
+        <v>0.1036015071160819</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -3752,10 +3752,10 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>0.1192497182048283</v>
+        <v>0.1192401156713946</v>
       </c>
       <c r="B302" t="n">
-        <v>0.1579629732914868</v>
+        <v>0.1464837433444631</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -3763,10 +3763,10 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>0.1157986540955212</v>
+        <v>0.115794950223201</v>
       </c>
       <c r="B303" t="n">
-        <v>0.1460679750374874</v>
+        <v>0.1399291609490694</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -3774,10 +3774,10 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>0.1096021442168076</v>
+        <v>0.1095924464407886</v>
       </c>
       <c r="B304" t="n">
-        <v>0.326776918899113</v>
+        <v>0.3241050209820858</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -3785,10 +3785,10 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>0.03054405206402029</v>
+        <v>0.03055036340225216</v>
       </c>
       <c r="B305" t="n">
-        <v>0.0217709378067855</v>
+        <v>0.02262219558983387</v>
       </c>
       <c r="C305" t="n">
         <v>1</v>
@@ -3796,10 +3796,10 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>0.1509395267882079</v>
+        <v>0.150935798206644</v>
       </c>
       <c r="B306" t="n">
-        <v>0.06538369805525805</v>
+        <v>0.05288953757470133</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -3807,10 +3807,10 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>0.1632797568969969</v>
+        <v>0.1632712306483754</v>
       </c>
       <c r="B307" t="n">
-        <v>-0.03602432380295379</v>
+        <v>-0.03840164779967188</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -3818,10 +3818,10 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>0.1550988764513971</v>
+        <v>0.1551028576534449</v>
       </c>
       <c r="B308" t="n">
-        <v>-0.03329841291566714</v>
+        <v>-0.03405852078943965</v>
       </c>
       <c r="C308" t="n">
         <v>1</v>
@@ -3840,10 +3840,10 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>0.08196665215610319</v>
+        <v>0.0819680418330947</v>
       </c>
       <c r="B310" t="n">
-        <v>0.03654134502100932</v>
+        <v>0.03916772371747254</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -3851,10 +3851,10 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>0.1127665501254092</v>
+        <v>0.1127607939316496</v>
       </c>
       <c r="B311" t="n">
-        <v>0.3324683325710974</v>
+        <v>0.3322453794906323</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -3862,10 +3862,10 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>0.151037630045829</v>
+        <v>0.1510265778941908</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.03485951873408449</v>
+        <v>-0.05155656795517102</v>
       </c>
       <c r="C312" t="n">
         <v>1</v>
@@ -3873,10 +3873,10 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>0.1401976699333217</v>
+        <v>0.1402018001148347</v>
       </c>
       <c r="B313" t="n">
-        <v>0.04742915162635582</v>
+        <v>0.04292354200450042</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -3884,10 +3884,10 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>0.1315252158319017</v>
+        <v>0.1315255775971592</v>
       </c>
       <c r="B314" t="n">
-        <v>0.001732673734913349</v>
+        <v>-0.0003179778179422769</v>
       </c>
       <c r="C314" t="n">
         <v>1</v>
@@ -3895,10 +3895,10 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>0.1496693406346042</v>
+        <v>0.1496585546364514</v>
       </c>
       <c r="B315" t="n">
-        <v>-0.07823468849525858</v>
+        <v>-0.08332725246034632</v>
       </c>
       <c r="C315" t="n">
         <v>1</v>
@@ -3906,10 +3906,10 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>0.1341984760771144</v>
+        <v>0.1341986258487944</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.04172381938797994</v>
+        <v>-0.03400111255392163</v>
       </c>
       <c r="C316" t="n">
         <v>1</v>
@@ -3917,10 +3917,10 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>0.07255663822095018</v>
+        <v>0.07253274339197692</v>
       </c>
       <c r="B317" t="n">
-        <v>0.30786467290619</v>
+        <v>0.2957968476506488</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -3928,10 +3928,10 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>0.298972019384586</v>
+        <v>0.2989664339237279</v>
       </c>
       <c r="B318" t="n">
-        <v>0.06722786531732941</v>
+        <v>0.06028072943090303</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -3939,10 +3939,10 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>0.1004248788810716</v>
+        <v>0.1004277061556791</v>
       </c>
       <c r="B319" t="n">
-        <v>0.03148756269201097</v>
+        <v>0.03137492423989926</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -3950,10 +3950,10 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>0.1300520141433096</v>
+        <v>0.1300568153657903</v>
       </c>
       <c r="B320" t="n">
-        <v>0.01639371880594689</v>
+        <v>0.01551583833244603</v>
       </c>
       <c r="C320" t="n">
         <v>1</v>
@@ -3961,10 +3961,10 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>0.03400560138823324</v>
+        <v>0.03400356383194419</v>
       </c>
       <c r="B321" t="n">
-        <v>-0.05289433871582011</v>
+        <v>-0.053822700828212</v>
       </c>
       <c r="C321" t="n">
         <v>1</v>
@@ -3972,10 +3972,10 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>0.1053631787299752</v>
+        <v>0.1053653612450895</v>
       </c>
       <c r="B322" t="n">
-        <v>0.1084275279098358</v>
+        <v>0.1157372771110649</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -3983,10 +3983,10 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>0.1780856485307502</v>
+        <v>0.1780784567233192</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.001437178868395608</v>
+        <v>0.009767443700124435</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -3994,10 +3994,10 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>0.1221424678044492</v>
+        <v>0.1221445760716965</v>
       </c>
       <c r="B324" t="n">
-        <v>0.05886777128797004</v>
+        <v>0.0474521097245172</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -4005,10 +4005,10 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>0.18570908289743</v>
+        <v>0.185711559656655</v>
       </c>
       <c r="B325" t="n">
-        <v>0.162001025332206</v>
+        <v>0.1681648602339877</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -4016,10 +4016,10 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>0.3033628107218082</v>
+        <v>0.3033583996539553</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.05820270233771212</v>
+        <v>-0.06427937502388004</v>
       </c>
       <c r="C326" t="n">
         <v>1</v>
@@ -4027,10 +4027,10 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>0.1229226097416671</v>
+        <v>0.1229161673910568</v>
       </c>
       <c r="B327" t="n">
-        <v>0.02563381488808361</v>
+        <v>0.02885556650598154</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -4038,10 +4038,10 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>0.0881472059475355</v>
+        <v>0.08814922731604105</v>
       </c>
       <c r="B328" t="n">
-        <v>0.04384115818865313</v>
+        <v>0.03943196013638945</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -4049,10 +4049,10 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>0.2880750198218803</v>
+        <v>0.2880775947551352</v>
       </c>
       <c r="B329" t="n">
-        <v>-0.06327893229442065</v>
+        <v>-0.05938592699276894</v>
       </c>
       <c r="C329" t="n">
         <v>1</v>
@@ -4060,10 +4060,10 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>0.2455232279676225</v>
+        <v>0.2455337865960313</v>
       </c>
       <c r="B330" t="n">
-        <v>0.04510864708454584</v>
+        <v>0.0410410917102764</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>0.205601812389077</v>
+        <v>0.2056010615085535</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.02543157482738394</v>
+        <v>-0.02710912471931785</v>
       </c>
       <c r="C331" t="n">
         <v>1</v>
@@ -4082,10 +4082,10 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>0.133519422561113</v>
+        <v>0.1335254093930714</v>
       </c>
       <c r="B332" t="n">
-        <v>0.1220182053526856</v>
+        <v>0.1224280288816066</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -4093,10 +4093,10 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>0.193480643089433</v>
+        <v>0.1934856429854821</v>
       </c>
       <c r="B333" t="n">
-        <v>-0.1302813951772495</v>
+        <v>-0.135231874217503</v>
       </c>
       <c r="C333" t="n">
         <v>1</v>
@@ -4104,10 +4104,10 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>0.09794120177396638</v>
+        <v>0.09794052947736279</v>
       </c>
       <c r="B334" t="n">
-        <v>0.02973453878586151</v>
+        <v>0.02639399959670146</v>
       </c>
       <c r="C334" t="n">
         <v>1</v>
@@ -4115,10 +4115,10 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>0.09415373958076026</v>
+        <v>0.09417847545672114</v>
       </c>
       <c r="B335" t="n">
-        <v>0.1457891046070814</v>
+        <v>0.1558905762919923</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -4126,10 +4126,10 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>0.02356389010697116</v>
+        <v>0.02357079007366816</v>
       </c>
       <c r="B336" t="n">
-        <v>-0.01123847782783584</v>
+        <v>-0.008706670576565274</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -4137,10 +4137,10 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>0.2388464902302417</v>
+        <v>0.2388417936994568</v>
       </c>
       <c r="B337" t="n">
-        <v>0.09076349801388692</v>
+        <v>0.1001179335755823</v>
       </c>
       <c r="C337" t="n">
         <v>1</v>
@@ -4148,10 +4148,10 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>0.2474789000057397</v>
+        <v>0.2474811824072663</v>
       </c>
       <c r="B338" t="n">
-        <v>-0.06956444862183842</v>
+        <v>-0.06834662747834075</v>
       </c>
       <c r="C338" t="n">
         <v>1</v>
@@ -4159,10 +4159,10 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>0.2496139412398807</v>
+        <v>0.2496017109125614</v>
       </c>
       <c r="B339" t="n">
-        <v>0.05795782037061378</v>
+        <v>0.05478439035848688</v>
       </c>
       <c r="C339" t="n">
         <v>1</v>
@@ -4170,10 +4170,10 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>0.253044164249428</v>
+        <v>0.2530450081516171</v>
       </c>
       <c r="B340" t="n">
-        <v>0.1352461301646914</v>
+        <v>0.1323003965684784</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -4181,10 +4181,10 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>0.1441992638871871</v>
+        <v>0.1441992748716572</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.07200834544701483</v>
+        <v>-0.06425203934915032</v>
       </c>
       <c r="C341" t="n">
         <v>1</v>
@@ -4192,10 +4192,10 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>0.09367588353608206</v>
+        <v>0.0936768200001013</v>
       </c>
       <c r="B342" t="n">
-        <v>0.1660733476703388</v>
+        <v>0.1714151709584778</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -4203,10 +4203,10 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>0.2306116896787073</v>
+        <v>0.2306183341886354</v>
       </c>
       <c r="B343" t="n">
-        <v>-0.2073563667596084</v>
+        <v>-0.200058620098868</v>
       </c>
       <c r="C343" t="n">
         <v>1</v>
@@ -4214,10 +4214,10 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>0.1369826094073925</v>
+        <v>0.136981037933518</v>
       </c>
       <c r="B344" t="n">
-        <v>0.2678528474474561</v>
+        <v>0.2759372460388009</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -4225,10 +4225,10 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>0.1765011683022265</v>
+        <v>0.1765091168506114</v>
       </c>
       <c r="B345" t="n">
-        <v>-0.008580697358175607</v>
+        <v>-0.004736093414936665</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -4236,10 +4236,10 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>0.1925326362132964</v>
+        <v>0.1925357426751056</v>
       </c>
       <c r="B346" t="n">
-        <v>-0.02429411102629951</v>
+        <v>-0.03216889570572581</v>
       </c>
       <c r="C346" t="n">
         <v>1</v>
@@ -4247,10 +4247,10 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>0.06058680705922376</v>
+        <v>0.0605880533173923</v>
       </c>
       <c r="B347" t="n">
-        <v>0.044360734425298</v>
+        <v>0.04098248483283659</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -4258,10 +4258,10 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>0.1495483796305114</v>
+        <v>0.1495373680975058</v>
       </c>
       <c r="B348" t="n">
-        <v>0.06660286856775173</v>
+        <v>0.06324631506550776</v>
       </c>
       <c r="C348" t="n">
         <v>1</v>
@@ -4269,10 +4269,10 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>0.1509356026932784</v>
+        <v>0.1509493465156099</v>
       </c>
       <c r="B349" t="n">
-        <v>0.0552324310823654</v>
+        <v>0.06742607952413887</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -4280,10 +4280,10 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>0.1818426479163104</v>
+        <v>0.1818376612175134</v>
       </c>
       <c r="B350" t="n">
-        <v>-0.0711349145929259</v>
+        <v>-0.07192910157668513</v>
       </c>
       <c r="C350" t="n">
         <v>1</v>
@@ -4302,10 +4302,10 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>0.05146679007324214</v>
+        <v>0.05146610200142859</v>
       </c>
       <c r="B352" t="n">
-        <v>-0.008673912110082418</v>
+        <v>-0.01105770064172093</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -4313,10 +4313,10 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>0.1120439707290585</v>
+        <v>0.1120347174241322</v>
       </c>
       <c r="B353" t="n">
-        <v>0.1215651441219056</v>
+        <v>0.1150408487210937</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -4324,10 +4324,10 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>0.1980453895494877</v>
+        <v>0.198048091509264</v>
       </c>
       <c r="B354" t="n">
-        <v>-0.03264730170578292</v>
+        <v>-0.03355204478700921</v>
       </c>
       <c r="C354" t="n">
         <v>1</v>
@@ -4335,10 +4335,10 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>0.2123975281820552</v>
+        <v>0.2123958533946709</v>
       </c>
       <c r="B355" t="n">
-        <v>-0.01384027997682528</v>
+        <v>-0.004653532945993943</v>
       </c>
       <c r="C355" t="n">
         <v>1</v>
@@ -4346,10 +4346,10 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>0.1616454669340108</v>
+        <v>0.1616454678156697</v>
       </c>
       <c r="B356" t="n">
-        <v>0.07491918740182846</v>
+        <v>0.07334605137670849</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -4357,10 +4357,10 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>0.1618613523260287</v>
+        <v>0.1618693081235805</v>
       </c>
       <c r="B357" t="n">
-        <v>0.01797790455659969</v>
+        <v>0.01986119138901623</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -4368,10 +4368,10 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>0.1190854314176584</v>
+        <v>0.1191047595829528</v>
       </c>
       <c r="B358" t="n">
-        <v>0.1165193805572076</v>
+        <v>0.1250127429176203</v>
       </c>
       <c r="C358" t="n">
         <v>0</v>
@@ -4379,10 +4379,10 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>0.05266105371882136</v>
+        <v>0.05267060965417651</v>
       </c>
       <c r="B359" t="n">
-        <v>-0.1049106304376286</v>
+        <v>-0.0986269615409705</v>
       </c>
       <c r="C359" t="n">
         <v>1</v>
@@ -4390,10 +4390,10 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>0.1574740325611311</v>
+        <v>0.1574681799318558</v>
       </c>
       <c r="B360" t="n">
-        <v>-0.08066083860479864</v>
+        <v>-0.08879526542311572</v>
       </c>
       <c r="C360" t="n">
         <v>1</v>
@@ -4401,10 +4401,10 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>0.1677795664275545</v>
+        <v>0.1677802900639641</v>
       </c>
       <c r="B361" t="n">
-        <v>-0.03926237743081942</v>
+        <v>-0.04690118530241316</v>
       </c>
       <c r="C361" t="n">
         <v>0</v>
@@ -4412,10 +4412,10 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>0.2207154557578495</v>
+        <v>0.2207372856934645</v>
       </c>
       <c r="B362" t="n">
-        <v>0.1320411990527219</v>
+        <v>0.140550936451209</v>
       </c>
       <c r="C362" t="n">
         <v>0</v>
@@ -4423,10 +4423,10 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>0.1876291128151668</v>
+        <v>0.1876182710587917</v>
       </c>
       <c r="B363" t="n">
-        <v>-0.07338874339358248</v>
+        <v>-0.08753900824437957</v>
       </c>
       <c r="C363" t="n">
         <v>1</v>
@@ -4434,10 +4434,10 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>0.1889308723845724</v>
+        <v>0.1889387780676652</v>
       </c>
       <c r="B364" t="n">
-        <v>0.03020916826992651</v>
+        <v>0.03502580410417976</v>
       </c>
       <c r="C364" t="n">
         <v>0</v>
@@ -4445,10 +4445,10 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>0.2118140517586688</v>
+        <v>0.2118027451466759</v>
       </c>
       <c r="B365" t="n">
-        <v>-0.08252176109660489</v>
+        <v>-0.0771388842930507</v>
       </c>
       <c r="C365" t="n">
         <v>1</v>
@@ -4456,10 +4456,10 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>0.2181924934707659</v>
+        <v>0.2181900631783594</v>
       </c>
       <c r="B366" t="n">
-        <v>0.01252543627621707</v>
+        <v>0.01271252442234169</v>
       </c>
       <c r="C366" t="n">
         <v>0</v>
@@ -4467,10 +4467,10 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>0.2918019035116782</v>
+        <v>0.2918149448054673</v>
       </c>
       <c r="B367" t="n">
-        <v>-0.2093633036103107</v>
+        <v>-0.2003412878447162</v>
       </c>
       <c r="C367" t="n">
         <v>1</v>
@@ -4478,10 +4478,10 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>0.1504770600477869</v>
+        <v>0.150477074242578</v>
       </c>
       <c r="B368" t="n">
-        <v>0.308093344671641</v>
+        <v>0.3158387022129883</v>
       </c>
       <c r="C368" t="n">
         <v>0</v>
@@ -4489,10 +4489,10 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>0.2180790288042864</v>
+        <v>0.2180823589263323</v>
       </c>
       <c r="B369" t="n">
-        <v>-0.02551646731366381</v>
+        <v>-0.02313465388684784</v>
       </c>
       <c r="C369" t="n">
         <v>1</v>
@@ -4500,10 +4500,10 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>0.2281551252810689</v>
+        <v>0.2281448208194337</v>
       </c>
       <c r="B370" t="n">
-        <v>-0.0811404145335326</v>
+        <v>-0.0775101670858753</v>
       </c>
       <c r="C370" t="n">
         <v>1</v>
@@ -4522,10 +4522,10 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>0.2124789818175622</v>
+        <v>0.2124855774979649</v>
       </c>
       <c r="B372" t="n">
-        <v>-0.1225267851979503</v>
+        <v>-0.1104785438160686</v>
       </c>
       <c r="C372" t="n">
         <v>1</v>
@@ -4544,10 +4544,10 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>0.132198791930379</v>
+        <v>0.1322041151575681</v>
       </c>
       <c r="B374" t="n">
-        <v>0.06068248625030174</v>
+        <v>0.07928697378093448</v>
       </c>
       <c r="C374" t="n">
         <v>0</v>
@@ -4555,10 +4555,10 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>0.168620729848071</v>
+        <v>0.1686137030885078</v>
       </c>
       <c r="B375" t="n">
-        <v>-0.001988416385417522</v>
+        <v>0.01067996951198837</v>
       </c>
       <c r="C375" t="n">
         <v>1</v>
@@ -4566,10 +4566,10 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>0.2133384160799429</v>
+        <v>0.2133504395925507</v>
       </c>
       <c r="B376" t="n">
-        <v>-0.2582844288837904</v>
+        <v>-0.2494472549243247</v>
       </c>
       <c r="C376" t="n">
         <v>1</v>
@@ -4577,10 +4577,10 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>0.2085273203221625</v>
+        <v>0.2085290834003639</v>
       </c>
       <c r="B377" t="n">
-        <v>0.02782491748154155</v>
+        <v>0.03403685971620744</v>
       </c>
       <c r="C377" t="n">
         <v>0</v>
@@ -4588,10 +4588,10 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>0.1805478953064124</v>
+        <v>0.1805426577971525</v>
       </c>
       <c r="B378" t="n">
-        <v>-0.0112812008847261</v>
+        <v>-0.01640849315737906</v>
       </c>
       <c r="C378" t="n">
         <v>0</v>
@@ -4599,10 +4599,10 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>0.02550152840862285</v>
+        <v>0.02549840977815702</v>
       </c>
       <c r="B379" t="n">
-        <v>-0.01937881340698713</v>
+        <v>-0.02337033211860991</v>
       </c>
       <c r="C379" t="n">
         <v>1</v>
@@ -4610,10 +4610,10 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>0.3375004246355991</v>
+        <v>0.3374977229284836</v>
       </c>
       <c r="B380" t="n">
-        <v>-0.1331125132346002</v>
+        <v>-0.1344991373680623</v>
       </c>
       <c r="C380" t="n">
         <v>1</v>
@@ -4621,10 +4621,10 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>0.138444873002841</v>
+        <v>0.1384414073658564</v>
       </c>
       <c r="B381" t="n">
-        <v>0.0007847606746409427</v>
+        <v>-0.002983544905304926</v>
       </c>
       <c r="C381" t="n">
         <v>1</v>
@@ -4632,10 +4632,10 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>0.08071003728424528</v>
+        <v>0.08071043943825625</v>
       </c>
       <c r="B382" t="n">
-        <v>-0.02580444100294326</v>
+        <v>-0.02977076923215715</v>
       </c>
       <c r="C382" t="n">
         <v>1</v>
@@ -4643,10 +4643,10 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>0.1465276903267016</v>
+        <v>0.1465183167747059</v>
       </c>
       <c r="B383" t="n">
-        <v>-0.00082899558697816</v>
+        <v>-0.01813862380748534</v>
       </c>
       <c r="C383" t="n">
         <v>1</v>
@@ -4654,10 +4654,10 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>0.08392012230615079</v>
+        <v>0.08391979624657854</v>
       </c>
       <c r="B384" t="n">
-        <v>0.112954857670821</v>
+        <v>0.1080771773083735</v>
       </c>
       <c r="C384" t="n">
         <v>0</v>
@@ -4665,10 +4665,10 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>0.1923559986453932</v>
+        <v>0.1923620506263098</v>
       </c>
       <c r="B385" t="n">
-        <v>0.1101690018500326</v>
+        <v>0.1140153019044909</v>
       </c>
       <c r="C385" t="n">
         <v>0</v>
@@ -4676,10 +4676,10 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>0.2805140860206446</v>
+        <v>0.2805075029983475</v>
       </c>
       <c r="B386" t="n">
-        <v>-0.08790341318549169</v>
+        <v>-0.08559679255580763</v>
       </c>
       <c r="C386" t="n">
         <v>1</v>
@@ -4687,10 +4687,10 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>0.09297801462882556</v>
+        <v>0.09295927632788931</v>
       </c>
       <c r="B387" t="n">
-        <v>0.206698661612243</v>
+        <v>0.1918071908647717</v>
       </c>
       <c r="C387" t="n">
         <v>0</v>
@@ -4698,10 +4698,10 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>0.1854467530705262</v>
+        <v>0.1854422728705537</v>
       </c>
       <c r="B388" t="n">
-        <v>0.1095038813091804</v>
+        <v>0.1156957716302195</v>
       </c>
       <c r="C388" t="n">
         <v>0</v>
@@ -4709,10 +4709,10 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>0.1794017477781238</v>
+        <v>0.1794056045429817</v>
       </c>
       <c r="B389" t="n">
-        <v>0.0133381742194526</v>
+        <v>0.01972159067903706</v>
       </c>
       <c r="C389" t="n">
         <v>1</v>
@@ -4720,10 +4720,10 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>0.1863505125724584</v>
+        <v>0.1863398439713456</v>
       </c>
       <c r="B390" t="n">
-        <v>-0.01340305597609521</v>
+        <v>-0.02289758888152035</v>
       </c>
       <c r="C390" t="n">
         <v>0</v>
@@ -4731,10 +4731,10 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>0.1286823464712561</v>
+        <v>0.1286813622206013</v>
       </c>
       <c r="B391" t="n">
-        <v>0.06795575216695787</v>
+        <v>0.06528064833494189</v>
       </c>
       <c r="C391" t="n">
         <v>0</v>
@@ -4742,10 +4742,10 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>0.1303801814992534</v>
+        <v>0.1303723688732148</v>
       </c>
       <c r="B392" t="n">
-        <v>0.03191168514723591</v>
+        <v>0.02339698595907055</v>
       </c>
       <c r="C392" t="n">
         <v>1</v>
@@ -4753,10 +4753,10 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>0.1052815308874349</v>
+        <v>0.1052987488681777</v>
       </c>
       <c r="B393" t="n">
-        <v>0.0490211159833176</v>
+        <v>0.0672727385322086</v>
       </c>
       <c r="C393" t="n">
         <v>0</v>
@@ -4775,10 +4775,10 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>0.08389970953873267</v>
+        <v>0.08390067218683774</v>
       </c>
       <c r="B395" t="n">
-        <v>0.1323659265061257</v>
+        <v>0.1412683376680547</v>
       </c>
       <c r="C395" t="n">
         <v>0</v>
@@ -4786,10 +4786,10 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>0.1697742592852167</v>
+        <v>0.1697703148437127</v>
       </c>
       <c r="B396" t="n">
-        <v>0.01435010243180582</v>
+        <v>0.007095169837710305</v>
       </c>
       <c r="C396" t="n">
         <v>0</v>
@@ -4797,10 +4797,10 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>0.1092066397632125</v>
+        <v>0.1092065989237991</v>
       </c>
       <c r="B397" t="n">
-        <v>-0.135338323522982</v>
+        <v>-0.1298065204299355</v>
       </c>
       <c r="C397" t="n">
         <v>1</v>
@@ -4808,10 +4808,10 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>0.1620098239211105</v>
+        <v>0.1620163495038124</v>
       </c>
       <c r="B398" t="n">
-        <v>0.05578120682666788</v>
+        <v>0.05601109554103524</v>
       </c>
       <c r="C398" t="n">
         <v>0</v>
@@ -4819,10 +4819,10 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>0.1009012804048487</v>
+        <v>0.1009039624490859</v>
       </c>
       <c r="B399" t="n">
-        <v>0.03912402456604681</v>
+        <v>0.04331891308383708</v>
       </c>
       <c r="C399" t="n">
         <v>0</v>
@@ -4830,10 +4830,10 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>0.3051061429727672</v>
+        <v>0.3051026658497418</v>
       </c>
       <c r="B400" t="n">
-        <v>-0.08683995003626808</v>
+        <v>-0.08597208136959764</v>
       </c>
       <c r="C400" t="n">
         <v>1</v>
@@ -4841,10 +4841,10 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>0.1548140481711725</v>
+        <v>0.1548184871710575</v>
       </c>
       <c r="B401" t="n">
-        <v>0.09888127680384301</v>
+        <v>0.111506869673057</v>
       </c>
       <c r="C401" t="n">
         <v>0</v>
@@ -4852,10 +4852,10 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>0.1820259520126387</v>
+        <v>0.1820203069082504</v>
       </c>
       <c r="B402" t="n">
-        <v>0.006126781744369717</v>
+        <v>-0.005830714894110578</v>
       </c>
       <c r="C402" t="n">
         <v>1</v>
@@ -4863,10 +4863,10 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>0.1877334111204908</v>
+        <v>0.1877344367744591</v>
       </c>
       <c r="B403" t="n">
-        <v>-0.1429297050248638</v>
+        <v>-0.1265156593551671</v>
       </c>
       <c r="C403" t="n">
         <v>1</v>
@@ -4874,10 +4874,10 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>0.1952386583230179</v>
+        <v>0.1952434091029912</v>
       </c>
       <c r="B404" t="n">
-        <v>-0.1172044845114261</v>
+        <v>-0.1003188351191621</v>
       </c>
       <c r="C404" t="n">
         <v>1</v>
@@ -4885,10 +4885,10 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>0.08042167904870155</v>
+        <v>0.08044700257324565</v>
       </c>
       <c r="B405" t="n">
-        <v>0.1300319612225821</v>
+        <v>0.1398413588198923</v>
       </c>
       <c r="C405" t="n">
         <v>0</v>
@@ -4896,10 +4896,10 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>0.08256544353177077</v>
+        <v>0.08257150871774302</v>
       </c>
       <c r="B406" t="n">
-        <v>-0.002713060210215568</v>
+        <v>-0.008944317813508676</v>
       </c>
       <c r="C406" t="n">
         <v>1</v>
@@ -4907,10 +4907,10 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>0.1050327174706102</v>
+        <v>0.1050374732887483</v>
       </c>
       <c r="B407" t="n">
-        <v>0.04349254016715565</v>
+        <v>0.05008532963689298</v>
       </c>
       <c r="C407" t="n">
         <v>0</v>
@@ -4918,10 +4918,10 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>0.1508925586802585</v>
+        <v>0.1508832720637394</v>
       </c>
       <c r="B408" t="n">
-        <v>-0.05777285680601425</v>
+        <v>-0.06569251494370687</v>
       </c>
       <c r="C408" t="n">
         <v>0</v>
@@ -4929,10 +4929,10 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>0.1754631476052446</v>
+        <v>0.1754886257355109</v>
       </c>
       <c r="B409" t="n">
-        <v>0.1422609496056311</v>
+        <v>0.1499931521037715</v>
       </c>
       <c r="C409" t="n">
         <v>0</v>
@@ -4940,10 +4940,10 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>0.05914456223357901</v>
+        <v>0.05914604038007934</v>
       </c>
       <c r="B410" t="n">
-        <v>-0.08473213836247978</v>
+        <v>-0.0785908599989415</v>
       </c>
       <c r="C410" t="n">
         <v>1</v>
@@ -4951,10 +4951,10 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>0.1761647065395842</v>
+        <v>0.1761698474071713</v>
       </c>
       <c r="B411" t="n">
-        <v>-0.07284747837418326</v>
+        <v>-0.06659267479279961</v>
       </c>
       <c r="C411" t="n">
         <v>1</v>
@@ -4962,10 +4962,10 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>0.127149230446356</v>
+        <v>0.1271391555223015</v>
       </c>
       <c r="B412" t="n">
-        <v>-0.05047707299637607</v>
+        <v>-0.05936332800187383</v>
       </c>
       <c r="C412" t="n">
         <v>0</v>
@@ -4973,10 +4973,10 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>0.106404890259779</v>
+        <v>0.1064089902668669</v>
       </c>
       <c r="B413" t="n">
-        <v>0.02363930790165093</v>
+        <v>0.02531333772641921</v>
       </c>
       <c r="C413" t="n">
         <v>0</v>
@@ -4984,10 +4984,10 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>0.09525530420843688</v>
+        <v>0.09525204732840015</v>
       </c>
       <c r="B414" t="n">
-        <v>0.01404714813344402</v>
+        <v>0.006140147676567469</v>
       </c>
       <c r="C414" t="n">
         <v>1</v>
@@ -4995,10 +4995,10 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>0.04873960175799948</v>
+        <v>0.04874074634134992</v>
       </c>
       <c r="B415" t="n">
-        <v>0.02564279643657261</v>
+        <v>0.02194714879636434</v>
       </c>
       <c r="C415" t="n">
         <v>1</v>
@@ -5006,10 +5006,10 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>0.1357540374681101</v>
+        <v>0.1357483030906362</v>
       </c>
       <c r="B416" t="n">
-        <v>0.02493900827639941</v>
+        <v>0.02791068691455348</v>
       </c>
       <c r="C416" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>0.1459613682231818</v>
+        <v>0.1459703280715909</v>
       </c>
       <c r="B417" t="n">
-        <v>0.07102800287825231</v>
+        <v>0.06141405429635256</v>
       </c>
       <c r="C417" t="n">
         <v>0</v>
@@ -5028,10 +5028,10 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>0.1816254473443114</v>
+        <v>0.1816241894588499</v>
       </c>
       <c r="B418" t="n">
-        <v>-0.04665530136360579</v>
+        <v>-0.04518434711993771</v>
       </c>
       <c r="C418" t="n">
         <v>1</v>
@@ -5039,10 +5039,10 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>0.08654364037744791</v>
+        <v>0.08653842898685425</v>
       </c>
       <c r="B419" t="n">
-        <v>-0.02616652905469538</v>
+        <v>-0.03236256002271545</v>
       </c>
       <c r="C419" t="n">
         <v>1</v>
@@ -5050,10 +5050,10 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>0.1534429847420168</v>
+        <v>0.1534395117970518</v>
       </c>
       <c r="B420" t="n">
-        <v>0.006793799784025353</v>
+        <v>0.01494541125733338</v>
       </c>
       <c r="C420" t="n">
         <v>0</v>
@@ -5061,10 +5061,10 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>0.2782521165027256</v>
+        <v>0.2782516286059392</v>
       </c>
       <c r="B421" t="n">
-        <v>-0.1002229067513104</v>
+        <v>-0.1106932021831156</v>
       </c>
       <c r="C421" t="n">
         <v>1</v>
@@ -5072,10 +5072,10 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>0.08986898714358613</v>
+        <v>0.08986839212812642</v>
       </c>
       <c r="B422" t="n">
-        <v>-0.03186123542985148</v>
+        <v>-0.03228573173216914</v>
       </c>
       <c r="C422" t="n">
         <v>0</v>
@@ -5083,10 +5083,10 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>0.2103078600636244</v>
+        <v>0.2103113976797163</v>
       </c>
       <c r="B423" t="n">
-        <v>0.144638201543811</v>
+        <v>0.1436766683331835</v>
       </c>
       <c r="C423" t="n">
         <v>0</v>
@@ -5105,10 +5105,10 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>0.1591350903805873</v>
+        <v>0.1591422506234206</v>
       </c>
       <c r="B425" t="n">
-        <v>-0.1481197878922632</v>
+        <v>-0.1505412819382862</v>
       </c>
       <c r="C425" t="n">
         <v>1</v>
@@ -5116,10 +5116,10 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>0.169190276918039</v>
+        <v>0.1691971965495164</v>
       </c>
       <c r="B426" t="n">
-        <v>0.08807625322069101</v>
+        <v>0.08973390209270798</v>
       </c>
       <c r="C426" t="n">
         <v>0</v>
@@ -5127,10 +5127,10 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>0.07126925746270035</v>
+        <v>0.0712638004160859</v>
       </c>
       <c r="B427" t="n">
-        <v>-0.03484775678569947</v>
+        <v>-0.03543278613795175</v>
       </c>
       <c r="C427" t="n">
         <v>0</v>
@@ -5138,10 +5138,10 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>0.1635234343414868</v>
+        <v>0.1635234573802667</v>
       </c>
       <c r="B428" t="n">
-        <v>0.1538656671121466</v>
+        <v>0.1671224580843305</v>
       </c>
       <c r="C428" t="n">
         <v>0</v>
@@ -5149,10 +5149,10 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>0.153690922918622</v>
+        <v>0.1536914426880815</v>
       </c>
       <c r="B429" t="n">
-        <v>-0.07467869991273041</v>
+        <v>-0.07897650610622847</v>
       </c>
       <c r="C429" t="n">
         <v>1</v>
@@ -5160,10 +5160,10 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>0.2454460386711496</v>
+        <v>0.2454444455291195</v>
       </c>
       <c r="B430" t="n">
-        <v>0.0384096460893862</v>
+        <v>0.04007484280803103</v>
       </c>
       <c r="C430" t="n">
         <v>1</v>
@@ -5171,10 +5171,10 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>0.167410720050168</v>
+        <v>0.1674111320846275</v>
       </c>
       <c r="B431" t="n">
-        <v>0.09097577839244236</v>
+        <v>0.08809052190928816</v>
       </c>
       <c r="C431" t="n">
         <v>0</v>
@@ -5193,10 +5193,10 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>0.06863492054239759</v>
+        <v>0.06863022502925629</v>
       </c>
       <c r="B433" t="n">
-        <v>-0.05151772140845698</v>
+        <v>-0.05425802152611849</v>
       </c>
       <c r="C433" t="n">
         <v>1</v>
@@ -5204,10 +5204,10 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>0.1916527231886143</v>
+        <v>0.1916665842036191</v>
       </c>
       <c r="B434" t="n">
-        <v>0.07998938631947432</v>
+        <v>0.08935326267003618</v>
       </c>
       <c r="C434" t="n">
         <v>0</v>
@@ -5215,10 +5215,10 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>0.08145536175760737</v>
+        <v>0.08145933524331744</v>
       </c>
       <c r="B435" t="n">
-        <v>0.008753165506314773</v>
+        <v>0.01013717337528653</v>
       </c>
       <c r="C435" t="n">
         <v>0</v>
@@ -5226,10 +5226,10 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>0.2291716933902277</v>
+        <v>0.229169550259708</v>
       </c>
       <c r="B436" t="n">
-        <v>0.0007663476972315543</v>
+        <v>0.01372127614336194</v>
       </c>
       <c r="C436" t="n">
         <v>1</v>
@@ -5237,10 +5237,10 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>0.1065209882637712</v>
+        <v>0.1065217717212015</v>
       </c>
       <c r="B437" t="n">
-        <v>0.04855644803879949</v>
+        <v>0.05250988027784113</v>
       </c>
       <c r="C437" t="n">
         <v>1</v>
@@ -5248,10 +5248,10 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>0.1118205428147125</v>
+        <v>0.1118077057438815</v>
       </c>
       <c r="B438" t="n">
-        <v>-0.06420666847304934</v>
+        <v>-0.07339232376346604</v>
       </c>
       <c r="C438" t="n">
         <v>0</v>
@@ -5259,10 +5259,10 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>0.1673648493926391</v>
+        <v>0.1673685577889054</v>
       </c>
       <c r="B439" t="n">
-        <v>0.1075157569065232</v>
+        <v>0.1141817805187632</v>
       </c>
       <c r="C439" t="n">
         <v>1</v>
@@ -5270,10 +5270,10 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>0.1658488816832969</v>
+        <v>0.1658512418147864</v>
       </c>
       <c r="B440" t="n">
-        <v>-0.00823203065219015</v>
+        <v>-0.01330240027521633</v>
       </c>
       <c r="C440" t="n">
         <v>0</v>
@@ -5281,10 +5281,10 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>0.2298071714041645</v>
+        <v>0.2298071511311118</v>
       </c>
       <c r="B441" t="n">
-        <v>-0.08852613319713985</v>
+        <v>-0.08760484386849887</v>
       </c>
       <c r="C441" t="n">
         <v>1</v>
@@ -5303,10 +5303,10 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>0.07916541999366</v>
+        <v>0.0791709598322642</v>
       </c>
       <c r="B443" t="n">
-        <v>-0.06045602194815841</v>
+        <v>-0.05815467512187524</v>
       </c>
       <c r="C443" t="n">
         <v>1</v>
@@ -5314,10 +5314,10 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>0.1411560431659168</v>
+        <v>0.1411601188866781</v>
       </c>
       <c r="B444" t="n">
-        <v>-0.004930212040785219</v>
+        <v>0.0004116525298937333</v>
       </c>
       <c r="C444" t="n">
         <v>1</v>
@@ -5325,10 +5325,10 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>0.1547775143149134</v>
+        <v>0.1547827912037241</v>
       </c>
       <c r="B445" t="n">
-        <v>0.0875460053428191</v>
+        <v>0.09444432798035841</v>
       </c>
       <c r="C445" t="n">
         <v>0</v>
@@ -5336,10 +5336,10 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>0.2577251681792224</v>
+        <v>0.2577261346242649</v>
       </c>
       <c r="B446" t="n">
-        <v>0.1948011083358937</v>
+        <v>0.1953911007017918</v>
       </c>
       <c r="C446" t="n">
         <v>0</v>
@@ -5358,10 +5358,10 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>0.1665366800199205</v>
+        <v>0.1665194550149044</v>
       </c>
       <c r="B448" t="n">
-        <v>0.2390224483268389</v>
+        <v>0.2312075496520249</v>
       </c>
       <c r="C448" t="n">
         <v>0</v>
@@ -5369,10 +5369,10 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>0.2056672927923658</v>
+        <v>0.2056646119220593</v>
       </c>
       <c r="B449" t="n">
-        <v>0.06518235223654303</v>
+        <v>0.06938377492296352</v>
       </c>
       <c r="C449" t="n">
         <v>0</v>
@@ -5380,10 +5380,10 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>0.1996239814803145</v>
+        <v>0.1996254707564379</v>
       </c>
       <c r="B450" t="n">
-        <v>-0.1148886698675718</v>
+        <v>-0.1039810098142666</v>
       </c>
       <c r="C450" t="n">
         <v>1</v>
@@ -5391,10 +5391,10 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>0.2471170282041844</v>
+        <v>0.247108941397042</v>
       </c>
       <c r="B451" t="n">
-        <v>-0.09915530787841612</v>
+        <v>-0.09624377301143663</v>
       </c>
       <c r="C451" t="n">
         <v>1</v>
@@ -5402,10 +5402,10 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>0.2540264427707898</v>
+        <v>0.2540360232711243</v>
       </c>
       <c r="B452" t="n">
-        <v>-0.1755676647795756</v>
+        <v>-0.1647946118925633</v>
       </c>
       <c r="C452" t="n">
         <v>1</v>
@@ -5413,10 +5413,10 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>0.08253360460856844</v>
+        <v>0.08253805891310653</v>
       </c>
       <c r="B453" t="n">
-        <v>0.05641746517325132</v>
+        <v>0.04530729357462648</v>
       </c>
       <c r="C453" t="n">
         <v>0</v>
@@ -5424,10 +5424,10 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>0.147993194256031</v>
+        <v>0.1480058915942929</v>
       </c>
       <c r="B454" t="n">
-        <v>0.08067501660594605</v>
+        <v>0.09704014098395644</v>
       </c>
       <c r="C454" t="n">
         <v>0</v>
@@ -5435,10 +5435,10 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>0.05914420685131008</v>
+        <v>0.05913981429360032</v>
       </c>
       <c r="B455" t="n">
-        <v>0.04466332373890951</v>
+        <v>0.04455933328201248</v>
       </c>
       <c r="C455" t="n">
         <v>0</v>
@@ -5446,10 +5446,10 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>0.1879609938955707</v>
+        <v>0.1879637275534673</v>
       </c>
       <c r="B456" t="n">
-        <v>-0.0291712201429998</v>
+        <v>-0.02957083413882487</v>
       </c>
       <c r="C456" t="n">
         <v>1</v>
@@ -5457,10 +5457,10 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>0.1361875639625157</v>
+        <v>0.1361885817782422</v>
       </c>
       <c r="B457" t="n">
-        <v>0.01703373470899259</v>
+        <v>0.02749368525456913</v>
       </c>
       <c r="C457" t="n">
         <v>0</v>
@@ -5468,10 +5468,10 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>0.2006430854951691</v>
+        <v>0.2006426603921177</v>
       </c>
       <c r="B458" t="n">
-        <v>0.05045676245485431</v>
+        <v>0.05780674534903076</v>
       </c>
       <c r="C458" t="n">
         <v>1</v>
@@ -5479,10 +5479,10 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>0.2137479752054231</v>
+        <v>0.2137382168644982</v>
       </c>
       <c r="B459" t="n">
-        <v>-0.06803854303204264</v>
+        <v>-0.07975437033967536</v>
       </c>
       <c r="C459" t="n">
         <v>1</v>
@@ -5490,10 +5490,10 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>0.09897526420254729</v>
+        <v>0.09897998869670376</v>
       </c>
       <c r="B460" t="n">
-        <v>0.07004059495184729</v>
+        <v>0.06589107142662191</v>
       </c>
       <c r="C460" t="n">
         <v>0</v>
@@ -5501,10 +5501,10 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>0.1618827716580299</v>
+        <v>0.1618845889553243</v>
       </c>
       <c r="B461" t="n">
-        <v>-0.009420047086008833</v>
+        <v>-0.01454190874319485</v>
       </c>
       <c r="C461" t="n">
         <v>1</v>
@@ -5512,10 +5512,10 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>0.2518071270714661</v>
+        <v>0.2517949642271961</v>
       </c>
       <c r="B462" t="n">
-        <v>0.04807742495720276</v>
+        <v>0.04328472847521735</v>
       </c>
       <c r="C462" t="n">
         <v>0</v>
@@ -5534,10 +5534,10 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>0.1380586170655683</v>
+        <v>0.1380628493350365</v>
       </c>
       <c r="B464" t="n">
-        <v>-0.07335879176565473</v>
+        <v>-0.07110828528949263</v>
       </c>
       <c r="C464" t="n">
         <v>1</v>
@@ -5545,10 +5545,10 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>0.2329922353148129</v>
+        <v>0.2329961909474644</v>
       </c>
       <c r="B465" t="n">
-        <v>0.01051782533694158</v>
+        <v>0.005847230861937005</v>
       </c>
       <c r="C465" t="n">
         <v>1</v>
@@ -5556,10 +5556,10 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>0.1588107973514273</v>
+        <v>0.1588147570584635</v>
       </c>
       <c r="B466" t="n">
-        <v>0.13029773144163</v>
+        <v>0.1236862171170855</v>
       </c>
       <c r="C466" t="n">
         <v>0</v>
@@ -5567,10 +5567,10 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>0.1116961208578227</v>
+        <v>0.1116952630222297</v>
       </c>
       <c r="B467" t="n">
-        <v>0.04581657587999763</v>
+        <v>0.04225895103939502</v>
       </c>
       <c r="C467" t="n">
         <v>0</v>
@@ -5578,10 +5578,10 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>0.1079669927970679</v>
+        <v>0.1079748027201517</v>
       </c>
       <c r="B468" t="n">
-        <v>0.08493731651384091</v>
+        <v>0.08725326184504688</v>
       </c>
       <c r="C468" t="n">
         <v>0</v>
@@ -5589,10 +5589,10 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>0.1435857264575209</v>
+        <v>0.1435866564743281</v>
       </c>
       <c r="B469" t="n">
-        <v>-0.004233781736052618</v>
+        <v>0.0001893215440571345</v>
       </c>
       <c r="C469" t="n">
         <v>0</v>
@@ -5600,10 +5600,10 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>0.1398834289803238</v>
+        <v>0.139890099137882</v>
       </c>
       <c r="B470" t="n">
-        <v>0.05638249597808029</v>
+        <v>0.06040583083784413</v>
       </c>
       <c r="C470" t="n">
         <v>0</v>
@@ -5611,10 +5611,10 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>0.01679944016347424</v>
+        <v>0.01679803631179083</v>
       </c>
       <c r="B471" t="n">
-        <v>0.002220480840368897</v>
+        <v>0.001005768672759593</v>
       </c>
       <c r="C471" t="n">
         <v>0</v>
@@ -5622,10 +5622,10 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>0.1068416015698031</v>
+        <v>0.1068370926111024</v>
       </c>
       <c r="B472" t="n">
-        <v>0.05185116834711504</v>
+        <v>0.05223057294970878</v>
       </c>
       <c r="C472" t="n">
         <v>0</v>
@@ -5633,10 +5633,10 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>0.1813796783620872</v>
+        <v>0.1813779407655163</v>
       </c>
       <c r="B473" t="n">
-        <v>-0.06759039608311379</v>
+        <v>-0.0710675375527233</v>
       </c>
       <c r="C473" t="n">
         <v>1</v>
@@ -5644,10 +5644,10 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>0.1249126457104515</v>
+        <v>0.1249117041922884</v>
       </c>
       <c r="B474" t="n">
-        <v>-0.04427354992607892</v>
+        <v>-0.03860506657310218</v>
       </c>
       <c r="C474" t="n">
         <v>1</v>
@@ -5655,10 +5655,10 @@
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>0.1299646495352211</v>
+        <v>0.1299849125055269</v>
       </c>
       <c r="B475" t="n">
-        <v>0.1098355912603852</v>
+        <v>0.1145518826443066</v>
       </c>
       <c r="C475" t="n">
         <v>0</v>
@@ -5666,10 +5666,10 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>0.1567531146466866</v>
+        <v>0.1567768175585569</v>
       </c>
       <c r="B476" t="n">
-        <v>0.06186798762885809</v>
+        <v>0.07778753300905446</v>
       </c>
       <c r="C476" t="n">
         <v>0</v>
@@ -5677,10 +5677,10 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>0.1189073025803228</v>
+        <v>0.1189127022427167</v>
       </c>
       <c r="B477" t="n">
-        <v>-0.01505791005315929</v>
+        <v>-0.01450447078147235</v>
       </c>
       <c r="C477" t="n">
         <v>1</v>
@@ -5688,10 +5688,10 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>0.1781781394967019</v>
+        <v>0.1781887189470744</v>
       </c>
       <c r="B478" t="n">
-        <v>0.07112966384075362</v>
+        <v>0.06562237538685232</v>
       </c>
       <c r="C478" t="n">
         <v>0</v>
@@ -5699,10 +5699,10 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>0.1497615243062523</v>
+        <v>0.1497597671404481</v>
       </c>
       <c r="B479" t="n">
-        <v>-0.04110354610487184</v>
+        <v>-0.03864183096678075</v>
       </c>
       <c r="C479" t="n">
         <v>1</v>
@@ -5710,10 +5710,10 @@
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>0.1086045244980243</v>
+        <v>0.1086034178391277</v>
       </c>
       <c r="B480" t="n">
-        <v>-0.02376239886705004</v>
+        <v>-0.02570276640773552</v>
       </c>
       <c r="C480" t="n">
         <v>1</v>
@@ -5721,10 +5721,10 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>0.1314538315804987</v>
+        <v>0.1314485313067067</v>
       </c>
       <c r="B481" t="n">
-        <v>-0.03656218604610075</v>
+        <v>-0.04257693041802152</v>
       </c>
       <c r="C481" t="n">
         <v>1</v>
@@ -5732,10 +5732,10 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>0.2805764166487074</v>
+        <v>0.2805634606054858</v>
       </c>
       <c r="B482" t="n">
-        <v>-0.04014146833247424</v>
+        <v>-0.04962374414095589</v>
       </c>
       <c r="C482" t="n">
         <v>1</v>
@@ -5743,10 +5743,10 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>0.144553194887299</v>
+        <v>0.1445547326035243</v>
       </c>
       <c r="B483" t="n">
-        <v>0.108385260693872</v>
+        <v>0.1118444708909882</v>
       </c>
       <c r="C483" t="n">
         <v>1</v>
@@ -5754,10 +5754,10 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>0.2850993281597225</v>
+        <v>0.2851022586067536</v>
       </c>
       <c r="B484" t="n">
-        <v>0.06007784694574815</v>
+        <v>0.06488753591080773</v>
       </c>
       <c r="C484" t="n">
         <v>0</v>
@@ -5765,10 +5765,10 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>0.1298668219456094</v>
+        <v>0.1298657952529092</v>
       </c>
       <c r="B485" t="n">
-        <v>0.0891590872465208</v>
+        <v>0.08305338851468258</v>
       </c>
       <c r="C485" t="n">
         <v>1</v>
@@ -5776,10 +5776,10 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>0.0496268461914504</v>
+        <v>0.04962523672663317</v>
       </c>
       <c r="B486" t="n">
-        <v>0.02376285252305755</v>
+        <v>0.02402507070333284</v>
       </c>
       <c r="C486" t="n">
         <v>0</v>
@@ -5787,10 +5787,10 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>0.1496371733095363</v>
+        <v>0.1496350946245255</v>
       </c>
       <c r="B487" t="n">
-        <v>0.04304244572936632</v>
+        <v>0.04040857909585629</v>
       </c>
       <c r="C487" t="n">
         <v>0</v>
@@ -5798,10 +5798,10 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>0.2898430405321494</v>
+        <v>0.2898395280244925</v>
       </c>
       <c r="B488" t="n">
-        <v>-0.04545963842631173</v>
+        <v>-0.04462106571970383</v>
       </c>
       <c r="C488" t="n">
         <v>1</v>
@@ -5820,10 +5820,10 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>0.09218066940548356</v>
+        <v>0.09218725563320151</v>
       </c>
       <c r="B490" t="n">
-        <v>0.05787537410683229</v>
+        <v>0.07258141048738813</v>
       </c>
       <c r="C490" t="n">
         <v>0</v>
@@ -5831,10 +5831,10 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>0.1509347402600921</v>
+        <v>0.1509415283308721</v>
       </c>
       <c r="B491" t="n">
-        <v>0.08279820036257012</v>
+        <v>0.08329200992246706</v>
       </c>
       <c r="C491" t="n">
         <v>0</v>
@@ -5842,10 +5842,10 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>0.1183773037751952</v>
+        <v>0.1183709441867326</v>
       </c>
       <c r="B492" t="n">
-        <v>-0.01428888856787169</v>
+        <v>-0.02323738002272596</v>
       </c>
       <c r="C492" t="n">
         <v>0</v>
@@ -5853,10 +5853,10 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>0.2359362649318019</v>
+        <v>0.2359304244384712</v>
       </c>
       <c r="B493" t="n">
-        <v>-0.02810469848009385</v>
+        <v>-0.05137025679464526</v>
       </c>
       <c r="C493" t="n">
         <v>1</v>
@@ -5864,10 +5864,10 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>0.179326015487341</v>
+        <v>0.1793208465376488</v>
       </c>
       <c r="B494" t="n">
-        <v>0.01160018199190883</v>
+        <v>0.00997252195063832</v>
       </c>
       <c r="C494" t="n">
         <v>0</v>
@@ -5875,10 +5875,10 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>0.2913966626517349</v>
+        <v>0.2913909756205195</v>
       </c>
       <c r="B495" t="n">
-        <v>-0.09318128299738079</v>
+        <v>-0.09259446649319052</v>
       </c>
       <c r="C495" t="n">
         <v>1</v>
@@ -5886,10 +5886,10 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>0.06813210999966998</v>
+        <v>0.06813290248622245</v>
       </c>
       <c r="B496" t="n">
-        <v>0.03160012614127891</v>
+        <v>0.02758823351017924</v>
       </c>
       <c r="C496" t="n">
         <v>0</v>
@@ -5897,10 +5897,10 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>0.1980979072590931</v>
+        <v>0.1981193674313449</v>
       </c>
       <c r="B497" t="n">
-        <v>0.18406113645863</v>
+        <v>0.1935638767814528</v>
       </c>
       <c r="C497" t="n">
         <v>0</v>
@@ -5908,10 +5908,10 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>0.1627409039710114</v>
+        <v>0.1627470246721472</v>
       </c>
       <c r="B498" t="n">
-        <v>-0.1151497885828339</v>
+        <v>-0.1030081765151779</v>
       </c>
       <c r="C498" t="n">
         <v>1</v>
@@ -5919,10 +5919,10 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>0.1614575250081284</v>
+        <v>0.1614529772729739</v>
       </c>
       <c r="B499" t="n">
-        <v>-0.05161386597583847</v>
+        <v>-0.05699812821186599</v>
       </c>
       <c r="C499" t="n">
         <v>1</v>
@@ -5930,10 +5930,10 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>0.05053076774878672</v>
+        <v>0.05053076393564999</v>
       </c>
       <c r="B500" t="n">
-        <v>-0.007906410423706413</v>
+        <v>-0.008816852582152049</v>
       </c>
       <c r="C500" t="n">
         <v>1</v>
@@ -5952,10 +5952,10 @@
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>0.2078114676661196</v>
+        <v>0.2078091369959743</v>
       </c>
       <c r="B502" t="n">
-        <v>0.1189446186549079</v>
+        <v>0.1120105184823243</v>
       </c>
       <c r="C502" t="n">
         <v>0</v>
@@ -5963,10 +5963,10 @@
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>0.1499464356061989</v>
+        <v>0.1499410452918785</v>
       </c>
       <c r="B503" t="n">
-        <v>-0.05738953682303567</v>
+        <v>-0.0700374250921503</v>
       </c>
       <c r="C503" t="n">
         <v>0</v>
@@ -5974,10 +5974,10 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>0.2554515407825459</v>
+        <v>0.2554574844513691</v>
       </c>
       <c r="B504" t="n">
-        <v>-0.1161343543136199</v>
+        <v>-0.1102523174214208</v>
       </c>
       <c r="C504" t="n">
         <v>1</v>
@@ -5985,10 +5985,10 @@
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>0.1184394634249505</v>
+        <v>0.1184359564257448</v>
       </c>
       <c r="B505" t="n">
-        <v>-0.04638050784637946</v>
+        <v>-0.0419886879645093</v>
       </c>
       <c r="C505" t="n">
         <v>1</v>
@@ -5996,10 +5996,10 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>0.226261044778743</v>
+        <v>0.226262216031905</v>
       </c>
       <c r="B506" t="n">
-        <v>-0.05215900696229434</v>
+        <v>-0.0489137536056621</v>
       </c>
       <c r="C506" t="n">
         <v>1</v>
@@ -6007,10 +6007,10 @@
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>0.1025499549241835</v>
+        <v>0.102547128343924</v>
       </c>
       <c r="B507" t="n">
-        <v>0.006113564040270804</v>
+        <v>-0.002362885489911635</v>
       </c>
       <c r="C507" t="n">
         <v>1</v>
@@ -6018,10 +6018,10 @@
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>0.1842941290423595</v>
+        <v>0.1843069534078614</v>
       </c>
       <c r="B508" t="n">
-        <v>0.02219450251173685</v>
+        <v>0.03514351737187432</v>
       </c>
       <c r="C508" t="n">
         <v>0</v>
@@ -6040,10 +6040,10 @@
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>0.1574095943707683</v>
+        <v>0.1574031897025386</v>
       </c>
       <c r="B510" t="n">
-        <v>-0.01266308651966331</v>
+        <v>-0.01974504176280888</v>
       </c>
       <c r="C510" t="n">
         <v>1</v>
@@ -6051,10 +6051,10 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>0.1209017655693429</v>
+        <v>0.1209010450951532</v>
       </c>
       <c r="B511" t="n">
-        <v>0.0005636341744877406</v>
+        <v>0.006909968034853647</v>
       </c>
       <c r="C511" t="n">
         <v>0</v>
@@ -6062,10 +6062,10 @@
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>0.1579631800437536</v>
+        <v>0.1579555633656186</v>
       </c>
       <c r="B512" t="n">
-        <v>0.2674277496164722</v>
+        <v>0.2556123341356363</v>
       </c>
       <c r="C512" t="n">
         <v>0</v>
@@ -6073,10 +6073,10 @@
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>0.08266476558793075</v>
+        <v>0.08269169762796398</v>
       </c>
       <c r="B513" t="n">
-        <v>0.1675373559096666</v>
+        <v>0.1782928359136428</v>
       </c>
       <c r="C513" t="n">
         <v>0</v>
@@ -6084,10 +6084,10 @@
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>0.09420961193001819</v>
+        <v>0.09420917154743685</v>
       </c>
       <c r="B514" t="n">
-        <v>-0.1273979626361947</v>
+        <v>-0.1259333487696259</v>
       </c>
       <c r="C514" t="n">
         <v>1</v>
@@ -6106,10 +6106,10 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>0.07002641161194241</v>
+        <v>0.07003165913784096</v>
       </c>
       <c r="B516" t="n">
-        <v>0.05206183049552789</v>
+        <v>0.05339207873995548</v>
       </c>
       <c r="C516" t="n">
         <v>0</v>
@@ -6117,10 +6117,10 @@
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>0.1310329110064286</v>
+        <v>0.1310419226524078</v>
       </c>
       <c r="B517" t="n">
-        <v>-0.05179311431935313</v>
+        <v>-0.0439097067383739</v>
       </c>
       <c r="C517" t="n">
         <v>1</v>
@@ -6128,10 +6128,10 @@
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>0.2347435911974637</v>
+        <v>0.2347448196443157</v>
       </c>
       <c r="B518" t="n">
-        <v>0.08240907532898863</v>
+        <v>0.07646859237973246</v>
       </c>
       <c r="C518" t="n">
         <v>0</v>
@@ -6139,10 +6139,10 @@
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>0.04096745155610391</v>
+        <v>0.04095757004654019</v>
       </c>
       <c r="B519" t="n">
-        <v>0.09948586759767511</v>
+        <v>0.090021895132412</v>
       </c>
       <c r="C519" t="n">
         <v>0</v>
@@ -6150,10 +6150,10 @@
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>0.1918062060455616</v>
+        <v>0.1918114734223587</v>
       </c>
       <c r="B520" t="n">
-        <v>0.1156511079761347</v>
+        <v>0.1188626966185435</v>
       </c>
       <c r="C520" t="n">
         <v>1</v>
@@ -6161,10 +6161,10 @@
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>0.1736814242678371</v>
+        <v>0.1736823477773733</v>
       </c>
       <c r="B521" t="n">
-        <v>-0.04094944355367082</v>
+        <v>-0.04012336270697961</v>
       </c>
       <c r="C521" t="n">
         <v>1</v>
@@ -6172,10 +6172,10 @@
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>0.1203020105478101</v>
+        <v>0.1203054872041401</v>
       </c>
       <c r="B522" t="n">
-        <v>-0.007618375489381747</v>
+        <v>-0.00468518318756949</v>
       </c>
       <c r="C522" t="n">
         <v>1</v>
@@ -6183,10 +6183,10 @@
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>0.06269213861435317</v>
+        <v>0.06269154385007102</v>
       </c>
       <c r="B523" t="n">
-        <v>-0.01239829141914908</v>
+        <v>-0.01592279713389512</v>
       </c>
       <c r="C523" t="n">
         <v>1</v>
@@ -6194,10 +6194,10 @@
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>0.1530660957959848</v>
+        <v>0.1530672558511978</v>
       </c>
       <c r="B524" t="n">
-        <v>-0.04113861751428632</v>
+        <v>-0.03380032431131544</v>
       </c>
       <c r="C524" t="n">
         <v>1</v>
@@ -6205,10 +6205,10 @@
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>0.1721653337116547</v>
+        <v>0.1721675584549136</v>
       </c>
       <c r="B525" t="n">
-        <v>-0.0350649002732159</v>
+        <v>-0.03470610000597327</v>
       </c>
       <c r="C525" t="n">
         <v>1</v>
@@ -6227,10 +6227,10 @@
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>0.1912568495843032</v>
+        <v>0.1912528338334252</v>
       </c>
       <c r="B527" t="n">
-        <v>0.02529405276763218</v>
+        <v>0.02322299216424125</v>
       </c>
       <c r="C527" t="n">
         <v>0</v>
@@ -6238,10 +6238,10 @@
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>0.16118455392242</v>
+        <v>0.161185943855538</v>
       </c>
       <c r="B528" t="n">
-        <v>0.03696944028728463</v>
+        <v>0.0333952886362095</v>
       </c>
       <c r="C528" t="n">
         <v>0</v>
@@ -6249,10 +6249,10 @@
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>0.109748140656217</v>
+        <v>0.1097332809144971</v>
       </c>
       <c r="B529" t="n">
-        <v>0.3897015669396684</v>
+        <v>0.3996653916987936</v>
       </c>
       <c r="C529" t="n">
         <v>0</v>
@@ -6260,10 +6260,10 @@
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>0.1716966088779298</v>
+        <v>0.1716904426279042</v>
       </c>
       <c r="B530" t="n">
-        <v>-0.0630861749990114</v>
+        <v>-0.06532087855769922</v>
       </c>
       <c r="C530" t="n">
         <v>1</v>
@@ -6271,10 +6271,10 @@
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>0.2390353116141785</v>
+        <v>0.2390264394992549</v>
       </c>
       <c r="B531" t="n">
-        <v>-0.05530490034007445</v>
+        <v>-0.0529497602660457</v>
       </c>
       <c r="C531" t="n">
         <v>1</v>
@@ -6282,10 +6282,10 @@
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>0.2226681139986147</v>
+        <v>0.2226668858256824</v>
       </c>
       <c r="B532" t="n">
-        <v>0.017558796241111</v>
+        <v>0.0166101702873964</v>
       </c>
       <c r="C532" t="n">
         <v>0</v>
@@ -6293,10 +6293,10 @@
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>0.1096554886037001</v>
+        <v>0.1096463670158616</v>
       </c>
       <c r="B533" t="n">
-        <v>0.02968518983044927</v>
+        <v>0.03060582196759655</v>
       </c>
       <c r="C533" t="n">
         <v>0</v>
@@ -6304,10 +6304,10 @@
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>0.1792641379710251</v>
+        <v>0.1792639109970479</v>
       </c>
       <c r="B534" t="n">
-        <v>0.01393105453838995</v>
+        <v>0.02071082162809647</v>
       </c>
       <c r="C534" t="n">
         <v>0</v>
@@ -6315,10 +6315,10 @@
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>0.1561938145506287</v>
+        <v>0.1561947582781352</v>
       </c>
       <c r="B535" t="n">
-        <v>-0.02164351535131323</v>
+        <v>-0.02030672078462582</v>
       </c>
       <c r="C535" t="n">
         <v>1</v>
@@ -6326,10 +6326,10 @@
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>0.1977840614335983</v>
+        <v>0.1977772710627426</v>
       </c>
       <c r="B536" t="n">
-        <v>-0.0429599720040369</v>
+        <v>-0.05026986255784068</v>
       </c>
       <c r="C536" t="n">
         <v>1</v>
@@ -6337,10 +6337,10 @@
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>0.2918207269188818</v>
+        <v>0.2918142117365137</v>
       </c>
       <c r="B537" t="n">
-        <v>-0.1755933487049308</v>
+        <v>-0.1817082347553962</v>
       </c>
       <c r="C537" t="n">
         <v>1</v>
@@ -6348,10 +6348,10 @@
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>0.08056795188874019</v>
+        <v>0.08057114273303051</v>
       </c>
       <c r="B538" t="n">
-        <v>0.08272022549740526</v>
+        <v>0.08721552367262111</v>
       </c>
       <c r="C538" t="n">
         <v>0</v>
@@ -6359,10 +6359,10 @@
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>0.1193580416085746</v>
+        <v>0.1193496322427147</v>
       </c>
       <c r="B539" t="n">
-        <v>0.1358156483627894</v>
+        <v>0.1260609311860377</v>
       </c>
       <c r="C539" t="n">
         <v>0</v>
@@ -6370,10 +6370,10 @@
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>0.2199220616656909</v>
+        <v>0.2199237282577658</v>
       </c>
       <c r="B540" t="n">
-        <v>0.05854609648910697</v>
+        <v>0.06882280951092297</v>
       </c>
       <c r="C540" t="n">
         <v>0</v>
@@ -6381,10 +6381,10 @@
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>0.3511076870817124</v>
+        <v>0.3511064779038026</v>
       </c>
       <c r="B541" t="n">
-        <v>-0.1306928963480053</v>
+        <v>-0.1276550217064263</v>
       </c>
       <c r="C541" t="n">
         <v>1</v>
@@ -6392,10 +6392,10 @@
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>0.03725739822774366</v>
+        <v>0.03725493201839557</v>
       </c>
       <c r="B542" t="n">
-        <v>0.01616457647883732</v>
+        <v>0.01600426453816336</v>
       </c>
       <c r="C542" t="n">
         <v>0</v>
@@ -6403,10 +6403,10 @@
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>0.1738127569440541</v>
+        <v>0.1738088814806596</v>
       </c>
       <c r="B543" t="n">
-        <v>-0.07249067716905465</v>
+        <v>-0.06804215766081574</v>
       </c>
       <c r="C543" t="n">
         <v>1</v>
@@ -6414,10 +6414,10 @@
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>0.09694355203143754</v>
+        <v>0.09694795327642877</v>
       </c>
       <c r="B544" t="n">
-        <v>0.213781606779113</v>
+        <v>0.2171719048319636</v>
       </c>
       <c r="C544" t="n">
         <v>0</v>
@@ -6425,10 +6425,10 @@
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>0.1526797143414836</v>
+        <v>0.1526798385650524</v>
       </c>
       <c r="B545" t="n">
-        <v>0.002711259899304614</v>
+        <v>0.003338568654273728</v>
       </c>
       <c r="C545" t="n">
         <v>0</v>
@@ -6436,10 +6436,10 @@
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>0.1214510658890849</v>
+        <v>0.121449430119583</v>
       </c>
       <c r="B546" t="n">
-        <v>-0.01492326097423148</v>
+        <v>-0.01952966090445364</v>
       </c>
       <c r="C546" t="n">
         <v>1</v>
@@ -6447,10 +6447,10 @@
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>0.1310329110064286</v>
+        <v>0.1310419226524078</v>
       </c>
       <c r="B547" t="n">
-        <v>-0.05179311431935313</v>
+        <v>-0.0439097067383739</v>
       </c>
       <c r="C547" t="n">
         <v>1</v>
@@ -6458,10 +6458,10 @@
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>0.1801826011471024</v>
+        <v>0.1801854209995377</v>
       </c>
       <c r="B548" t="n">
-        <v>0.07246134006919407</v>
+        <v>0.0649092401617212</v>
       </c>
       <c r="C548" t="n">
         <v>1</v>
@@ -6469,10 +6469,10 @@
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>0.1691440947565896</v>
+        <v>0.1691400057283957</v>
       </c>
       <c r="B549" t="n">
-        <v>0.1158147909786402</v>
+        <v>0.1165960316141832</v>
       </c>
       <c r="C549" t="n">
         <v>0</v>
@@ -6480,10 +6480,10 @@
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>0.3214000278142268</v>
+        <v>0.3214024527175406</v>
       </c>
       <c r="B550" t="n">
-        <v>-0.05566106618493722</v>
+        <v>-0.05745617245243533</v>
       </c>
       <c r="C550" t="n">
         <v>1</v>
@@ -6491,10 +6491,10 @@
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>0.07158762012450451</v>
+        <v>0.07157598831835987</v>
       </c>
       <c r="B551" t="n">
-        <v>-0.00570584765039026</v>
+        <v>-0.01619017250953118</v>
       </c>
       <c r="C551" t="n">
         <v>1</v>
@@ -6502,10 +6502,10 @@
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>0.1212310814919038</v>
+        <v>0.1212316757750719</v>
       </c>
       <c r="B552" t="n">
-        <v>-0.02454761536154892</v>
+        <v>-0.0196251594295954</v>
       </c>
       <c r="C552" t="n">
         <v>1</v>
@@ -6513,10 +6513,10 @@
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>0.1204697491099481</v>
+        <v>0.1204891227534987</v>
       </c>
       <c r="B553" t="n">
-        <v>0.07318903076718149</v>
+        <v>0.08194073531151251</v>
       </c>
       <c r="C553" t="n">
         <v>0</v>
@@ -6524,10 +6524,10 @@
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>0.1398621898955911</v>
+        <v>0.1398673497527207</v>
       </c>
       <c r="B554" t="n">
-        <v>0.0359087434669379</v>
+        <v>0.03893149107838338</v>
       </c>
       <c r="C554" t="n">
         <v>0</v>
@@ -6535,10 +6535,10 @@
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>0.08456146571892187</v>
+        <v>0.08456149866598618</v>
       </c>
       <c r="B555" t="n">
-        <v>0.007596301782594883</v>
+        <v>0.01138711986709439</v>
       </c>
       <c r="C555" t="n">
         <v>0</v>
@@ -6546,10 +6546,10 @@
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>0.1669472754464375</v>
+        <v>0.1669617412779729</v>
       </c>
       <c r="B556" t="n">
-        <v>-0.07187648259133211</v>
+        <v>-0.05751515106907647</v>
       </c>
       <c r="C556" t="n">
         <v>1</v>
@@ -6557,10 +6557,10 @@
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>0.1784884317150107</v>
+        <v>0.1784763174398085</v>
       </c>
       <c r="B557" t="n">
-        <v>0.05321667295196515</v>
+        <v>0.04248491003686086</v>
       </c>
       <c r="C557" t="n">
         <v>0</v>
@@ -6568,10 +6568,10 @@
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>0.0611442388069104</v>
+        <v>0.06114402183506537</v>
       </c>
       <c r="B558" t="n">
-        <v>0.08627474130117166</v>
+        <v>0.08930496845293925</v>
       </c>
       <c r="C558" t="n">
         <v>0</v>
@@ -6579,10 +6579,10 @@
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>0.2647041822724614</v>
+        <v>0.2647064438916418</v>
       </c>
       <c r="B559" t="n">
-        <v>0.05250924424493838</v>
+        <v>0.04657691310605141</v>
       </c>
       <c r="C559" t="n">
         <v>0</v>
@@ -6590,10 +6590,10 @@
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>0.2135466767590858</v>
+        <v>0.2135525554150228</v>
       </c>
       <c r="B560" t="n">
-        <v>-0.0468584059605013</v>
+        <v>-0.04478299760561538</v>
       </c>
       <c r="C560" t="n">
         <v>1</v>
@@ -6601,10 +6601,10 @@
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>0.1262329141895515</v>
+        <v>0.1262364242542603</v>
       </c>
       <c r="B561" t="n">
-        <v>0.1005581665729454</v>
+        <v>0.1020901027959441</v>
       </c>
       <c r="C561" t="n">
         <v>1</v>
@@ -6612,10 +6612,10 @@
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>0.07349790321655823</v>
+        <v>0.07349524063546557</v>
       </c>
       <c r="B562" t="n">
-        <v>0.07726121825445606</v>
+        <v>0.07359312139488608</v>
       </c>
       <c r="C562" t="n">
         <v>0</v>
@@ -6634,10 +6634,10 @@
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>0.1633296939929915</v>
+        <v>0.1633131450582882</v>
       </c>
       <c r="B564" t="n">
-        <v>0.10319784232546</v>
+        <v>0.089783495780398</v>
       </c>
       <c r="C564" t="n">
         <v>0</v>
@@ -6645,10 +6645,10 @@
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>0.1131751657204564</v>
+        <v>0.1131831513706434</v>
       </c>
       <c r="B565" t="n">
-        <v>-0.1278177818563288</v>
+        <v>-0.1242429042725406</v>
       </c>
       <c r="C565" t="n">
         <v>1</v>
@@ -6656,10 +6656,10 @@
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>0.1027026939632772</v>
+        <v>0.1027054891748737</v>
       </c>
       <c r="B566" t="n">
-        <v>0.07735969103137708</v>
+        <v>0.06939621616879134</v>
       </c>
       <c r="C566" t="n">
         <v>0</v>
@@ -6667,10 +6667,10 @@
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>0.1723651807786472</v>
+        <v>0.1723694936144308</v>
       </c>
       <c r="B567" t="n">
-        <v>0.08320243711107114</v>
+        <v>0.08483239988765781</v>
       </c>
       <c r="C567" t="n">
         <v>0</v>
@@ -6678,10 +6678,10 @@
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>0.1411204506507078</v>
+        <v>0.1411225368199844</v>
       </c>
       <c r="B568" t="n">
-        <v>0.04584071341035949</v>
+        <v>0.0423032521054738</v>
       </c>
       <c r="C568" t="n">
         <v>0</v>
@@ -6689,10 +6689,10 @@
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>0.1762674121269375</v>
+        <v>0.1762613822735208</v>
       </c>
       <c r="B569" t="n">
-        <v>0.02935900529592349</v>
+        <v>0.01458303099931677</v>
       </c>
       <c r="C569" t="n">
         <v>0</v>
@@ -6700,10 +6700,10 @@
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>0.2239779519836686</v>
+        <v>0.2239859752418005</v>
       </c>
       <c r="B570" t="n">
-        <v>-0.2545960348627848</v>
+        <v>-0.2445583929329378</v>
       </c>
       <c r="C570" t="n">
         <v>1</v>
@@ -6711,10 +6711,10 @@
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>0.2452922240355806</v>
+        <v>0.2452982381384557</v>
       </c>
       <c r="B571" t="n">
-        <v>0.05088938861886812</v>
+        <v>0.05596140355231657</v>
       </c>
       <c r="C571" t="n">
         <v>0</v>
@@ -6722,10 +6722,10 @@
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>0.1697709445844195</v>
+        <v>0.169764054543082</v>
       </c>
       <c r="B572" t="n">
-        <v>-0.05416288218071276</v>
+        <v>-0.05746464969178129</v>
       </c>
       <c r="C572" t="n">
         <v>1</v>
@@ -6733,10 +6733,10 @@
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>0.09448492595210037</v>
+        <v>0.09449008771354406</v>
       </c>
       <c r="B573" t="n">
-        <v>0.149830681503267</v>
+        <v>0.153207512089881</v>
       </c>
       <c r="C573" t="n">
         <v>0</v>
@@ -6744,10 +6744,10 @@
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>0.4366047335396954</v>
+        <v>0.4366014691405311</v>
       </c>
       <c r="B574" t="n">
-        <v>-0.1882613775377134</v>
+        <v>-0.2123756920712054</v>
       </c>
       <c r="C574" t="n">
         <v>1</v>
@@ -6755,10 +6755,10 @@
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>0.2135199678691896</v>
+        <v>0.2135188072780436</v>
       </c>
       <c r="B575" t="n">
-        <v>0.01958506111499805</v>
+        <v>0.01226899286944857</v>
       </c>
       <c r="C575" t="n">
         <v>1</v>
@@ -6766,10 +6766,10 @@
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>0.1102775623322256</v>
+        <v>0.110266604071763</v>
       </c>
       <c r="B576" t="n">
-        <v>-0.03913612599950357</v>
+        <v>-0.0508812997924523</v>
       </c>
       <c r="C576" t="n">
         <v>0</v>
@@ -6777,10 +6777,10 @@
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>0.05676296792822114</v>
+        <v>0.05676559663056541</v>
       </c>
       <c r="B577" t="n">
-        <v>-0.06347809449384335</v>
+        <v>-0.06111949503300802</v>
       </c>
       <c r="C577" t="n">
         <v>1</v>
@@ -6788,10 +6788,10 @@
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>0.1039228207935781</v>
+        <v>0.1039208421042893</v>
       </c>
       <c r="B578" t="n">
-        <v>-0.0506164569866471</v>
+        <v>-0.05715604924538345</v>
       </c>
       <c r="C578" t="n">
         <v>1</v>
@@ -6799,10 +6799,10 @@
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>0.1891574362678445</v>
+        <v>0.1891547100430023</v>
       </c>
       <c r="B579" t="n">
-        <v>-0.06329860384214182</v>
+        <v>-0.05995820095057158</v>
       </c>
       <c r="C579" t="n">
         <v>1</v>
@@ -6810,10 +6810,10 @@
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>0.1299323614162237</v>
+        <v>0.1299320393214723</v>
       </c>
       <c r="B580" t="n">
-        <v>0.04244474300590156</v>
+        <v>0.04555791627671102</v>
       </c>
       <c r="C580" t="n">
         <v>0</v>
@@ -6821,10 +6821,10 @@
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>0.2424107705760347</v>
+        <v>0.2424067846331088</v>
       </c>
       <c r="B581" t="n">
-        <v>-0.04484757683269985</v>
+        <v>-0.04034899856427972</v>
       </c>
       <c r="C581" t="n">
         <v>1</v>
@@ -6832,10 +6832,10 @@
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>0.1419930025033682</v>
+        <v>0.141992866883791</v>
       </c>
       <c r="B582" t="n">
-        <v>0.09546644069166905</v>
+        <v>0.09354629840370017</v>
       </c>
       <c r="C582" t="n">
         <v>0</v>
@@ -6843,10 +6843,10 @@
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>0.1890713819914736</v>
+        <v>0.1890782388225093</v>
       </c>
       <c r="B583" t="n">
-        <v>0.06930642255671658</v>
+        <v>0.07116203794748566</v>
       </c>
       <c r="C583" t="n">
         <v>0</v>
@@ -6854,10 +6854,10 @@
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>0.1595901136289199</v>
+        <v>0.1595956584160924</v>
       </c>
       <c r="B584" t="n">
-        <v>-0.02619816445739821</v>
+        <v>-0.02021779371436754</v>
       </c>
       <c r="C584" t="n">
         <v>0</v>
@@ -6865,10 +6865,10 @@
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>0.2529269153687831</v>
+        <v>0.2529134652451794</v>
       </c>
       <c r="B585" t="n">
-        <v>-0.1060396971623336</v>
+        <v>-0.1256656008931362</v>
       </c>
       <c r="C585" t="n">
         <v>1</v>
@@ -6876,10 +6876,10 @@
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>0.02877770883743386</v>
+        <v>0.02878132441717472</v>
       </c>
       <c r="B586" t="n">
-        <v>-0.01735246393840119</v>
+        <v>-0.01427357075632376</v>
       </c>
       <c r="C586" t="n">
         <v>0</v>
@@ -6887,10 +6887,10 @@
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>0.07008905482223708</v>
+        <v>0.07009444197112999</v>
       </c>
       <c r="B587" t="n">
-        <v>0.02943172550899004</v>
+        <v>0.03507100965341442</v>
       </c>
       <c r="C587" t="n">
         <v>0</v>
@@ -6898,10 +6898,10 @@
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>0.1283312624760469</v>
+        <v>0.1283396609282517</v>
       </c>
       <c r="B588" t="n">
-        <v>-0.1390488638150397</v>
+        <v>-0.1319430991770278</v>
       </c>
       <c r="C588" t="n">
         <v>1</v>
@@ -6909,10 +6909,10 @@
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>0.05470871082592914</v>
+        <v>0.05470267173014912</v>
       </c>
       <c r="B589" t="n">
-        <v>-0.01100940995551284</v>
+        <v>-0.01947677184169906</v>
       </c>
       <c r="C589" t="n">
         <v>1</v>
@@ -6920,10 +6920,10 @@
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>0.08927233897994706</v>
+        <v>0.08927011755207345</v>
       </c>
       <c r="B590" t="n">
-        <v>-0.008849624888367741</v>
+        <v>-0.01021988210747611</v>
       </c>
       <c r="C590" t="n">
         <v>0</v>
@@ -6931,10 +6931,10 @@
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>0.2261103256616493</v>
+        <v>0.2261145974951246</v>
       </c>
       <c r="B591" t="n">
-        <v>0.1370354178609508</v>
+        <v>0.144994467000305</v>
       </c>
       <c r="C591" t="n">
         <v>0</v>
@@ -6942,10 +6942,10 @@
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>0.1915191898049331</v>
+        <v>0.1915169575749578</v>
       </c>
       <c r="B592" t="n">
-        <v>0.1156488691042547</v>
+        <v>0.1275787417436979</v>
       </c>
       <c r="C592" t="n">
         <v>0</v>
@@ -6953,10 +6953,10 @@
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>0.214037346520171</v>
+        <v>0.2140341611284511</v>
       </c>
       <c r="B593" t="n">
-        <v>-0.03356425298538127</v>
+        <v>-0.04792118168303074</v>
       </c>
       <c r="C593" t="n">
         <v>1</v>
@@ -6964,10 +6964,10 @@
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>0.1068680143880325</v>
+        <v>0.106868640549935</v>
       </c>
       <c r="B594" t="n">
-        <v>-0.02428802400726383</v>
+        <v>-0.02347241844871729</v>
       </c>
       <c r="C594" t="n">
         <v>1</v>
@@ -6975,10 +6975,10 @@
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>0.136117064757711</v>
+        <v>0.1361120979642446</v>
       </c>
       <c r="B595" t="n">
-        <v>0.1990332466274087</v>
+        <v>0.1922312090450525</v>
       </c>
       <c r="C595" t="n">
         <v>0</v>
@@ -6986,10 +6986,10 @@
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>0.08976360869522</v>
+        <v>0.08976829940160602</v>
       </c>
       <c r="B596" t="n">
-        <v>-0.05451795744991103</v>
+        <v>-0.04343541085105636</v>
       </c>
       <c r="C596" t="n">
         <v>1</v>
@@ -6997,10 +6997,10 @@
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>0.1786017959851675</v>
+        <v>0.1786043146027066</v>
       </c>
       <c r="B597" t="n">
-        <v>0.06739146277374848</v>
+        <v>0.06255935978808655</v>
       </c>
       <c r="C597" t="n">
         <v>0</v>
@@ -7008,10 +7008,10 @@
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>0.1654888399460902</v>
+        <v>0.1654842461089043</v>
       </c>
       <c r="B598" t="n">
-        <v>0.03403063298597036</v>
+        <v>0.03265826333700027</v>
       </c>
       <c r="C598" t="n">
         <v>0</v>
@@ -7019,10 +7019,10 @@
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>0.2014729814141246</v>
+        <v>0.2014808599933383</v>
       </c>
       <c r="B599" t="n">
-        <v>-0.1826297963756816</v>
+        <v>-0.18085065521423</v>
       </c>
       <c r="C599" t="n">
         <v>1</v>
@@ -7030,10 +7030,10 @@
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>0.1429307199261785</v>
+        <v>0.1429275847270265</v>
       </c>
       <c r="B600" t="n">
-        <v>0.08670555325396846</v>
+        <v>0.07159871138727895</v>
       </c>
       <c r="C600" t="n">
         <v>1</v>
@@ -7041,10 +7041,10 @@
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>0.09187438317995182</v>
+        <v>0.09187890368001415</v>
       </c>
       <c r="B601" t="n">
-        <v>-0.02009512903740185</v>
+        <v>-0.01798195942775772</v>
       </c>
       <c r="C601" t="n">
         <v>1</v>
@@ -7052,10 +7052,10 @@
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>0.2023587882328675</v>
+        <v>0.2023580091812479</v>
       </c>
       <c r="B602" t="n">
-        <v>-0.04262401076406303</v>
+        <v>-0.05453974227751061</v>
       </c>
       <c r="C602" t="n">
         <v>1</v>
@@ -7063,10 +7063,10 @@
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>0.2478911428115251</v>
+        <v>0.247892819583735</v>
       </c>
       <c r="B603" t="n">
-        <v>0.07540422056038956</v>
+        <v>0.0713522570258542</v>
       </c>
       <c r="C603" t="n">
         <v>0</v>
@@ -7085,10 +7085,10 @@
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>0.3357043077838632</v>
+        <v>0.3356935669240885</v>
       </c>
       <c r="B605" t="n">
-        <v>-0.08398309593701558</v>
+        <v>-0.09376053852237499</v>
       </c>
       <c r="C605" t="n">
         <v>1</v>
@@ -7096,10 +7096,10 @@
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>0.1511173403076644</v>
+        <v>0.151119549061049</v>
       </c>
       <c r="B606" t="n">
-        <v>0.07753022915158204</v>
+        <v>0.07718660676914391</v>
       </c>
       <c r="C606" t="n">
         <v>1</v>
@@ -7107,10 +7107,10 @@
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>0.1266019602155201</v>
+        <v>0.1266037109381135</v>
       </c>
       <c r="B607" t="n">
-        <v>0.06703523188776099</v>
+        <v>0.07495561429977626</v>
       </c>
       <c r="C607" t="n">
         <v>0</v>
@@ -7118,10 +7118,10 @@
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>0.1049514780668363</v>
+        <v>0.1049438455555472</v>
       </c>
       <c r="B608" t="n">
-        <v>0.1646758336615375</v>
+        <v>0.156250482322901</v>
       </c>
       <c r="C608" t="n">
         <v>0</v>
@@ -7129,10 +7129,10 @@
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>0.1183366735496824</v>
+        <v>0.1183303031203193</v>
       </c>
       <c r="B609" t="n">
-        <v>0.2051093526378954</v>
+        <v>0.2056035081702234</v>
       </c>
       <c r="C609" t="n">
         <v>0</v>
@@ -7140,10 +7140,10 @@
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>0.1608974217583716</v>
+        <v>0.1608929742676697</v>
       </c>
       <c r="B610" t="n">
-        <v>0.05346882473931969</v>
+        <v>0.05742523274268953</v>
       </c>
       <c r="C610" t="n">
         <v>0</v>
@@ -7151,10 +7151,10 @@
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>0.1168678690581395</v>
+        <v>0.1168652435343393</v>
       </c>
       <c r="B611" t="n">
-        <v>0.06222148676646778</v>
+        <v>0.05085366656260142</v>
       </c>
       <c r="C611" t="n">
         <v>1</v>
@@ -7162,10 +7162,10 @@
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>0.1940500294347647</v>
+        <v>0.194054039995312</v>
       </c>
       <c r="B612" t="n">
-        <v>0.009193221128930498</v>
+        <v>0.003810459994854153</v>
       </c>
       <c r="C612" t="n">
         <v>0</v>
@@ -7173,10 +7173,10 @@
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>0.1513944716654848</v>
+        <v>0.1513904252696483</v>
       </c>
       <c r="B613" t="n">
-        <v>0.09151745094858502</v>
+        <v>0.08871196344929819</v>
       </c>
       <c r="C613" t="n">
         <v>1</v>
@@ -7184,10 +7184,10 @@
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>0.1073193546570572</v>
+        <v>0.1073166263183689</v>
       </c>
       <c r="B614" t="n">
-        <v>0.04548790351278036</v>
+        <v>0.04887104770266855</v>
       </c>
       <c r="C614" t="n">
         <v>1</v>
@@ -7195,10 +7195,10 @@
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>0.2053906132501713</v>
+        <v>0.2053848253044317</v>
       </c>
       <c r="B615" t="n">
-        <v>-0.08964965102769593</v>
+        <v>-0.09179712116744562</v>
       </c>
       <c r="C615" t="n">
         <v>1</v>
@@ -7206,10 +7206,10 @@
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>0.0776305315733202</v>
+        <v>0.07763200517590692</v>
       </c>
       <c r="B616" t="n">
-        <v>-0.02967661737259294</v>
+        <v>-0.0288008649684176</v>
       </c>
       <c r="C616" t="n">
         <v>1</v>
@@ -7217,10 +7217,10 @@
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>0.2807951081853813</v>
+        <v>0.2807964195281512</v>
       </c>
       <c r="B617" t="n">
-        <v>-0.1172136725196739</v>
+        <v>-0.1137773760816071</v>
       </c>
       <c r="C617" t="n">
         <v>1</v>
@@ -7228,10 +7228,10 @@
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>0.184642277798524</v>
+        <v>0.1846440658856376</v>
       </c>
       <c r="B618" t="n">
-        <v>-0.08170541145050846</v>
+        <v>-0.08267311203318976</v>
       </c>
       <c r="C618" t="n">
         <v>1</v>
@@ -7239,10 +7239,10 @@
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>0.204106036965899</v>
+        <v>0.2041092051272016</v>
       </c>
       <c r="B619" t="n">
-        <v>0.08283612967787957</v>
+        <v>0.09406650028168895</v>
       </c>
       <c r="C619" t="n">
         <v>0</v>
@@ -7250,10 +7250,10 @@
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>0.1646468670256636</v>
+        <v>0.1646458744077061</v>
       </c>
       <c r="B620" t="n">
-        <v>0.05474584756529698</v>
+        <v>0.06439170709230113</v>
       </c>
       <c r="C620" t="n">
         <v>0</v>
@@ -7261,10 +7261,10 @@
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>0.2585153010799307</v>
+        <v>0.2585177805129966</v>
       </c>
       <c r="B621" t="n">
-        <v>0.02460744884583635</v>
+        <v>0.02618225253488289</v>
       </c>
       <c r="C621" t="n">
         <v>0</v>
@@ -7272,10 +7272,10 @@
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>0.327767891285734</v>
+        <v>0.3277635118492797</v>
       </c>
       <c r="B622" t="n">
-        <v>-0.05878889924167521</v>
+        <v>-0.05902686800174792</v>
       </c>
       <c r="C622" t="n">
         <v>1</v>
@@ -7283,10 +7283,10 @@
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>0.2413495756082764</v>
+        <v>0.241346773420737</v>
       </c>
       <c r="B623" t="n">
-        <v>0.1225989492057029</v>
+        <v>0.1058281641440169</v>
       </c>
       <c r="C623" t="n">
         <v>1</v>
@@ -7294,10 +7294,10 @@
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>0.1400542598068649</v>
+        <v>0.1400590650288718</v>
       </c>
       <c r="B624" t="n">
-        <v>0.03527079406313582</v>
+        <v>0.03231132711593892</v>
       </c>
       <c r="C624" t="n">
         <v>0</v>
@@ -7305,10 +7305,10 @@
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>0.3224212799878904</v>
+        <v>0.3224257922559683</v>
       </c>
       <c r="B625" t="n">
-        <v>0.01378112384963481</v>
+        <v>0.0140332645316184</v>
       </c>
       <c r="C625" t="n">
         <v>0</v>
@@ -7316,10 +7316,10 @@
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>0.2035361160927487</v>
+        <v>0.2035356991767997</v>
       </c>
       <c r="B626" t="n">
-        <v>-0.1144532647208775</v>
+        <v>-0.1180100765040448</v>
       </c>
       <c r="C626" t="n">
         <v>1</v>
@@ -7327,10 +7327,10 @@
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>0.1349424582531064</v>
+        <v>0.1349427807815917</v>
       </c>
       <c r="B627" t="n">
-        <v>-0.0272673778250609</v>
+        <v>-0.02510733927555723</v>
       </c>
       <c r="C627" t="n">
         <v>1</v>
@@ -7338,10 +7338,10 @@
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>0.1275492148467626</v>
+        <v>0.1275495547095561</v>
       </c>
       <c r="B628" t="n">
-        <v>-0.07853162466431318</v>
+        <v>-0.08483954290280418</v>
       </c>
       <c r="C628" t="n">
         <v>1</v>
@@ -7349,10 +7349,10 @@
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>0.1485903152427512</v>
+        <v>0.1485940812104517</v>
       </c>
       <c r="B629" t="n">
-        <v>0.1382418459916311</v>
+        <v>0.1325749140167616</v>
       </c>
       <c r="C629" t="n">
         <v>1</v>
@@ -7360,10 +7360,10 @@
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>0.3088893854981498</v>
+        <v>0.3088901111046183</v>
       </c>
       <c r="B630" t="n">
-        <v>-0.1417477002739826</v>
+        <v>-0.1476107216826527</v>
       </c>
       <c r="C630" t="n">
         <v>1</v>
@@ -7371,10 +7371,10 @@
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>0.2521247490261844</v>
+        <v>0.2521227825062234</v>
       </c>
       <c r="B631" t="n">
-        <v>-0.08415973106855822</v>
+        <v>-0.07996810420525895</v>
       </c>
       <c r="C631" t="n">
         <v>1</v>
@@ -7382,10 +7382,10 @@
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>0.2852353196894604</v>
+        <v>0.2852365936465637</v>
       </c>
       <c r="B632" t="n">
-        <v>-0.1320431903179403</v>
+        <v>-0.1317111979449984</v>
       </c>
       <c r="C632" t="n">
         <v>1</v>
@@ -7393,10 +7393,10 @@
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>0.09214576973611954</v>
+        <v>0.09215029354643937</v>
       </c>
       <c r="B633" t="n">
-        <v>0.0116684929721502</v>
+        <v>0.01286057950592603</v>
       </c>
       <c r="C633" t="n">
         <v>1</v>
@@ -7404,10 +7404,10 @@
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>0.1820408556620569</v>
+        <v>0.1820375603717378</v>
       </c>
       <c r="B634" t="n">
-        <v>-0.01073645847754209</v>
+        <v>-0.01308558122534925</v>
       </c>
       <c r="C634" t="n">
         <v>0</v>
@@ -7415,10 +7415,10 @@
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>0.1963442648017572</v>
+        <v>0.196338229807441</v>
       </c>
       <c r="B635" t="n">
-        <v>0.00242934896730625</v>
+        <v>0.004695461571501176</v>
       </c>
       <c r="C635" t="n">
         <v>1</v>
@@ -7426,10 +7426,10 @@
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>0.2104781209531192</v>
+        <v>0.2104676759737779</v>
       </c>
       <c r="B636" t="n">
-        <v>-0.05058664515139241</v>
+        <v>-0.05212515138636753</v>
       </c>
       <c r="C636" t="n">
         <v>1</v>
@@ -7437,10 +7437,10 @@
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>0.1543138275541081</v>
+        <v>0.1543195772229982</v>
       </c>
       <c r="B637" t="n">
-        <v>0.01906809210237083</v>
+        <v>0.02171334159576241</v>
       </c>
       <c r="C637" t="n">
         <v>0</v>
@@ -7448,10 +7448,10 @@
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>0.1966327870921455</v>
+        <v>0.1966212297293881</v>
       </c>
       <c r="B638" t="n">
-        <v>0.01299668652519129</v>
+        <v>0.00665767597557293</v>
       </c>
       <c r="C638" t="n">
         <v>0</v>
@@ -7459,10 +7459,10 @@
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>0.1529766284669115</v>
+        <v>0.152973674738375</v>
       </c>
       <c r="B639" t="n">
-        <v>0.03606957549649031</v>
+        <v>0.02647119269298169</v>
       </c>
       <c r="C639" t="n">
         <v>1</v>
@@ -7470,10 +7470,10 @@
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>0.2999406141283852</v>
+        <v>0.2999489129985549</v>
       </c>
       <c r="B640" t="n">
-        <v>-0.1297380729682393</v>
+        <v>-0.1195761445217028</v>
       </c>
       <c r="C640" t="n">
         <v>1</v>
@@ -7481,10 +7481,10 @@
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>0.2106592707724381</v>
+        <v>0.2106566437471019</v>
       </c>
       <c r="B641" t="n">
-        <v>-0.02331982494105764</v>
+        <v>-0.0329306354745876</v>
       </c>
       <c r="C641" t="n">
         <v>1</v>
@@ -7492,10 +7492,10 @@
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>0.04366034310299673</v>
+        <v>0.04365759291715027</v>
       </c>
       <c r="B642" t="n">
-        <v>0.007612452236555619</v>
+        <v>0.002527636868899156</v>
       </c>
       <c r="C642" t="n">
         <v>1</v>
@@ -7503,10 +7503,10 @@
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>0.1640820569350827</v>
+        <v>0.164080623855005</v>
       </c>
       <c r="B643" t="n">
-        <v>-0.09990706504433688</v>
+        <v>-0.100064415255358</v>
       </c>
       <c r="C643" t="n">
         <v>1</v>
@@ -7514,10 +7514,10 @@
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>0.09478266247177985</v>
+        <v>0.09478297535135266</v>
       </c>
       <c r="B644" t="n">
-        <v>-0.07018350939010004</v>
+        <v>-0.06275588480868621</v>
       </c>
       <c r="C644" t="n">
         <v>1</v>
@@ -7536,10 +7536,10 @@
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>0.106449849322509</v>
+        <v>0.1064502857876329</v>
       </c>
       <c r="B646" t="n">
-        <v>0.02989082066779745</v>
+        <v>0.03060482517199568</v>
       </c>
       <c r="C646" t="n">
         <v>0</v>
@@ -7558,10 +7558,10 @@
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>0.02298487340537479</v>
+        <v>0.02298948862174141</v>
       </c>
       <c r="B648" t="n">
-        <v>0.03266965031457705</v>
+        <v>0.03159289113330443</v>
       </c>
       <c r="C648" t="n">
         <v>0</v>
@@ -7569,10 +7569,10 @@
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>0.01412085875176469</v>
+        <v>0.01412004582593101</v>
       </c>
       <c r="B649" t="n">
-        <v>-0.01787499846761074</v>
+        <v>-0.01979254820506852</v>
       </c>
       <c r="C649" t="n">
         <v>1</v>
@@ -7580,10 +7580,10 @@
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>0.15863249632806</v>
+        <v>0.1586261649817911</v>
       </c>
       <c r="B650" t="n">
-        <v>0.005273385192937967</v>
+        <v>0.008754474464501826</v>
       </c>
       <c r="C650" t="n">
         <v>0</v>
@@ -7591,10 +7591,10 @@
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>0.03104953380952431</v>
+        <v>0.03104527289345085</v>
       </c>
       <c r="B651" t="n">
-        <v>-0.02605230349290943</v>
+        <v>-0.02883889805609951</v>
       </c>
       <c r="C651" t="n">
         <v>1</v>
@@ -7602,10 +7602,10 @@
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>0.03171475118266502</v>
+        <v>0.03173858143997779</v>
       </c>
       <c r="B652" t="n">
-        <v>0.1211591880324171</v>
+        <v>0.130659667188219</v>
       </c>
       <c r="C652" t="n">
         <v>0</v>
@@ -7613,10 +7613,10 @@
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>0.1322243102319013</v>
+        <v>0.1322270122306402</v>
       </c>
       <c r="B653" t="n">
-        <v>0.07698132566724689</v>
+        <v>0.07014680439631882</v>
       </c>
       <c r="C653" t="n">
         <v>0</v>
@@ -7624,10 +7624,10 @@
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>0.1057211139219319</v>
+        <v>0.1057174402758899</v>
       </c>
       <c r="B654" t="n">
-        <v>-0.03207136897975446</v>
+        <v>-0.04266651364118989</v>
       </c>
       <c r="C654" t="n">
         <v>1</v>
@@ -7635,10 +7635,10 @@
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>0.2864326278622495</v>
+        <v>0.2864344242180604</v>
       </c>
       <c r="B655" t="n">
-        <v>-0.04603544342409911</v>
+        <v>-0.05558046637534645</v>
       </c>
       <c r="C655" t="n">
         <v>1</v>
@@ -7646,10 +7646,10 @@
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>0.1049329459753247</v>
+        <v>0.1049337502637643</v>
       </c>
       <c r="B656" t="n">
-        <v>0.02149635875851049</v>
+        <v>0.02183148860932934</v>
       </c>
       <c r="C656" t="n">
         <v>0</v>
@@ -7657,10 +7657,10 @@
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>0.1248288878873569</v>
+        <v>0.1248343097736507</v>
       </c>
       <c r="B657" t="n">
-        <v>0.1044741370654604</v>
+        <v>0.1067959754624121</v>
       </c>
       <c r="C657" t="n">
         <v>0</v>
@@ -7668,10 +7668,10 @@
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>0.1480415096850405</v>
+        <v>0.1480419380385314</v>
       </c>
       <c r="B658" t="n">
-        <v>0.09844727831137955</v>
+        <v>0.09947568741888055</v>
       </c>
       <c r="C658" t="n">
         <v>1</v>
@@ -7679,10 +7679,10 @@
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>0.1937886557340768</v>
+        <v>0.1937867221180944</v>
       </c>
       <c r="B659" t="n">
-        <v>-0.09140084762500289</v>
+        <v>-0.07880639868800508</v>
       </c>
       <c r="C659" t="n">
         <v>1</v>
@@ -7690,10 +7690,10 @@
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>0.1149481473188071</v>
+        <v>0.1149490983860759</v>
       </c>
       <c r="B660" t="n">
-        <v>0.1192965049314332</v>
+        <v>0.1107468950807168</v>
       </c>
       <c r="C660" t="n">
         <v>0</v>
@@ -7701,10 +7701,10 @@
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>0.08733131895867347</v>
+        <v>0.08732865879032785</v>
       </c>
       <c r="B661" t="n">
-        <v>0.02309516582490824</v>
+        <v>0.0237942608574932</v>
       </c>
       <c r="C661" t="n">
         <v>1</v>
@@ -7712,10 +7712,10 @@
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>0.1312349016545853</v>
+        <v>0.1312301977360867</v>
       </c>
       <c r="B662" t="n">
-        <v>-0.04917625174341036</v>
+        <v>-0.05279654569559185</v>
       </c>
       <c r="C662" t="n">
         <v>1</v>
@@ -7723,10 +7723,10 @@
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>0.07390301653687431</v>
+        <v>0.07389084383696379</v>
       </c>
       <c r="B663" t="n">
-        <v>0.1796141980902421</v>
+        <v>0.1688645556514839</v>
       </c>
       <c r="C663" t="n">
         <v>1</v>
@@ -7734,10 +7734,10 @@
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>0.2730741437897323</v>
+        <v>0.2730727871280395</v>
       </c>
       <c r="B664" t="n">
-        <v>0.1004545538864251</v>
+        <v>0.08969893548853214</v>
       </c>
       <c r="C664" t="n">
         <v>1</v>
@@ -7745,10 +7745,10 @@
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>0.07509477346904218</v>
+        <v>0.07510195735736949</v>
       </c>
       <c r="B665" t="n">
-        <v>-0.000728311325746737</v>
+        <v>0.001019343201822208</v>
       </c>
       <c r="C665" t="n">
         <v>0</v>
@@ -7756,10 +7756,10 @@
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>0.1313453217159673</v>
+        <v>0.1313565175518912</v>
       </c>
       <c r="B666" t="n">
-        <v>0.1492621433294618</v>
+        <v>0.1516677588919684</v>
       </c>
       <c r="C666" t="n">
         <v>0</v>
@@ -7767,10 +7767,10 @@
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>0.1618983460219454</v>
+        <v>0.1618822722079884</v>
       </c>
       <c r="B667" t="n">
-        <v>0.04666096090686278</v>
+        <v>0.03992713887631705</v>
       </c>
       <c r="C667" t="n">
         <v>1</v>
@@ -7778,10 +7778,10 @@
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>0.1183963105560843</v>
+        <v>0.118386124411779</v>
       </c>
       <c r="B668" t="n">
-        <v>-0.02702758382330461</v>
+        <v>-0.03830854514591189</v>
       </c>
       <c r="C668" t="n">
         <v>0</v>
@@ -7789,10 +7789,10 @@
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>0.1023792229934176</v>
+        <v>0.1023847844654642</v>
       </c>
       <c r="B669" t="n">
-        <v>0.002830661550291242</v>
+        <v>0.004009471097154503</v>
       </c>
       <c r="C669" t="n">
         <v>1</v>
@@ -7800,10 +7800,10 @@
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>0.3623912491745201</v>
+        <v>0.362393083605887</v>
       </c>
       <c r="B670" t="n">
-        <v>0.09280866578489824</v>
+        <v>0.08599419574371768</v>
       </c>
       <c r="C670" t="n">
         <v>0</v>
@@ -7811,10 +7811,10 @@
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>0.1535034825947398</v>
+        <v>0.1535090225491342</v>
       </c>
       <c r="B671" t="n">
-        <v>0.2147111229398636</v>
+        <v>0.2271105137675322</v>
       </c>
       <c r="C671" t="n">
         <v>0</v>
@@ -7822,10 +7822,10 @@
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>0.1216061393218031</v>
+        <v>0.1216004607525228</v>
       </c>
       <c r="B672" t="n">
-        <v>0.2023160215206448</v>
+        <v>0.1928288034232876</v>
       </c>
       <c r="C672" t="n">
         <v>0</v>
@@ -7833,10 +7833,10 @@
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>0.205814397237366</v>
+        <v>0.2058017594257378</v>
       </c>
       <c r="B673" t="n">
-        <v>-0.06367664034730515</v>
+        <v>-0.07555132603818016</v>
       </c>
       <c r="C673" t="n">
         <v>0</v>
@@ -7844,10 +7844,10 @@
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>0.1163708307142114</v>
+        <v>0.1163759565588752</v>
       </c>
       <c r="B674" t="n">
-        <v>0.0454307509410009</v>
+        <v>0.04709946343314984</v>
       </c>
       <c r="C674" t="n">
         <v>0</v>
@@ -7855,10 +7855,10 @@
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>0.2254693387311166</v>
+        <v>0.2254727096823732</v>
       </c>
       <c r="B675" t="n">
-        <v>0.05909679003339581</v>
+        <v>0.05404542094069176</v>
       </c>
       <c r="C675" t="n">
         <v>0</v>
@@ -7866,10 +7866,10 @@
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>0.09811666322780989</v>
+        <v>0.09812922558153353</v>
       </c>
       <c r="B676" t="n">
-        <v>0.02485013409544567</v>
+        <v>0.03429340664687935</v>
       </c>
       <c r="C676" t="n">
         <v>1</v>
@@ -7877,10 +7877,10 @@
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>0.1636929831925107</v>
+        <v>0.1636927115127336</v>
       </c>
       <c r="B677" t="n">
-        <v>-0.06759146049904789</v>
+        <v>-0.06567475602224516</v>
       </c>
       <c r="C677" t="n">
         <v>1</v>
@@ -7888,10 +7888,10 @@
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>0.2786004315067451</v>
+        <v>0.278601947200314</v>
       </c>
       <c r="B678" t="n">
-        <v>0.02732657012261156</v>
+        <v>0.02328393165122943</v>
       </c>
       <c r="C678" t="n">
         <v>0</v>
@@ -7899,10 +7899,10 @@
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>0.1257966212538732</v>
+        <v>0.1257924350649053</v>
       </c>
       <c r="B679" t="n">
-        <v>-0.07180880381733364</v>
+        <v>-0.07621540514227608</v>
       </c>
       <c r="C679" t="n">
         <v>1</v>
@@ -7910,10 +7910,10 @@
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>0.3025920145950353</v>
+        <v>0.302602838242975</v>
       </c>
       <c r="B680" t="n">
-        <v>-0.2690002166730106</v>
+        <v>-0.2540597596571579</v>
       </c>
       <c r="C680" t="n">
         <v>1</v>
@@ -7921,10 +7921,10 @@
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>0.2476119498844297</v>
+        <v>0.2476133027938319</v>
       </c>
       <c r="B681" t="n">
-        <v>0.2965462573943392</v>
+        <v>0.2969573166272921</v>
       </c>
       <c r="C681" t="n">
         <v>0</v>
@@ -7932,10 +7932,10 @@
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>0.2044655740008722</v>
+        <v>0.2044607760578766</v>
       </c>
       <c r="B682" t="n">
-        <v>-0.03680477819724658</v>
+        <v>-0.04157521249648153</v>
       </c>
       <c r="C682" t="n">
         <v>1</v>
@@ -7943,10 +7943,10 @@
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>0.1310329110064286</v>
+        <v>0.1310419226524078</v>
       </c>
       <c r="B683" t="n">
-        <v>-0.05179311431935313</v>
+        <v>-0.0439097067383739</v>
       </c>
       <c r="C683" t="n">
         <v>1</v>
@@ -7954,10 +7954,10 @@
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>0.1414763125025133</v>
+        <v>0.1414701500897332</v>
       </c>
       <c r="B684" t="n">
-        <v>-0.0585990256638888</v>
+        <v>-0.07144315282956162</v>
       </c>
       <c r="C684" t="n">
         <v>0</v>
@@ -7965,10 +7965,10 @@
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>0.146655818416135</v>
+        <v>0.1466513103744609</v>
       </c>
       <c r="B685" t="n">
-        <v>0.02438552626752195</v>
+        <v>0.02254354724267623</v>
       </c>
       <c r="C685" t="n">
         <v>0</v>
@@ -7976,10 +7976,10 @@
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>0.3336943985389934</v>
+        <v>0.3336926956339069</v>
       </c>
       <c r="B686" t="n">
-        <v>0.04155994833086521</v>
+        <v>0.03347083730732259</v>
       </c>
       <c r="C686" t="n">
         <v>0</v>
@@ -7987,10 +7987,10 @@
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>0.2650722776733311</v>
+        <v>0.2650666417047705</v>
       </c>
       <c r="B687" t="n">
-        <v>0.0002998254941852342</v>
+        <v>-0.001105370664842023</v>
       </c>
       <c r="C687" t="n">
         <v>1</v>
@@ -7998,10 +7998,10 @@
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>0.1041243527803536</v>
+        <v>0.1041218611813686</v>
       </c>
       <c r="B688" t="n">
-        <v>0.1439464283418088</v>
+        <v>0.1509729014037157</v>
       </c>
       <c r="C688" t="n">
         <v>1</v>
@@ -8009,10 +8009,10 @@
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>0.1586683910559244</v>
+        <v>0.1586624891776129</v>
       </c>
       <c r="B689" t="n">
-        <v>-0.07433344232401565</v>
+        <v>-0.08414304183990892</v>
       </c>
       <c r="C689" t="n">
         <v>1</v>
@@ -8020,10 +8020,10 @@
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>0.268076100027212</v>
+        <v>0.2680776153374854</v>
       </c>
       <c r="B690" t="n">
-        <v>0.05121633775361406</v>
+        <v>0.04403293332352688</v>
       </c>
       <c r="C690" t="n">
         <v>0</v>
@@ -8031,10 +8031,10 @@
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>0.1818091802435747</v>
+        <v>0.1818085518946753</v>
       </c>
       <c r="B691" t="n">
-        <v>-0.1642288817393469</v>
+        <v>-0.1741431090537726</v>
       </c>
       <c r="C691" t="n">
         <v>1</v>
@@ -8042,10 +8042,10 @@
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>0.1406191634574849</v>
+        <v>0.1406177652974824</v>
       </c>
       <c r="B692" t="n">
-        <v>0.0714253586090923</v>
+        <v>0.06872967921755067</v>
       </c>
       <c r="C692" t="n">
         <v>0</v>
@@ -8053,10 +8053,10 @@
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>0.1922632836013789</v>
+        <v>0.1922767475566739</v>
       </c>
       <c r="B693" t="n">
-        <v>-0.1502747150028432</v>
+        <v>-0.1428894585935035</v>
       </c>
       <c r="C693" t="n">
         <v>1</v>
@@ -8064,10 +8064,10 @@
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>0.2385873996046539</v>
+        <v>0.2385903003857684</v>
       </c>
       <c r="B694" t="n">
-        <v>-0.020677669168367</v>
+        <v>-0.01535962896388424</v>
       </c>
       <c r="C694" t="n">
         <v>1</v>
@@ -8075,10 +8075,10 @@
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>0.1271734485341423</v>
+        <v>0.1271688696760216</v>
       </c>
       <c r="B695" t="n">
-        <v>0.01096600713610282</v>
+        <v>0.00863417860952578</v>
       </c>
       <c r="C695" t="n">
         <v>0</v>
@@ -8086,10 +8086,10 @@
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>0.08350994822988558</v>
+        <v>0.08351175806530839</v>
       </c>
       <c r="B696" t="n">
-        <v>-0.05242522649090209</v>
+        <v>-0.0568865980000985</v>
       </c>
       <c r="C696" t="n">
         <v>1</v>
@@ -8097,10 +8097,10 @@
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>0.05159573799754075</v>
+        <v>0.05159819292900297</v>
       </c>
       <c r="B697" t="n">
-        <v>0.04451518709575202</v>
+        <v>0.03863088648896591</v>
       </c>
       <c r="C697" t="n">
         <v>0</v>
@@ -8108,10 +8108,10 @@
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>0.1648264734778537</v>
+        <v>0.1648217888947676</v>
       </c>
       <c r="B698" t="n">
-        <v>-0.05155912198087132</v>
+        <v>-0.04769432026413941</v>
       </c>
       <c r="C698" t="n">
         <v>1</v>
@@ -8119,10 +8119,10 @@
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>0.2147702189370855</v>
+        <v>0.2147691805055885</v>
       </c>
       <c r="B699" t="n">
-        <v>-0.008105392533699567</v>
+        <v>-0.008425258730231571</v>
       </c>
       <c r="C699" t="n">
         <v>1</v>
@@ -8130,10 +8130,10 @@
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>0.08754944736873423</v>
+        <v>0.0875527578769684</v>
       </c>
       <c r="B700" t="n">
-        <v>-0.01989196402611079</v>
+        <v>-0.01843670958060553</v>
       </c>
       <c r="C700" t="n">
         <v>0</v>
@@ -8141,10 +8141,10 @@
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>0.2099299423722047</v>
+        <v>0.2099068279407198</v>
       </c>
       <c r="B701" t="n">
-        <v>0.01913261250583893</v>
+        <v>0.009029089379991832</v>
       </c>
       <c r="C701" t="n">
         <v>0</v>
@@ -8152,10 +8152,10 @@
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>0.2026568991497395</v>
+        <v>0.2026616717685615</v>
       </c>
       <c r="B702" t="n">
-        <v>-0.02030161028421281</v>
+        <v>-0.01600919728315602</v>
       </c>
       <c r="C702" t="n">
         <v>1</v>
@@ -8163,10 +8163,10 @@
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>0.1310329110064286</v>
+        <v>0.1310419226524078</v>
       </c>
       <c r="B703" t="n">
-        <v>-0.05179311431935313</v>
+        <v>-0.0439097067383739</v>
       </c>
       <c r="C703" t="n">
         <v>1</v>
@@ -8174,10 +8174,10 @@
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>0.1572533017473757</v>
+        <v>0.1572566712281042</v>
       </c>
       <c r="B704" t="n">
-        <v>0.06925534522804513</v>
+        <v>0.06187500851096393</v>
       </c>
       <c r="C704" t="n">
         <v>0</v>
@@ -8185,10 +8185,10 @@
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>0.1911962637077174</v>
+        <v>0.191208779599125</v>
       </c>
       <c r="B705" t="n">
-        <v>0.1464657605443504</v>
+        <v>0.1479035346167147</v>
       </c>
       <c r="C705" t="n">
         <v>0</v>
@@ -8196,10 +8196,10 @@
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>0.1380893848183193</v>
+        <v>0.1380983177743897</v>
       </c>
       <c r="B706" t="n">
-        <v>0.09160955327153511</v>
+        <v>0.1002535591175638</v>
       </c>
       <c r="C706" t="n">
         <v>0</v>
@@ -8207,10 +8207,10 @@
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>0.358560640398001</v>
+        <v>0.3585671720148223</v>
       </c>
       <c r="B707" t="n">
-        <v>0.03257922532698895</v>
+        <v>0.03560284048389396</v>
       </c>
       <c r="C707" t="n">
         <v>0</v>
@@ -8218,10 +8218,10 @@
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>0.15205502945599</v>
+        <v>0.1520556356730693</v>
       </c>
       <c r="B708" t="n">
-        <v>0.01156643846144638</v>
+        <v>0.006630485324089469</v>
       </c>
       <c r="C708" t="n">
         <v>0</v>
@@ -8229,10 +8229,10 @@
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>0.1128060432557548</v>
+        <v>0.1128041991816755</v>
       </c>
       <c r="B709" t="n">
-        <v>0.01664904745779379</v>
+        <v>0.01907959410120464</v>
       </c>
       <c r="C709" t="n">
         <v>1</v>
@@ -8240,10 +8240,10 @@
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>0.1705663986314505</v>
+        <v>0.1705851095151872</v>
       </c>
       <c r="B710" t="n">
-        <v>0.1326974591870202</v>
+        <v>0.1391405684561628</v>
       </c>
       <c r="C710" t="n">
         <v>0</v>
@@ -8251,10 +8251,10 @@
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>0.3448847049350833</v>
+        <v>0.3448771219619484</v>
       </c>
       <c r="B711" t="n">
-        <v>-0.1768888500110776</v>
+        <v>-0.178316175990187</v>
       </c>
       <c r="C711" t="n">
         <v>1</v>
@@ -8273,10 +8273,10 @@
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>0.2288034560426454</v>
+        <v>0.2288145752332721</v>
       </c>
       <c r="B713" t="n">
-        <v>-0.2963859421933383</v>
+        <v>-0.2822479690255881</v>
       </c>
       <c r="C713" t="n">
         <v>1</v>
@@ -8284,10 +8284,10 @@
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>0.1884078513521137</v>
+        <v>0.1884041811106792</v>
       </c>
       <c r="B714" t="n">
-        <v>-0.05468502873546674</v>
+        <v>-0.06092549621069396</v>
       </c>
       <c r="C714" t="n">
         <v>1</v>
@@ -8295,10 +8295,10 @@
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>0.2833088908544365</v>
+        <v>0.2833006895043028</v>
       </c>
       <c r="B715" t="n">
-        <v>-0.0680028589959488</v>
+        <v>-0.07222980548633906</v>
       </c>
       <c r="C715" t="n">
         <v>1</v>
@@ -8306,10 +8306,10 @@
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>0.1441333271025836</v>
+        <v>0.1441362510465316</v>
       </c>
       <c r="B716" t="n">
-        <v>0.08296934472903798</v>
+        <v>0.09086852937978347</v>
       </c>
       <c r="C716" t="n">
         <v>0</v>
@@ -8317,10 +8317,10 @@
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>0.1794639667832537</v>
+        <v>0.1794641379527523</v>
       </c>
       <c r="B717" t="n">
-        <v>-0.01263580485334151</v>
+        <v>-0.01457765882432882</v>
       </c>
       <c r="C717" t="n">
         <v>0</v>
@@ -8328,10 +8328,10 @@
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>0.161055018770184</v>
+        <v>0.1610514026862879</v>
       </c>
       <c r="B718" t="n">
-        <v>-0.1036662996108734</v>
+        <v>-0.1088959646773092</v>
       </c>
       <c r="C718" t="n">
         <v>1</v>
@@ -8339,10 +8339,10 @@
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>0.2287866010965661</v>
+        <v>0.2287885252733483</v>
       </c>
       <c r="B719" t="n">
-        <v>-0.1636820842626234</v>
+        <v>-0.1585837732706104</v>
       </c>
       <c r="C719" t="n">
         <v>1</v>
@@ -8350,10 +8350,10 @@
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>0.1378311104822721</v>
+        <v>0.1378212938310171</v>
       </c>
       <c r="B720" t="n">
-        <v>-0.03009266052870896</v>
+        <v>-0.02866692489614412</v>
       </c>
       <c r="C720" t="n">
         <v>0</v>
@@ -8361,10 +8361,10 @@
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>0.2610155236038379</v>
+        <v>0.2610176360344562</v>
       </c>
       <c r="B721" t="n">
-        <v>-0.06747531840868676</v>
+        <v>-0.06673598606776276</v>
       </c>
       <c r="C721" t="n">
         <v>1</v>
@@ -8383,10 +8383,10 @@
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>0.2153806866973583</v>
+        <v>0.2153749784449765</v>
       </c>
       <c r="B723" t="n">
-        <v>-0.02559338732883801</v>
+        <v>-0.05006511119854345</v>
       </c>
       <c r="C723" t="n">
         <v>1</v>
@@ -8394,10 +8394,10 @@
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>0.2197544431971299</v>
+        <v>0.2197656863999283</v>
       </c>
       <c r="B724" t="n">
-        <v>0.1180255450458487</v>
+        <v>0.1234526391991363</v>
       </c>
       <c r="C724" t="n">
         <v>0</v>
@@ -8405,10 +8405,10 @@
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>0.1444369715554037</v>
+        <v>0.1444432765953415</v>
       </c>
       <c r="B725" t="n">
-        <v>0.04842406431978234</v>
+        <v>0.0491156825573994</v>
       </c>
       <c r="C725" t="n">
         <v>1</v>
@@ -8416,10 +8416,10 @@
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>0.196629052138191</v>
+        <v>0.196628259893638</v>
       </c>
       <c r="B726" t="n">
-        <v>-0.02698656109462521</v>
+        <v>-0.02707698134966776</v>
       </c>
       <c r="C726" t="n">
         <v>1</v>
@@ -8427,10 +8427,10 @@
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>0.1222704164095392</v>
+        <v>0.1222690589484901</v>
       </c>
       <c r="B727" t="n">
-        <v>0.0940237811485877</v>
+        <v>0.09037323483905635</v>
       </c>
       <c r="C727" t="n">
         <v>0</v>
@@ -8438,10 +8438,10 @@
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>0.1387976775165704</v>
+        <v>0.1388124229497518</v>
       </c>
       <c r="B728" t="n">
-        <v>-0.01228399341868031</v>
+        <v>0.004010449315246073</v>
       </c>
       <c r="C728" t="n">
         <v>0</v>
@@ -8460,10 +8460,10 @@
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>0.1946532212256619</v>
+        <v>0.1946527114111045</v>
       </c>
       <c r="B730" t="n">
-        <v>-0.06424496460936334</v>
+        <v>-0.06841843299154651</v>
       </c>
       <c r="C730" t="n">
         <v>1</v>
@@ -8471,10 +8471,10 @@
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>0.08547022892445225</v>
+        <v>0.08547189145741203</v>
       </c>
       <c r="B731" t="n">
-        <v>0.05799712492790896</v>
+        <v>0.05772276912892101</v>
       </c>
       <c r="C731" t="n">
         <v>0</v>
@@ -8482,10 +8482,10 @@
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>0.1046070867682255</v>
+        <v>0.1045993197711586</v>
       </c>
       <c r="B732" t="n">
-        <v>-0.01915938101299107</v>
+        <v>-0.03500034798805042</v>
       </c>
       <c r="C732" t="n">
         <v>1</v>
@@ -8493,10 +8493,10 @@
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>0.09778765154265995</v>
+        <v>0.0977934307781651</v>
       </c>
       <c r="B733" t="n">
-        <v>-0.03835393553495952</v>
+        <v>-0.03403425932196229</v>
       </c>
       <c r="C733" t="n">
         <v>1</v>
@@ -8504,10 +8504,10 @@
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>0.2228786042145288</v>
+        <v>0.2228802022818558</v>
       </c>
       <c r="B734" t="n">
-        <v>-0.03935159157600501</v>
+        <v>-0.03691929130674431</v>
       </c>
       <c r="C734" t="n">
         <v>1</v>
@@ -8515,10 +8515,10 @@
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>0.1888940349966035</v>
+        <v>0.1888978104047455</v>
       </c>
       <c r="B735" t="n">
-        <v>0.04275493699730915</v>
+        <v>0.04747519578093709</v>
       </c>
       <c r="C735" t="n">
         <v>0</v>
@@ -8526,10 +8526,10 @@
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>0.3173355326980914</v>
+        <v>0.317340552425316</v>
       </c>
       <c r="B736" t="n">
-        <v>-0.1658178813701877</v>
+        <v>-0.1661708334353111</v>
       </c>
       <c r="C736" t="n">
         <v>1</v>
@@ -8537,10 +8537,10 @@
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>0.2152023185581314</v>
+        <v>0.2151988978284864</v>
       </c>
       <c r="B737" t="n">
-        <v>0.03367456094319583</v>
+        <v>0.0364463942186448</v>
       </c>
       <c r="C737" t="n">
         <v>1</v>
@@ -8548,10 +8548,10 @@
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>0.09527796132340915</v>
+        <v>0.09527184462637264</v>
       </c>
       <c r="B738" t="n">
-        <v>0.009867285135932385</v>
+        <v>0.007563293508626786</v>
       </c>
       <c r="C738" t="n">
         <v>1</v>
@@ -8570,10 +8570,10 @@
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>0.1847289975473935</v>
+        <v>0.1847241446481943</v>
       </c>
       <c r="B740" t="n">
-        <v>-0.05415314379968882</v>
+        <v>-0.05870780941052206</v>
       </c>
       <c r="C740" t="n">
         <v>1</v>
@@ -8581,10 +8581,10 @@
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>0.09185421336951873</v>
+        <v>0.09185327607907977</v>
       </c>
       <c r="B741" t="n">
-        <v>0.01449839696629439</v>
+        <v>0.01710724830625815</v>
       </c>
       <c r="C741" t="n">
         <v>0</v>
@@ -8592,10 +8592,10 @@
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>0.08258648831563074</v>
+        <v>0.08256187020405417</v>
       </c>
       <c r="B742" t="n">
-        <v>0.2334222419111147</v>
+        <v>0.2220189288989992</v>
       </c>
       <c r="C742" t="n">
         <v>0</v>
@@ -8603,10 +8603,10 @@
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>0.1047671927132138</v>
+        <v>0.1047675196327247</v>
       </c>
       <c r="B743" t="n">
-        <v>0.02109555307861001</v>
+        <v>0.01362227997522428</v>
       </c>
       <c r="C743" t="n">
         <v>1</v>
@@ -8625,10 +8625,10 @@
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>0.1502418701825959</v>
+        <v>0.1502260881866079</v>
       </c>
       <c r="B745" t="n">
-        <v>0.1207730003110594</v>
+        <v>0.1144841409888488</v>
       </c>
       <c r="C745" t="n">
         <v>0</v>
@@ -8636,10 +8636,10 @@
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>0.1609989614283334</v>
+        <v>0.1610063557009799</v>
       </c>
       <c r="B746" t="n">
-        <v>0.05342189755862336</v>
+        <v>0.05484486266683743</v>
       </c>
       <c r="C746" t="n">
         <v>0</v>
@@ -8647,10 +8647,10 @@
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>0.1917157516949236</v>
+        <v>0.1917160352473097</v>
       </c>
       <c r="B747" t="n">
-        <v>-0.1489812660545066</v>
+        <v>-0.141113125250645</v>
       </c>
       <c r="C747" t="n">
         <v>1</v>
@@ -8658,10 +8658,10 @@
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>0.1013209078364037</v>
+        <v>0.1013054885509705</v>
       </c>
       <c r="B748" t="n">
-        <v>0.1818958315785174</v>
+        <v>0.1712719430713398</v>
       </c>
       <c r="C748" t="n">
         <v>0</v>
@@ -8669,10 +8669,10 @@
     </row>
     <row r="749">
       <c r="A749" t="n">
-        <v>0.1237168240563151</v>
+        <v>0.1237272083475682</v>
       </c>
       <c r="B749" t="n">
-        <v>0.1290827772850993</v>
+        <v>0.1361408356217701</v>
       </c>
       <c r="C749" t="n">
         <v>0</v>
@@ -8680,10 +8680,10 @@
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>0.1815250405667015</v>
+        <v>0.1815218746492392</v>
       </c>
       <c r="B750" t="n">
-        <v>0.02280333229585416</v>
+        <v>0.02366955491389225</v>
       </c>
       <c r="C750" t="n">
         <v>0</v>
@@ -8691,10 +8691,10 @@
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>0.1896901665815155</v>
+        <v>0.1896918192883891</v>
       </c>
       <c r="B751" t="n">
-        <v>-0.04184760957152941</v>
+        <v>-0.03862850344518239</v>
       </c>
       <c r="C751" t="n">
         <v>1</v>
@@ -8702,10 +8702,10 @@
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>0.04353333422271766</v>
+        <v>0.04353072221989372</v>
       </c>
       <c r="B752" t="n">
-        <v>0.04447604657589187</v>
+        <v>0.04212274258278963</v>
       </c>
       <c r="C752" t="n">
         <v>0</v>
@@ -8713,10 +8713,10 @@
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>0.1646388697176406</v>
+        <v>0.1646462229310105</v>
       </c>
       <c r="B753" t="n">
-        <v>0.08002119565613718</v>
+        <v>0.08096042025655388</v>
       </c>
       <c r="C753" t="n">
         <v>0</v>
@@ -8724,10 +8724,10 @@
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>0.14618336341566</v>
+        <v>0.1461788411932913</v>
       </c>
       <c r="B754" t="n">
-        <v>-0.06271777083856631</v>
+        <v>-0.05614049487362975</v>
       </c>
       <c r="C754" t="n">
         <v>1</v>
@@ -8735,10 +8735,10 @@
     </row>
     <row r="755">
       <c r="A755" t="n">
-        <v>0.2123558821010149</v>
+        <v>0.2123530067969343</v>
       </c>
       <c r="B755" t="n">
-        <v>-0.06221270716433835</v>
+        <v>-0.0660587893108168</v>
       </c>
       <c r="C755" t="n">
         <v>1</v>
@@ -8746,10 +8746,10 @@
     </row>
     <row r="756">
       <c r="A756" t="n">
-        <v>0.2099931363580086</v>
+        <v>0.2099896949693304</v>
       </c>
       <c r="B756" t="n">
-        <v>-0.06206776612973865</v>
+        <v>-0.07682912392577808</v>
       </c>
       <c r="C756" t="n">
         <v>1</v>
@@ -8757,10 +8757,10 @@
     </row>
     <row r="757">
       <c r="A757" t="n">
-        <v>0.09497629886908177</v>
+        <v>0.09497673234476041</v>
       </c>
       <c r="B757" t="n">
-        <v>-0.01596503103474201</v>
+        <v>-0.01834502636406102</v>
       </c>
       <c r="C757" t="n">
         <v>0</v>
@@ -8768,10 +8768,10 @@
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>0.05617961686814451</v>
+        <v>0.05617659768983688</v>
       </c>
       <c r="B758" t="n">
-        <v>-0.01132597634959743</v>
+        <v>-0.01496916194333559</v>
       </c>
       <c r="C758" t="n">
         <v>0</v>
@@ -8779,10 +8779,10 @@
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>0.1299952146866417</v>
+        <v>0.1299945269169312</v>
       </c>
       <c r="B759" t="n">
-        <v>-0.06168121464297607</v>
+        <v>-0.06646062357355563</v>
       </c>
       <c r="C759" t="n">
         <v>1</v>
@@ -8790,10 +8790,10 @@
     </row>
     <row r="760">
       <c r="A760" t="n">
-        <v>0.2594189024831141</v>
+        <v>0.2594199668591429</v>
       </c>
       <c r="B760" t="n">
-        <v>-0.1303679646379233</v>
+        <v>-0.1208216298564236</v>
       </c>
       <c r="C760" t="n">
         <v>1</v>
@@ -8801,10 +8801,10 @@
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>0.1400302318969472</v>
+        <v>0.1400295082667022</v>
       </c>
       <c r="B761" t="n">
-        <v>-0.05228977047291156</v>
+        <v>-0.06146284115589839</v>
       </c>
       <c r="C761" t="n">
         <v>1</v>
@@ -8812,10 +8812,10 @@
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>0.1361346535076683</v>
+        <v>0.1361263722272634</v>
       </c>
       <c r="B762" t="n">
-        <v>-0.05042260924096938</v>
+        <v>-0.0413254817980839</v>
       </c>
       <c r="C762" t="n">
         <v>1</v>
@@ -8823,10 +8823,10 @@
     </row>
     <row r="763">
       <c r="A763" t="n">
-        <v>0.03744476449552612</v>
+        <v>0.03744426836276505</v>
       </c>
       <c r="B763" t="n">
-        <v>-0.02111600799145043</v>
+        <v>-0.0248072952835841</v>
       </c>
       <c r="C763" t="n">
         <v>1</v>
@@ -8834,10 +8834,10 @@
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>0.08527781879607983</v>
+        <v>0.08526713916467014</v>
       </c>
       <c r="B764" t="n">
-        <v>0.0069430337662556</v>
+        <v>0.001110407727582289</v>
       </c>
       <c r="C764" t="n">
         <v>1</v>
@@ -8845,10 +8845,10 @@
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>0.1531018217968049</v>
+        <v>0.1531055144754088</v>
       </c>
       <c r="B765" t="n">
-        <v>-0.08577847575949228</v>
+        <v>-0.08236734785328655</v>
       </c>
       <c r="C765" t="n">
         <v>1</v>
@@ -8856,10 +8856,10 @@
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>0.1613969195853652</v>
+        <v>0.1613972194187581</v>
       </c>
       <c r="B766" t="n">
-        <v>-0.01121122849752864</v>
+        <v>-0.007647908285280395</v>
       </c>
       <c r="C766" t="n">
         <v>1</v>
@@ -8867,10 +8867,10 @@
     </row>
     <row r="767">
       <c r="A767" t="n">
-        <v>0.0492020888418165</v>
+        <v>0.04920647285428103</v>
       </c>
       <c r="B767" t="n">
-        <v>0.0002942217014492377</v>
+        <v>0.005478251808905986</v>
       </c>
       <c r="C767" t="n">
         <v>0</v>
@@ -8878,10 +8878,10 @@
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>0.2026921030058717</v>
+        <v>0.2026857414405248</v>
       </c>
       <c r="B768" t="n">
-        <v>-0.0272671865173074</v>
+        <v>-0.0380294010095255</v>
       </c>
       <c r="C768" t="n">
         <v>0</v>
@@ -8889,10 +8889,10 @@
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>0.1314319841010645</v>
+        <v>0.1314273596059519</v>
       </c>
       <c r="B769" t="n">
-        <v>0.04321124370204649</v>
+        <v>0.03759026007976128</v>
       </c>
       <c r="C769" t="n">
         <v>0</v>
@@ -8900,10 +8900,10 @@
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>0.1736396654840845</v>
+        <v>0.173647098419597</v>
       </c>
       <c r="B770" t="n">
-        <v>0.08738919880834781</v>
+        <v>0.09272073719144551</v>
       </c>
       <c r="C770" t="n">
         <v>0</v>
@@ -8911,10 +8911,10 @@
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>0.2393114449589199</v>
+        <v>0.2393151086191255</v>
       </c>
       <c r="B771" t="n">
-        <v>-0.1003364153214913</v>
+        <v>-0.08761367796685536</v>
       </c>
       <c r="C771" t="n">
         <v>1</v>
@@ -8922,10 +8922,10 @@
     </row>
     <row r="772">
       <c r="A772" t="n">
-        <v>0.1122400655661797</v>
+        <v>0.1122336063021078</v>
       </c>
       <c r="B772" t="n">
-        <v>0.01397197083795833</v>
+        <v>0.01234132524185711</v>
       </c>
       <c r="C772" t="n">
         <v>1</v>
@@ -8933,10 +8933,10 @@
     </row>
     <row r="773">
       <c r="A773" t="n">
-        <v>0.1015660248480249</v>
+        <v>0.1015650971340384</v>
       </c>
       <c r="B773" t="n">
-        <v>-0.0891517460139766</v>
+        <v>-0.08105153051003326</v>
       </c>
       <c r="C773" t="n">
         <v>1</v>
@@ -8955,10 +8955,10 @@
     </row>
     <row r="775">
       <c r="A775" t="n">
-        <v>0.2313256119148888</v>
+        <v>0.231317027488825</v>
       </c>
       <c r="B775" t="n">
-        <v>-0.09482901816548756</v>
+        <v>-0.09038218519555129</v>
       </c>
       <c r="C775" t="n">
         <v>1</v>
@@ -8966,10 +8966,10 @@
     </row>
     <row r="776">
       <c r="A776" t="n">
-        <v>0.2022782368625003</v>
+        <v>0.2022733727806461</v>
       </c>
       <c r="B776" t="n">
-        <v>0.004677652047060619</v>
+        <v>-0.00855117555161589</v>
       </c>
       <c r="C776" t="n">
         <v>1</v>
@@ -8977,10 +8977,10 @@
     </row>
     <row r="777">
       <c r="A777" t="n">
-        <v>0.2741541341910465</v>
+        <v>0.2741542597049408</v>
       </c>
       <c r="B777" t="n">
-        <v>0.0252687264801544</v>
+        <v>0.03245114043156275</v>
       </c>
       <c r="C777" t="n">
         <v>0</v>
@@ -8988,10 +8988,10 @@
     </row>
     <row r="778">
       <c r="A778" t="n">
-        <v>0.1359386716057519</v>
+        <v>0.1359386248956092</v>
       </c>
       <c r="B778" t="n">
-        <v>-0.07332225241296068</v>
+        <v>-0.07426410279077983</v>
       </c>
       <c r="C778" t="n">
         <v>1</v>
@@ -8999,10 +8999,10 @@
     </row>
     <row r="779">
       <c r="A779" t="n">
-        <v>0.09168386954726437</v>
+        <v>0.09168620952940355</v>
       </c>
       <c r="B779" t="n">
-        <v>-0.04933661231016995</v>
+        <v>-0.05531317301575004</v>
       </c>
       <c r="C779" t="n">
         <v>1</v>
@@ -9010,10 +9010,10 @@
     </row>
     <row r="780">
       <c r="A780" t="n">
-        <v>0.1387111311140541</v>
+        <v>0.1386998584343916</v>
       </c>
       <c r="B780" t="n">
-        <v>0.02565423299707321</v>
+        <v>0.02281761124524674</v>
       </c>
       <c r="C780" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
     </row>
     <row r="781">
       <c r="A781" t="n">
-        <v>0.1051846538658355</v>
+        <v>0.1051863242150409</v>
       </c>
       <c r="B781" t="n">
-        <v>-0.05445627393849944</v>
+        <v>-0.05285247325998717</v>
       </c>
       <c r="C781" t="n">
         <v>1</v>
@@ -9032,10 +9032,10 @@
     </row>
     <row r="782">
       <c r="A782" t="n">
-        <v>0.1350239925741933</v>
+        <v>0.1350328479876446</v>
       </c>
       <c r="B782" t="n">
-        <v>0.1450016071090841</v>
+        <v>0.156827353861279</v>
       </c>
       <c r="C782" t="n">
         <v>0</v>
@@ -9043,10 +9043,10 @@
     </row>
     <row r="783">
       <c r="A783" t="n">
-        <v>0.2708793453050343</v>
+        <v>0.270874466072692</v>
       </c>
       <c r="B783" t="n">
-        <v>-0.02283326719997816</v>
+        <v>-0.01440709813633988</v>
       </c>
       <c r="C783" t="n">
         <v>1</v>
@@ -9054,10 +9054,10 @@
     </row>
     <row r="784">
       <c r="A784" t="n">
-        <v>0.1031439139578615</v>
+        <v>0.1031452606386272</v>
       </c>
       <c r="B784" t="n">
-        <v>0.09772599499139317</v>
+        <v>0.09802058819708304</v>
       </c>
       <c r="C784" t="n">
         <v>0</v>
@@ -9065,10 +9065,10 @@
     </row>
     <row r="785">
       <c r="A785" t="n">
-        <v>0.07135419608328213</v>
+        <v>0.07135160772704052</v>
       </c>
       <c r="B785" t="n">
-        <v>0.09616206914839337</v>
+        <v>0.09666614335611282</v>
       </c>
       <c r="C785" t="n">
         <v>0</v>
@@ -9076,10 +9076,10 @@
     </row>
     <row r="786">
       <c r="A786" t="n">
-        <v>0.1306992601592093</v>
+        <v>0.1306944579772278</v>
       </c>
       <c r="B786" t="n">
-        <v>-0.02301847854012465</v>
+        <v>-0.02015945334589646</v>
       </c>
       <c r="C786" t="n">
         <v>1</v>
@@ -9087,10 +9087,10 @@
     </row>
     <row r="787">
       <c r="A787" t="n">
-        <v>0.1287256269526395</v>
+        <v>0.1287309120003453</v>
       </c>
       <c r="B787" t="n">
-        <v>-1.380961790372389e-05</v>
+        <v>-0.002049533960766954</v>
       </c>
       <c r="C787" t="n">
         <v>0</v>
@@ -9098,10 +9098,10 @@
     </row>
     <row r="788">
       <c r="A788" t="n">
-        <v>0.1335649681122399</v>
+        <v>0.133576590173297</v>
       </c>
       <c r="B788" t="n">
-        <v>0.07323579372645037</v>
+        <v>0.08161621620772655</v>
       </c>
       <c r="C788" t="n">
         <v>0</v>
